--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,17 +399,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>high_check</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -433,27 +433,29 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>93.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D2" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E2" t="n">
-        <v>93.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>2797</v>
+        <v>4800</v>
       </c>
       <c r="G2" t="n">
-        <v>93.32166666666657</v>
+        <v>94.74333333333325</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -466,27 +468,29 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>93.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>92.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>93.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>92.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>7910</v>
+        <v>3933.7034</v>
       </c>
       <c r="G3" t="n">
-        <v>93.31666666666658</v>
+        <v>94.77166666666659</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -499,27 +503,29 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>93.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D4" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E4" t="n">
-        <v>93.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="G4" t="n">
-        <v>93.35166666666656</v>
+        <v>94.81833333333326</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -532,27 +538,29 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C5" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D5" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E5" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F5" t="n">
-        <v>667.4760383386581</v>
+        <v>7200</v>
       </c>
       <c r="G5" t="n">
-        <v>93.41499999999989</v>
+        <v>94.8666666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -565,27 +573,29 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C6" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D6" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E6" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F6" t="n">
-        <v>600.4366347177848</v>
+        <v>1239.6694</v>
       </c>
       <c r="G6" t="n">
-        <v>93.47499999999988</v>
+        <v>94.91499999999995</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -598,27 +608,29 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C7" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D7" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E7" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F7" t="n">
-        <v>417.7955</v>
+        <v>400</v>
       </c>
       <c r="G7" t="n">
-        <v>93.48499999999987</v>
+        <v>94.96499999999995</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -631,27 +643,29 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C8" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D8" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E8" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F8" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="G8" t="n">
-        <v>93.49999999999986</v>
+        <v>95.01333333333329</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -664,27 +678,29 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C9" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>93.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F9" t="n">
-        <v>6400</v>
+        <v>5868</v>
       </c>
       <c r="G9" t="n">
-        <v>93.51666666666652</v>
+        <v>95.06666666666663</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -697,27 +713,29 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>93.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>93.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>5200</v>
+        <v>23013.6549</v>
       </c>
       <c r="G10" t="n">
-        <v>93.53499999999985</v>
+        <v>95.14166666666664</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -730,27 +748,29 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>93.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>93.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>92.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>7504.2375</v>
+        <v>5148.7169</v>
       </c>
       <c r="G11" t="n">
-        <v>93.55499999999985</v>
+        <v>95.21666666666664</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -763,27 +783,29 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>93.8</v>
+        <v>97.5</v>
       </c>
       <c r="C12" t="n">
-        <v>93.8</v>
+        <v>97.5</v>
       </c>
       <c r="D12" t="n">
-        <v>93.8</v>
+        <v>97.5</v>
       </c>
       <c r="E12" t="n">
-        <v>93.8</v>
+        <v>97.5</v>
       </c>
       <c r="F12" t="n">
-        <v>400</v>
+        <v>1560.6051</v>
       </c>
       <c r="G12" t="n">
-        <v>93.57166666666652</v>
+        <v>95.27666666666664</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -796,27 +818,29 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>93.8</v>
+        <v>97.5</v>
       </c>
       <c r="C13" t="n">
-        <v>94</v>
+        <v>97.5</v>
       </c>
       <c r="D13" t="n">
-        <v>94</v>
+        <v>97.5</v>
       </c>
       <c r="E13" t="n">
-        <v>93.8</v>
+        <v>97.5</v>
       </c>
       <c r="F13" t="n">
-        <v>6800</v>
+        <v>7845.2307</v>
       </c>
       <c r="G13" t="n">
-        <v>93.59499999999984</v>
+        <v>95.33666666666664</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -829,27 +853,29 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>94</v>
+        <v>97.5</v>
       </c>
       <c r="C14" t="n">
-        <v>94.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D14" t="n">
-        <v>94.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E14" t="n">
-        <v>94</v>
+        <v>97.5</v>
       </c>
       <c r="F14" t="n">
-        <v>4800</v>
+        <v>4934.9333</v>
       </c>
       <c r="G14" t="n">
-        <v>93.63333333333317</v>
+        <v>95.39666666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -862,27 +888,29 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>94.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="C15" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="D15" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="E15" t="n">
-        <v>94.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="n">
-        <v>93.66999999999983</v>
+        <v>95.44333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -895,27 +923,29 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="C16" t="n">
-        <v>95.5</v>
+        <v>96.7</v>
       </c>
       <c r="D16" t="n">
-        <v>95.5</v>
+        <v>96.7</v>
       </c>
       <c r="E16" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="F16" t="n">
-        <v>3200</v>
+        <v>135</v>
       </c>
       <c r="G16" t="n">
-        <v>93.71499999999983</v>
+        <v>95.48999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -928,27 +958,29 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>95.5</v>
+        <v>97.2</v>
       </c>
       <c r="C17" t="n">
-        <v>95.5</v>
+        <v>97.2</v>
       </c>
       <c r="D17" t="n">
-        <v>95.5</v>
+        <v>97.2</v>
       </c>
       <c r="E17" t="n">
-        <v>95.5</v>
+        <v>97.2</v>
       </c>
       <c r="F17" t="n">
-        <v>1650</v>
+        <v>1641.11</v>
       </c>
       <c r="G17" t="n">
-        <v>93.75833333333317</v>
+        <v>95.545</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -961,27 +993,29 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>95.5</v>
+        <v>97.2</v>
       </c>
       <c r="C18" t="n">
-        <v>99</v>
+        <v>97.2</v>
       </c>
       <c r="D18" t="n">
-        <v>99</v>
+        <v>97.2</v>
       </c>
       <c r="E18" t="n">
-        <v>95.5</v>
+        <v>97.2</v>
       </c>
       <c r="F18" t="n">
-        <v>95748.76720919192</v>
+        <v>1164</v>
       </c>
       <c r="G18" t="n">
-        <v>93.85999999999984</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -994,27 +1028,29 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C19" t="n">
-        <v>99</v>
+        <v>97.2</v>
       </c>
       <c r="D19" t="n">
-        <v>99</v>
+        <v>97.2</v>
       </c>
       <c r="E19" t="n">
-        <v>98.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F19" t="n">
-        <v>3314.0707</v>
+        <v>130</v>
       </c>
       <c r="G19" t="n">
-        <v>93.96166666666652</v>
+        <v>95.655</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1027,27 +1063,29 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>96.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C20" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="D20" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="E20" t="n">
-        <v>96.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F20" t="n">
-        <v>1888.28</v>
+        <v>3200</v>
       </c>
       <c r="G20" t="n">
-        <v>94.03166666666652</v>
+        <v>95.69833333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1060,27 +1098,29 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="D21" t="n">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E21" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="F21" t="n">
-        <v>981.6154</v>
+        <v>13361.6176</v>
       </c>
       <c r="G21" t="n">
-        <v>94.10166666666653</v>
+        <v>95.75833333333335</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1093,27 +1133,29 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C22" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="D22" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="E22" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="F22" t="n">
-        <v>635</v>
+        <v>12748.2135</v>
       </c>
       <c r="G22" t="n">
-        <v>94.17166666666655</v>
+        <v>95.80166666666669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1126,27 +1168,29 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="C23" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="D23" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="E23" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="F23" t="n">
-        <v>1409.1366</v>
+        <v>1694</v>
       </c>
       <c r="G23" t="n">
-        <v>94.24166666666656</v>
+        <v>95.85333333333337</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1159,27 +1203,29 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="C24" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="E24" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>362.304</v>
+        <v>1600</v>
       </c>
       <c r="G24" t="n">
-        <v>94.30499999999989</v>
+        <v>95.89833333333337</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1192,27 +1238,29 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="D25" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="E25" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F25" t="n">
         <v>800</v>
       </c>
       <c r="G25" t="n">
-        <v>94.36999999999991</v>
+        <v>95.95666666666671</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1225,27 +1273,29 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="C26" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="D26" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="E26" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="F26" t="n">
-        <v>10047.9751</v>
+        <v>2568.4239</v>
       </c>
       <c r="G26" t="n">
-        <v>94.42833333333324</v>
+        <v>96.00000000000004</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1258,27 +1308,29 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="D27" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="E27" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="G27" t="n">
-        <v>94.48499999999991</v>
+        <v>96.05166666666672</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1291,27 +1343,29 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="C28" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="D28" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="E28" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="F28" t="n">
-        <v>6910.6301</v>
+        <v>15600</v>
       </c>
       <c r="G28" t="n">
-        <v>94.53999999999992</v>
+        <v>96.1033333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1324,27 +1378,29 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="C29" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="F29" t="n">
-        <v>800</v>
+        <v>7210</v>
       </c>
       <c r="G29" t="n">
-        <v>94.59333333333325</v>
+        <v>96.17000000000006</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -1357,27 +1413,29 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>94.64499999999991</v>
+        <v>96.2233333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1390,27 +1448,29 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96.5</v>
+        <v>95.7</v>
       </c>
       <c r="C31" t="n">
-        <v>96.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>96.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="E31" t="n">
-        <v>96.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>1600</v>
+        <v>3305.7855</v>
       </c>
       <c r="G31" t="n">
-        <v>94.69333333333324</v>
+        <v>96.25166666666675</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -1423,27 +1483,29 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="C32" t="n">
-        <v>96.7</v>
+        <v>95.5</v>
       </c>
       <c r="D32" t="n">
-        <v>96.7</v>
+        <v>95.7</v>
       </c>
       <c r="E32" t="n">
-        <v>96.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="F32" t="n">
-        <v>4800</v>
+        <v>95509.3952</v>
       </c>
       <c r="G32" t="n">
-        <v>94.74333333333325</v>
+        <v>96.27833333333342</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -1468,15 +1530,17 @@
         <v>95.59999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>3933.7034</v>
+        <v>2000</v>
       </c>
       <c r="G33" t="n">
-        <v>94.77166666666659</v>
+        <v>96.33166666666676</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -1492,24 +1556,26 @@
         <v>95.59999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>96.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>96.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E34" t="n">
         <v>95.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>2800</v>
+        <v>619.6</v>
       </c>
       <c r="G34" t="n">
-        <v>94.81833333333326</v>
+        <v>96.36000000000011</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -1522,27 +1588,29 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>96.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>96.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>96.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>96.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>7200</v>
+        <v>3131.4403</v>
       </c>
       <c r="G35" t="n">
-        <v>94.8666666666666</v>
+        <v>96.38833333333346</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -1555,27 +1623,29 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>1239.6694</v>
+        <v>250</v>
       </c>
       <c r="G36" t="n">
-        <v>94.91499999999995</v>
+        <v>96.43000000000012</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -1588,27 +1658,29 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="C37" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="F37" t="n">
-        <v>400</v>
+        <v>1211</v>
       </c>
       <c r="G37" t="n">
-        <v>94.96499999999995</v>
+        <v>96.47166666666679</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -1621,27 +1693,29 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>800</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>95.01333333333329</v>
+        <v>96.51333333333346</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -1654,27 +1728,29 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="C39" t="n">
-        <v>97.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D39" t="n">
-        <v>97.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="E39" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="F39" t="n">
-        <v>5868</v>
+        <v>1600</v>
       </c>
       <c r="G39" t="n">
-        <v>95.06666666666663</v>
+        <v>96.54000000000013</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -1687,27 +1763,29 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>97.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="C40" t="n">
-        <v>98.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D40" t="n">
-        <v>98.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="E40" t="n">
-        <v>97.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="F40" t="n">
-        <v>23013.6549</v>
+        <v>4656.5105</v>
       </c>
       <c r="G40" t="n">
-        <v>95.14166666666664</v>
+        <v>96.5666666666668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -1720,27 +1798,29 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>98.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="C41" t="n">
-        <v>98.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D41" t="n">
-        <v>98.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="E41" t="n">
-        <v>98.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F41" t="n">
-        <v>5148.7169</v>
+        <v>4969.811</v>
       </c>
       <c r="G41" t="n">
-        <v>95.21666666666664</v>
+        <v>96.59333333333348</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -1753,27 +1833,29 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>97.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>97.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>97.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>97.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>1560.6051</v>
+        <v>4714.0403</v>
       </c>
       <c r="G42" t="n">
-        <v>95.27666666666664</v>
+        <v>96.61500000000015</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -1786,27 +1868,29 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>97.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="D43" t="n">
-        <v>97.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="F43" t="n">
-        <v>7845.2307</v>
+        <v>2400</v>
       </c>
       <c r="G43" t="n">
-        <v>95.33666666666664</v>
+        <v>96.63166666666682</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -1819,27 +1903,29 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="C44" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="D44" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="E44" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="F44" t="n">
-        <v>4934.9333</v>
+        <v>4984.1602</v>
       </c>
       <c r="G44" t="n">
-        <v>95.39666666666666</v>
+        <v>96.63333333333348</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -1852,27 +1938,29 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="C45" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="D45" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="E45" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G45" t="n">
-        <v>95.44333333333333</v>
+        <v>96.63333333333348</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
@@ -1885,27 +1973,29 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="D46" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="E46" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="F46" t="n">
-        <v>135</v>
+        <v>4102.3536</v>
       </c>
       <c r="G46" t="n">
-        <v>95.48999999999999</v>
+        <v>96.62500000000016</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -1918,27 +2008,29 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>97.2</v>
+        <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>97.2</v>
+        <v>94.8</v>
       </c>
       <c r="D47" t="n">
-        <v>97.2</v>
+        <v>95</v>
       </c>
       <c r="E47" t="n">
-        <v>97.2</v>
+        <v>94.8</v>
       </c>
       <c r="F47" t="n">
-        <v>1641.11</v>
+        <v>10723</v>
       </c>
       <c r="G47" t="n">
-        <v>95.545</v>
+        <v>96.61333333333349</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
@@ -1951,27 +2043,29 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>97.2</v>
+        <v>94.8</v>
       </c>
       <c r="C48" t="n">
-        <v>97.2</v>
+        <v>94.8</v>
       </c>
       <c r="D48" t="n">
-        <v>97.2</v>
+        <v>94.8</v>
       </c>
       <c r="E48" t="n">
-        <v>97.2</v>
+        <v>94.8</v>
       </c>
       <c r="F48" t="n">
-        <v>1164</v>
+        <v>10624.05</v>
       </c>
       <c r="G48" t="n">
-        <v>95.59999999999999</v>
+        <v>96.54333333333349</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -1984,27 +2078,29 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>97.2</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>97.2</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>97.2</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>97.2</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>130</v>
+        <v>550.0821</v>
       </c>
       <c r="G49" t="n">
-        <v>95.655</v>
+        <v>96.47000000000017</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -2017,27 +2113,29 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>96.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="D50" t="n">
-        <v>96.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="F50" t="n">
-        <v>3200</v>
+        <v>10451.5617</v>
       </c>
       <c r="G50" t="n">
-        <v>95.69833333333334</v>
+        <v>96.42666666666682</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
@@ -2050,27 +2148,29 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="C51" t="n">
-        <v>97.5</v>
+        <v>94.5</v>
       </c>
       <c r="D51" t="n">
-        <v>97.5</v>
+        <v>94.5</v>
       </c>
       <c r="E51" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="F51" t="n">
-        <v>13361.6176</v>
+        <v>9975</v>
       </c>
       <c r="G51" t="n">
-        <v>95.75833333333335</v>
+        <v>96.38333333333348</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -2083,27 +2183,29 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="C52" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="D52" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="E52" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="F52" t="n">
-        <v>12748.2135</v>
+        <v>3944.191</v>
       </c>
       <c r="G52" t="n">
-        <v>95.80166666666669</v>
+        <v>96.34000000000015</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -2116,27 +2218,29 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>97</v>
+        <v>93.7</v>
       </c>
       <c r="C53" t="n">
-        <v>97</v>
+        <v>93.2</v>
       </c>
       <c r="D53" t="n">
-        <v>97</v>
+        <v>93.7</v>
       </c>
       <c r="E53" t="n">
-        <v>97</v>
+        <v>93.2</v>
       </c>
       <c r="F53" t="n">
-        <v>1694</v>
+        <v>1556.7036</v>
       </c>
       <c r="G53" t="n">
-        <v>95.85333333333337</v>
+        <v>96.27500000000013</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -2149,27 +2253,29 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>96.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>96.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>1600</v>
+        <v>781.7944</v>
       </c>
       <c r="G54" t="n">
-        <v>95.89833333333337</v>
+        <v>96.22833333333347</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -2182,27 +2288,29 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C55" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="D55" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="E55" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="F55" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="n">
-        <v>95.95666666666671</v>
+        <v>96.1816666666668</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
@@ -2215,29 +2323,35 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="C56" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="D56" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="E56" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="F56" t="n">
-        <v>2568.4239</v>
+        <v>2000</v>
       </c>
       <c r="G56" t="n">
-        <v>96.00000000000004</v>
+        <v>96.13500000000013</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>94</v>
+      </c>
+      <c r="K56" t="n">
+        <v>94</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2248,30 +2362,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>96.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="C57" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D57" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E57" t="n">
-        <v>96.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="F57" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="G57" t="n">
-        <v>96.05166666666672</v>
+        <v>96.08833333333345</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>94</v>
+      </c>
+      <c r="K57" t="n">
+        <v>94</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2281,30 +2405,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>15600</v>
+        <v>800</v>
       </c>
       <c r="G58" t="n">
-        <v>96.1033333333334</v>
+        <v>96.04000000000012</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K58" t="n">
+        <v>94</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2314,29 +2448,35 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>7210</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>96.17000000000006</v>
+        <v>95.99166666666677</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K59" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2347,30 +2487,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G60" t="n">
-        <v>96.2233333333334</v>
+        <v>95.94500000000011</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K60" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2380,30 +2530,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>95.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>95.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>3305.7855</v>
+        <v>1200</v>
       </c>
       <c r="G61" t="n">
-        <v>96.25166666666675</v>
+        <v>95.90000000000009</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K61" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2413,30 +2573,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>95.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>95.5</v>
+        <v>94</v>
       </c>
       <c r="D62" t="n">
-        <v>95.7</v>
+        <v>94</v>
       </c>
       <c r="E62" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>95509.3952</v>
+        <v>800</v>
       </c>
       <c r="G62" t="n">
-        <v>96.27833333333342</v>
+        <v>95.85500000000009</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K62" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2446,30 +2616,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="C63" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="D63" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="E63" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="F63" t="n">
-        <v>2000</v>
+        <v>340.4255319148936</v>
       </c>
       <c r="G63" t="n">
-        <v>96.33166666666676</v>
+        <v>95.82833333333342</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>94</v>
+      </c>
+      <c r="K63" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2479,30 +2659,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="C64" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="D64" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="E64" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="F64" t="n">
-        <v>619.6</v>
+        <v>800</v>
       </c>
       <c r="G64" t="n">
-        <v>96.36000000000011</v>
+        <v>95.78333333333343</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>94</v>
+      </c>
+      <c r="K64" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2512,30 +2702,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="C65" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="D65" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="E65" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="F65" t="n">
-        <v>3131.4403</v>
+        <v>1200</v>
       </c>
       <c r="G65" t="n">
-        <v>96.38833333333346</v>
+        <v>95.73666666666675</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>94</v>
+      </c>
+      <c r="K65" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2545,30 +2745,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C66" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D66" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E66" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="G66" t="n">
-        <v>96.43000000000012</v>
+        <v>95.69000000000008</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>94</v>
+      </c>
+      <c r="K66" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2578,30 +2788,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>95.5</v>
+        <v>94</v>
       </c>
       <c r="C67" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D67" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E67" t="n">
-        <v>95.5</v>
+        <v>94</v>
       </c>
       <c r="F67" t="n">
-        <v>1211</v>
+        <v>543</v>
       </c>
       <c r="G67" t="n">
-        <v>96.47166666666679</v>
+        <v>95.64333333333342</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>94</v>
+      </c>
+      <c r="K67" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2611,30 +2831,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>96.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C68" t="n">
-        <v>96.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D68" t="n">
-        <v>96.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E68" t="n">
-        <v>96.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>9445.089900000001</v>
       </c>
       <c r="G68" t="n">
-        <v>96.51333333333346</v>
+        <v>95.60500000000008</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2644,30 +2874,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>95.5</v>
+        <v>94.5</v>
       </c>
       <c r="C69" t="n">
-        <v>95.5</v>
+        <v>94.5</v>
       </c>
       <c r="D69" t="n">
-        <v>95.5</v>
+        <v>94.5</v>
       </c>
       <c r="E69" t="n">
-        <v>95.5</v>
+        <v>94.5</v>
       </c>
       <c r="F69" t="n">
-        <v>1600</v>
+        <v>7299.7248</v>
       </c>
       <c r="G69" t="n">
-        <v>96.54000000000013</v>
+        <v>95.56166666666674</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2677,30 +2917,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>95.5</v>
+        <v>93.7</v>
       </c>
       <c r="C70" t="n">
-        <v>95.5</v>
+        <v>93.7</v>
       </c>
       <c r="D70" t="n">
-        <v>95.5</v>
+        <v>93.7</v>
       </c>
       <c r="E70" t="n">
-        <v>95.5</v>
+        <v>93.7</v>
       </c>
       <c r="F70" t="n">
-        <v>4656.5105</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>96.5666666666668</v>
+        <v>95.48333333333341</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="K70" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2710,30 +2960,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>95.5</v>
+        <v>93.7</v>
       </c>
       <c r="D71" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>95.5</v>
+        <v>93.7</v>
       </c>
       <c r="F71" t="n">
-        <v>4969.811</v>
+        <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>96.59333333333348</v>
+        <v>95.40500000000007</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K71" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2743,30 +3003,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C72" t="n">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D72" t="n">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E72" t="n">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F72" t="n">
-        <v>4714.0403</v>
+        <v>10582.0105</v>
       </c>
       <c r="G72" t="n">
-        <v>96.61500000000015</v>
+        <v>95.35500000000008</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2776,30 +3046,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>95.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>95.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>2400</v>
+        <v>14059.8388</v>
       </c>
       <c r="G73" t="n">
-        <v>96.63166666666682</v>
+        <v>95.30333333333341</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K73" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2809,30 +3089,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>4984.1602</v>
+        <v>4339.3312</v>
       </c>
       <c r="G74" t="n">
-        <v>96.63333333333348</v>
+        <v>95.25166666666674</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K74" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2842,30 +3132,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G75" t="n">
-        <v>96.63333333333348</v>
+        <v>95.2133333333334</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K75" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -2875,30 +3175,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>4102.3536</v>
+        <v>400</v>
       </c>
       <c r="G76" t="n">
-        <v>96.62500000000016</v>
+        <v>95.17500000000005</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K76" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -2908,30 +3218,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>94.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>94.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>10723</v>
+        <v>619.896</v>
       </c>
       <c r="G77" t="n">
-        <v>96.61333333333349</v>
+        <v>95.12833333333339</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K77" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -2941,30 +3261,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>94.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>94.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>94.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>94.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>10624.05</v>
+        <v>5128.66</v>
       </c>
       <c r="G78" t="n">
-        <v>96.54333333333349</v>
+        <v>95.08166666666672</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K78" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -2974,30 +3304,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C79" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D79" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E79" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F79" t="n">
-        <v>550.0821</v>
+        <v>1058.201058201058</v>
       </c>
       <c r="G79" t="n">
-        <v>96.47000000000017</v>
+        <v>95.03666666666672</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3007,30 +3347,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>10451.5617</v>
+        <v>800</v>
       </c>
       <c r="G80" t="n">
-        <v>96.42666666666682</v>
+        <v>95.00166666666672</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K80" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3040,30 +3390,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>9975</v>
+        <v>800</v>
       </c>
       <c r="G81" t="n">
-        <v>96.38333333333348</v>
+        <v>94.95000000000005</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K81" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3073,30 +3433,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>3944.191</v>
+        <v>1123.7623</v>
       </c>
       <c r="G82" t="n">
-        <v>96.34000000000015</v>
+        <v>94.91500000000003</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K82" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3106,30 +3476,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>93.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>93.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>93.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>93.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1556.7036</v>
+        <v>5385.2346</v>
       </c>
       <c r="G83" t="n">
-        <v>96.27500000000013</v>
+        <v>94.8716666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K83" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3139,30 +3519,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>93.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C84" t="n">
-        <v>93.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D84" t="n">
-        <v>93.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E84" t="n">
-        <v>93.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F84" t="n">
-        <v>781.7944</v>
+        <v>800</v>
       </c>
       <c r="G84" t="n">
-        <v>96.22833333333347</v>
+        <v>94.83666666666669</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3172,30 +3562,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C85" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="D85" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="E85" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="F85" t="n">
-        <v>1200</v>
+        <v>108.8757417989418</v>
       </c>
       <c r="G85" t="n">
-        <v>96.1816666666668</v>
+        <v>94.80333333333336</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3205,30 +3605,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>2175</v>
       </c>
       <c r="G86" t="n">
-        <v>96.13500000000013</v>
+        <v>94.78500000000003</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="K86" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3238,30 +3648,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>6000</v>
+        <v>3061</v>
       </c>
       <c r="G87" t="n">
-        <v>96.08833333333345</v>
+        <v>94.75833333333335</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="K87" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3271,30 +3691,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>800</v>
+        <v>5600</v>
       </c>
       <c r="G88" t="n">
-        <v>96.04000000000012</v>
+        <v>94.73166666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="K88" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3304,30 +3734,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>2401</v>
       </c>
       <c r="G89" t="n">
-        <v>95.99166666666677</v>
+        <v>94.70333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="K89" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3337,30 +3777,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="G90" t="n">
-        <v>95.94500000000011</v>
+        <v>94.67499999999998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="K90" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3370,30 +3820,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G91" t="n">
-        <v>95.90000000000009</v>
+        <v>94.67166666666664</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="K91" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3403,30 +3863,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F92" t="n">
         <v>800</v>
       </c>
       <c r="G92" t="n">
-        <v>95.85500000000009</v>
+        <v>94.66999999999997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3436,30 +3904,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>340.4255319148936</v>
+        <v>800</v>
       </c>
       <c r="G93" t="n">
-        <v>95.82833333333342</v>
+        <v>94.66666666666661</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3469,30 +3945,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F94" t="n">
         <v>800</v>
       </c>
       <c r="G94" t="n">
-        <v>95.78333333333343</v>
+        <v>94.66333333333327</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3502,30 +3986,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G95" t="n">
-        <v>95.73666666666675</v>
+        <v>94.65999999999993</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3535,30 +4027,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>800</v>
+        <v>2460</v>
       </c>
       <c r="G96" t="n">
-        <v>95.69000000000008</v>
+        <v>94.64333333333326</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3568,30 +4068,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>543</v>
+        <v>8504.937099999999</v>
       </c>
       <c r="G97" t="n">
-        <v>95.64333333333342</v>
+        <v>94.62666666666659</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3601,30 +4109,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>9445.089900000001</v>
+        <v>800</v>
       </c>
       <c r="G98" t="n">
-        <v>95.60500000000008</v>
+        <v>94.60999999999993</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3634,30 +4150,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>7299.7248</v>
+        <v>800</v>
       </c>
       <c r="G99" t="n">
-        <v>95.56166666666674</v>
+        <v>94.60833333333326</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3667,30 +4191,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>93.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>93.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>93.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>93.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>1221.3637</v>
       </c>
       <c r="G100" t="n">
-        <v>95.48333333333341</v>
+        <v>94.60666666666658</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3700,30 +4232,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>93.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>93.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G101" t="n">
-        <v>95.40500000000007</v>
+        <v>94.60499999999992</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3733,30 +4273,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>94.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>94.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>94.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>94.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>10582.0105</v>
+        <v>513.7388</v>
       </c>
       <c r="G102" t="n">
-        <v>95.35500000000008</v>
+        <v>94.60499999999992</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3766,30 +4314,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>94.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="C103" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>94.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="F103" t="n">
-        <v>14059.8388</v>
+        <v>587</v>
       </c>
       <c r="G103" t="n">
-        <v>95.30333333333341</v>
+        <v>94.61166666666658</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -3799,30 +4355,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>4339.3312</v>
+        <v>800</v>
       </c>
       <c r="G104" t="n">
-        <v>95.25166666666674</v>
+        <v>94.61833333333324</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -3832,30 +4396,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G105" t="n">
-        <v>95.2133333333334</v>
+        <v>94.6249999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -3865,30 +4437,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G106" t="n">
-        <v>95.17500000000005</v>
+        <v>94.63166666666656</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -3898,30 +4478,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>619.896</v>
+        <v>1200</v>
       </c>
       <c r="G107" t="n">
-        <v>95.12833333333339</v>
+        <v>94.64166666666655</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -3931,30 +4519,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>5128.66</v>
+        <v>15864.9371</v>
       </c>
       <c r="G108" t="n">
-        <v>95.08166666666672</v>
+        <v>94.65166666666654</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -3964,30 +4560,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="D109" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="E109" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>1058.201058201058</v>
+        <v>19761</v>
       </c>
       <c r="G109" t="n">
-        <v>95.03666666666672</v>
+        <v>94.67499999999987</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -3997,30 +4601,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C110" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D110" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E110" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F110" t="n">
-        <v>800</v>
+        <v>1041.666666666667</v>
       </c>
       <c r="G110" t="n">
-        <v>95.00166666666672</v>
+        <v>94.69999999999986</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4030,30 +4642,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C111" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D111" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E111" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F111" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G111" t="n">
-        <v>94.95000000000005</v>
+        <v>94.72499999999987</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4063,30 +4683,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C112" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D112" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E112" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F112" t="n">
-        <v>1123.7623</v>
+        <v>12133.6498</v>
       </c>
       <c r="G112" t="n">
-        <v>94.91500000000003</v>
+        <v>94.74999999999986</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4096,30 +4724,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C113" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D113" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E113" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F113" t="n">
-        <v>5385.2346</v>
+        <v>27671.4883</v>
       </c>
       <c r="G113" t="n">
-        <v>94.8716666666667</v>
+        <v>94.79666666666654</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4129,30 +4765,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="C114" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="D114" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="E114" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="F114" t="n">
-        <v>800</v>
+        <v>3.3333333333334e-05</v>
       </c>
       <c r="G114" t="n">
-        <v>94.83666666666669</v>
+        <v>94.83166666666654</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4162,30 +4806,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>94.5</v>
+        <v>96.2</v>
       </c>
       <c r="C115" t="n">
-        <v>94.5</v>
+        <v>96.7</v>
       </c>
       <c r="D115" t="n">
-        <v>94.5</v>
+        <v>96.7</v>
       </c>
       <c r="E115" t="n">
-        <v>94.5</v>
+        <v>96.2</v>
       </c>
       <c r="F115" t="n">
-        <v>108.8757417989418</v>
+        <v>1062.3242</v>
       </c>
       <c r="G115" t="n">
-        <v>94.80333333333336</v>
+        <v>94.87666666666654</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4195,30 +4847,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="C116" t="n">
-        <v>95.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="E116" t="n">
-        <v>95.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>2175</v>
+        <v>1380.2394</v>
       </c>
       <c r="G116" t="n">
-        <v>94.78500000000003</v>
+        <v>94.92499999999987</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4228,30 +4888,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>95.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C117" t="n">
-        <v>95.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D117" t="n">
-        <v>95.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E117" t="n">
-        <v>95.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F117" t="n">
-        <v>3061</v>
+        <v>125.8217</v>
       </c>
       <c r="G117" t="n">
-        <v>94.75833333333335</v>
+        <v>94.97166666666654</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4261,32 +4929,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C118" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="E118" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>5600</v>
+        <v>5223.5268</v>
       </c>
       <c r="G118" t="n">
-        <v>94.73166666666667</v>
+        <v>95.01333333333319</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M118" t="n">
-        <v>1</v>
+        <v>1.021624068157615</v>
       </c>
     </row>
     <row r="119">
@@ -4294,27 +4970,29 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>95.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="C119" t="n">
-        <v>95.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="D119" t="n">
-        <v>95.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="E119" t="n">
-        <v>95.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="F119" t="n">
-        <v>2401</v>
+        <v>2784.4698</v>
       </c>
       <c r="G119" t="n">
-        <v>94.70333333333333</v>
+        <v>95.05166666666653</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
@@ -4327,27 +5005,29 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C120" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D120" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E120" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F120" t="n">
-        <v>420</v>
+        <v>1305.3895</v>
       </c>
       <c r="G120" t="n">
-        <v>94.67499999999998</v>
+        <v>95.08666666666655</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
@@ -4360,27 +5040,29 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>95.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D121" t="n">
-        <v>95.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E121" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G121" t="n">
-        <v>94.67166666666664</v>
+        <v>95.13333333333321</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
@@ -4393,27 +5075,29 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>95.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="C122" t="n">
-        <v>95.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="D122" t="n">
-        <v>95.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="E122" t="n">
-        <v>95.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="F122" t="n">
         <v>800</v>
       </c>
       <c r="G122" t="n">
-        <v>94.66999999999997</v>
+        <v>95.16333333333321</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
@@ -4426,27 +5110,29 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C123" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="D123" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="E123" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="F123" t="n">
-        <v>800</v>
+        <v>1429.7784</v>
       </c>
       <c r="G123" t="n">
-        <v>94.66666666666661</v>
+        <v>95.19166666666655</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
@@ -4459,27 +5145,29 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>94.66333333333327</v>
+        <v>95.23166666666654</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
@@ -4492,27 +5180,29 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>2000</v>
+        <v>652.6987</v>
       </c>
       <c r="G125" t="n">
-        <v>94.65999999999993</v>
+        <v>95.25833333333321</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
@@ -4525,27 +5215,29 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D126" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F126" t="n">
-        <v>2460</v>
+        <v>2991.6595</v>
       </c>
       <c r="G126" t="n">
-        <v>94.64333333333326</v>
+        <v>95.28333333333322</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
@@ -4561,24 +5253,26 @@
         <v>95.40000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>95.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>95.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="F127" t="n">
-        <v>8504.937099999999</v>
+        <v>3245.4528</v>
       </c>
       <c r="G127" t="n">
-        <v>94.62666666666659</v>
+        <v>95.31833333333321</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
@@ -4591,27 +5285,29 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="C128" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="E128" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>800</v>
+        <v>10697.591</v>
       </c>
       <c r="G128" t="n">
-        <v>94.60999999999993</v>
+        <v>95.32833333333322</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
@@ -4624,27 +5320,29 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>800</v>
+        <v>4799.1814</v>
       </c>
       <c r="G129" t="n">
-        <v>94.60833333333326</v>
+        <v>95.33833333333322</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
@@ -4657,27 +5355,29 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C130" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="D130" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="E130" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="F130" t="n">
-        <v>1221.3637</v>
+        <v>2383.91</v>
       </c>
       <c r="G130" t="n">
-        <v>94.60666666666658</v>
+        <v>95.37166666666657</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
@@ -4690,27 +5390,29 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C131" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D131" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E131" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F131" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G131" t="n">
-        <v>94.60499999999992</v>
+        <v>95.4099999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
@@ -4718,1961 +5420,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="C132" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="D132" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="E132" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="F132" t="n">
-        <v>513.7388</v>
-      </c>
-      <c r="G132" t="n">
-        <v>94.60499999999992</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="C133" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D133" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E133" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="F133" t="n">
-        <v>587</v>
-      </c>
-      <c r="G133" t="n">
-        <v>94.61166666666658</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C134" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D134" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E134" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>800</v>
-      </c>
-      <c r="G134" t="n">
-        <v>94.61833333333324</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C135" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D135" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E135" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F135" t="n">
-        <v>800</v>
-      </c>
-      <c r="G135" t="n">
-        <v>94.6249999999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C136" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D136" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E136" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F136" t="n">
-        <v>800</v>
-      </c>
-      <c r="G136" t="n">
-        <v>94.63166666666656</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C137" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D137" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E137" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G137" t="n">
-        <v>94.64166666666655</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C138" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D138" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E138" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F138" t="n">
-        <v>15864.9371</v>
-      </c>
-      <c r="G138" t="n">
-        <v>94.65166666666654</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C139" t="n">
-        <v>96</v>
-      </c>
-      <c r="D139" t="n">
-        <v>96</v>
-      </c>
-      <c r="E139" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F139" t="n">
-        <v>19761</v>
-      </c>
-      <c r="G139" t="n">
-        <v>94.67499999999987</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>96</v>
-      </c>
-      <c r="C140" t="n">
-        <v>96</v>
-      </c>
-      <c r="D140" t="n">
-        <v>96</v>
-      </c>
-      <c r="E140" t="n">
-        <v>96</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1041.666666666667</v>
-      </c>
-      <c r="G140" t="n">
-        <v>94.69999999999986</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>96</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K140" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>96</v>
-      </c>
-      <c r="C141" t="n">
-        <v>96</v>
-      </c>
-      <c r="D141" t="n">
-        <v>96</v>
-      </c>
-      <c r="E141" t="n">
-        <v>96</v>
-      </c>
-      <c r="F141" t="n">
-        <v>400</v>
-      </c>
-      <c r="G141" t="n">
-        <v>94.72499999999987</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>96</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K141" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>96</v>
-      </c>
-      <c r="C142" t="n">
-        <v>96</v>
-      </c>
-      <c r="D142" t="n">
-        <v>96</v>
-      </c>
-      <c r="E142" t="n">
-        <v>96</v>
-      </c>
-      <c r="F142" t="n">
-        <v>12133.6498</v>
-      </c>
-      <c r="G142" t="n">
-        <v>94.74999999999986</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K142" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>96</v>
-      </c>
-      <c r="C143" t="n">
-        <v>96</v>
-      </c>
-      <c r="D143" t="n">
-        <v>96</v>
-      </c>
-      <c r="E143" t="n">
-        <v>96</v>
-      </c>
-      <c r="F143" t="n">
-        <v>27671.4883</v>
-      </c>
-      <c r="G143" t="n">
-        <v>94.79666666666654</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K143" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>96</v>
-      </c>
-      <c r="C144" t="n">
-        <v>96</v>
-      </c>
-      <c r="D144" t="n">
-        <v>96</v>
-      </c>
-      <c r="E144" t="n">
-        <v>96</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3.3333333333334e-05</v>
-      </c>
-      <c r="G144" t="n">
-        <v>94.83166666666654</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K144" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D145" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E145" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1062.3242</v>
-      </c>
-      <c r="G145" t="n">
-        <v>94.87666666666654</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>96</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K145" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>97</v>
-      </c>
-      <c r="C146" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="D146" t="n">
-        <v>97</v>
-      </c>
-      <c r="E146" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1380.2394</v>
-      </c>
-      <c r="G146" t="n">
-        <v>94.92499999999987</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K146" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C147" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>125.8217</v>
-      </c>
-      <c r="G147" t="n">
-        <v>94.97166666666654</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K147" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D148" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5223.5268</v>
-      </c>
-      <c r="G148" t="n">
-        <v>95.01333333333319</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K148" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2784.4698</v>
-      </c>
-      <c r="G149" t="n">
-        <v>95.05166666666653</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>96</v>
-      </c>
-      <c r="C150" t="n">
-        <v>96</v>
-      </c>
-      <c r="D150" t="n">
-        <v>96</v>
-      </c>
-      <c r="E150" t="n">
-        <v>96</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1305.3895</v>
-      </c>
-      <c r="G150" t="n">
-        <v>95.08666666666655</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K150" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C151" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G151" t="n">
-        <v>95.13333333333321</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K151" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="C152" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="D152" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="E152" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="F152" t="n">
-        <v>800</v>
-      </c>
-      <c r="G152" t="n">
-        <v>95.16333333333321</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K152" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="C153" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="D153" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="E153" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1429.7784</v>
-      </c>
-      <c r="G153" t="n">
-        <v>95.19166666666655</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K153" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C154" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D154" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E154" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F154" t="n">
-        <v>100</v>
-      </c>
-      <c r="G154" t="n">
-        <v>95.23166666666654</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K154" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="C155" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="D155" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="E155" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="F155" t="n">
-        <v>652.6987</v>
-      </c>
-      <c r="G155" t="n">
-        <v>95.25833333333321</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K155" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="C156" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="E156" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2991.6595</v>
-      </c>
-      <c r="G156" t="n">
-        <v>95.28333333333322</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>99.77</v>
-      </c>
-      <c r="K156" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C157" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="D157" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="E157" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3245.4528</v>
-      </c>
-      <c r="G157" t="n">
-        <v>95.31833333333321</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="D158" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="F158" t="n">
-        <v>10697.591</v>
-      </c>
-      <c r="G158" t="n">
-        <v>95.32833333333322</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="C159" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="D159" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="E159" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="F159" t="n">
-        <v>4799.1814</v>
-      </c>
-      <c r="G159" t="n">
-        <v>95.33833333333322</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="C160" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="D160" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="E160" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2383.91</v>
-      </c>
-      <c r="G160" t="n">
-        <v>95.37166666666657</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>96</v>
-      </c>
-      <c r="C161" t="n">
-        <v>96</v>
-      </c>
-      <c r="D161" t="n">
-        <v>96</v>
-      </c>
-      <c r="E161" t="n">
-        <v>96</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G161" t="n">
-        <v>95.4099999999999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>96</v>
-      </c>
-      <c r="C162" t="n">
-        <v>96</v>
-      </c>
-      <c r="D162" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="E162" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="F162" t="n">
-        <v>792557.9142</v>
-      </c>
-      <c r="G162" t="n">
-        <v>95.4349999999999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>96</v>
-      </c>
-      <c r="C163" t="n">
-        <v>96</v>
-      </c>
-      <c r="D163" t="n">
-        <v>96</v>
-      </c>
-      <c r="E163" t="n">
-        <v>96</v>
-      </c>
-      <c r="F163" t="n">
-        <v>667111.8981</v>
-      </c>
-      <c r="G163" t="n">
-        <v>95.46166666666657</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>96</v>
-      </c>
-      <c r="C164" t="n">
-        <v>96</v>
-      </c>
-      <c r="D164" t="n">
-        <v>96</v>
-      </c>
-      <c r="E164" t="n">
-        <v>96</v>
-      </c>
-      <c r="F164" t="n">
-        <v>74109.7065</v>
-      </c>
-      <c r="G164" t="n">
-        <v>95.48833333333324</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>96</v>
-      </c>
-      <c r="C165" t="n">
-        <v>96</v>
-      </c>
-      <c r="D165" t="n">
-        <v>96</v>
-      </c>
-      <c r="E165" t="n">
-        <v>96</v>
-      </c>
-      <c r="F165" t="n">
-        <v>65390.9175</v>
-      </c>
-      <c r="G165" t="n">
-        <v>95.51499999999992</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="C166" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="D166" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="E166" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="F166" t="n">
-        <v>41.0661</v>
-      </c>
-      <c r="G166" t="n">
-        <v>95.5466666666666</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C167" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D167" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E167" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F167" t="n">
-        <v>410.859</v>
-      </c>
-      <c r="G167" t="n">
-        <v>95.57999999999993</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C168" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D168" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E168" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F168" t="n">
-        <v>800</v>
-      </c>
-      <c r="G168" t="n">
-        <v>95.61333333333326</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C169" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D169" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E169" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F169" t="n">
-        <v>7262.0573</v>
-      </c>
-      <c r="G169" t="n">
-        <v>95.64833333333327</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C170" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D170" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E170" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F170" t="n">
-        <v>243.367</v>
-      </c>
-      <c r="G170" t="n">
-        <v>95.68499999999995</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C171" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D171" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E171" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1479.6583</v>
-      </c>
-      <c r="G171" t="n">
-        <v>95.72166666666662</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C172" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D172" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E172" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1453.1315</v>
-      </c>
-      <c r="G172" t="n">
-        <v>95.75499999999995</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C173" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D173" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E173" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F173" t="n">
-        <v>12722.4999</v>
-      </c>
-      <c r="G173" t="n">
-        <v>95.78833333333328</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C174" t="n">
-        <v>97</v>
-      </c>
-      <c r="D174" t="n">
-        <v>97</v>
-      </c>
-      <c r="E174" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="F174" t="n">
-        <v>7854.154655360825</v>
-      </c>
-      <c r="G174" t="n">
-        <v>95.82999999999996</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="C175" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="D175" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="F175" t="n">
-        <v>81.67319999999999</v>
-      </c>
-      <c r="G175" t="n">
-        <v>95.85999999999996</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="C176" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="D176" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="E176" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="F176" t="n">
-        <v>23080.0938</v>
-      </c>
-      <c r="G176" t="n">
-        <v>95.86666666666663</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="C177" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="D177" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="E177" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="F177" t="n">
-        <v>5011.8721</v>
-      </c>
-      <c r="G177" t="n">
-        <v>95.86499999999998</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C178" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D178" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E178" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F178" t="n">
-        <v>742.6301999999999</v>
-      </c>
-      <c r="G178" t="n">
-        <v>95.86499999999998</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C179" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D179" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E179" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F179" t="n">
-        <v>742.6303</v>
-      </c>
-      <c r="G179" t="n">
-        <v>95.86499999999998</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="C180" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="D180" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="E180" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="F180" t="n">
-        <v>464.6816</v>
-      </c>
-      <c r="G180" t="n">
-        <v>95.86333333333332</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="C181" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="D181" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="E181" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="F181" t="n">
-        <v>613.5434</v>
-      </c>
-      <c r="G181" t="n">
-        <v>95.85999999999999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="C182" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="D182" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="E182" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="F182" t="n">
-        <v>374.5716</v>
-      </c>
-      <c r="G182" t="n">
-        <v>95.85666666666665</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>0.9825518672199169</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -2306,13 +2306,17 @@
         <v>96.1816666666668</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K55" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2350,9 +2354,13 @@
         <v>94</v>
       </c>
       <c r="K56" t="n">
-        <v>94</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2380,16 +2388,14 @@
         <v>96.08833333333345</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>94</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2429,55 +2435,53 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="K58" t="n">
         <v>94</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C59" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D59" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E59" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" t="n">
+        <v>95.99166666666677</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>94</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C59" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D59" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E59" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F59" t="n">
-        <v>10</v>
-      </c>
-      <c r="G59" t="n">
-        <v>95.99166666666677</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K59" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2505,16 +2509,14 @@
         <v>95.94500000000011</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2548,22 +2550,14 @@
         <v>95.90000000000009</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K61" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2591,22 +2585,14 @@
         <v>95.85500000000009</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K62" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2620,14 @@
         <v>95.82833333333342</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>94</v>
-      </c>
-      <c r="K63" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2677,22 +2655,14 @@
         <v>95.78333333333343</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>94</v>
-      </c>
-      <c r="K64" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2720,22 +2690,14 @@
         <v>95.73666666666675</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>94</v>
-      </c>
-      <c r="K65" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2763,22 +2725,14 @@
         <v>95.69000000000008</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>94</v>
-      </c>
-      <c r="K66" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2806,22 +2760,14 @@
         <v>95.64333333333342</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>94</v>
-      </c>
-      <c r="K67" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2849,22 +2795,14 @@
         <v>95.60500000000008</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K68" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2892,22 +2830,14 @@
         <v>95.56166666666674</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K69" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2935,22 +2865,14 @@
         <v>95.48333333333341</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="K70" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2978,22 +2900,14 @@
         <v>95.40500000000007</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K71" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3021,22 +2935,14 @@
         <v>95.35500000000008</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3064,22 +2970,14 @@
         <v>95.30333333333341</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K73" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3107,22 +3005,14 @@
         <v>95.25166666666674</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K74" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3150,22 +3040,14 @@
         <v>95.2133333333334</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K75" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3193,22 +3075,14 @@
         <v>95.17500000000005</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K76" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3236,22 +3110,14 @@
         <v>95.12833333333339</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K77" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3279,22 +3145,14 @@
         <v>95.08166666666672</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K78" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3322,22 +3180,14 @@
         <v>95.03666666666672</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3365,22 +3215,14 @@
         <v>95.00166666666672</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K80" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3250,14 @@
         <v>94.95000000000005</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K81" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3451,22 +3285,14 @@
         <v>94.91500000000003</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K82" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3494,22 +3320,14 @@
         <v>94.8716666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K83" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3537,22 +3355,14 @@
         <v>94.83666666666669</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K84" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3580,22 +3390,14 @@
         <v>94.80333333333336</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K85" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3623,22 +3425,14 @@
         <v>94.78500000000003</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="K86" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3666,22 +3460,14 @@
         <v>94.75833333333335</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="K87" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3709,22 +3495,14 @@
         <v>94.73166666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="K88" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3752,22 +3530,14 @@
         <v>94.70333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="K89" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3795,22 +3565,14 @@
         <v>94.67499999999998</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="K90" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3838,22 +3600,14 @@
         <v>94.67166666666664</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="K91" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3887,14 +3641,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3928,14 +3676,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3969,14 +3711,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4010,14 +3746,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4051,14 +3781,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4092,14 +3816,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4133,14 +3851,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4174,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4215,14 +3921,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4256,14 +3956,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4297,14 +3991,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4338,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4379,14 +4061,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4420,14 +4096,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4461,14 +4131,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4502,14 +4166,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4543,14 +4201,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4584,14 +4236,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4625,14 +4271,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4666,14 +4306,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4707,14 +4341,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4748,14 +4376,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4789,14 +4411,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4830,14 +4446,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4871,14 +4481,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4912,14 +4516,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4953,16 +4551,10 @@
         <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>1.021624068157615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -5026,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5061,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="C2" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="C2" t="n">
-        <v>96.7</v>
-      </c>
       <c r="D2" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="F2" t="n">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="G2" t="n">
-        <v>94.74333333333325</v>
+        <v>94.69333333333324</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>95.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>95.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D3" t="n">
-        <v>95.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="E3" t="n">
-        <v>95.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>3933.7034</v>
+        <v>4800</v>
       </c>
       <c r="G3" t="n">
-        <v>94.77166666666659</v>
+        <v>94.74333333333325</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>95.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>96.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>96.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>95.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>2800</v>
+        <v>3933.7034</v>
       </c>
       <c r="G4" t="n">
-        <v>94.81833333333326</v>
+        <v>94.77166666666659</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>96.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="D5" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="E5" t="n">
-        <v>96.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>7200</v>
+        <v>2800</v>
       </c>
       <c r="G5" t="n">
-        <v>94.8666666666666</v>
+        <v>94.81833333333326</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="C6" t="n">
         <v>96.8</v>
@@ -582,13 +582,13 @@
         <v>96.8</v>
       </c>
       <c r="E6" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1239.6694</v>
+        <v>7200</v>
       </c>
       <c r="G6" t="n">
-        <v>94.91499999999995</v>
+        <v>94.8666666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>96.8</v>
       </c>
       <c r="F7" t="n">
-        <v>400</v>
+        <v>1239.6694</v>
       </c>
       <c r="G7" t="n">
-        <v>94.96499999999995</v>
+        <v>94.91499999999995</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>96.8</v>
       </c>
       <c r="F8" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>95.01333333333329</v>
+        <v>94.96499999999995</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>96.8</v>
       </c>
       <c r="C9" t="n">
-        <v>97.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="D9" t="n">
-        <v>97.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="E9" t="n">
         <v>96.8</v>
       </c>
       <c r="F9" t="n">
-        <v>5868</v>
+        <v>800</v>
       </c>
       <c r="G9" t="n">
-        <v>95.06666666666663</v>
+        <v>95.01333333333329</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="C10" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="C10" t="n">
-        <v>98.40000000000001</v>
-      </c>
       <c r="D10" t="n">
-        <v>98.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>97.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="F10" t="n">
-        <v>23013.6549</v>
+        <v>5868</v>
       </c>
       <c r="G10" t="n">
-        <v>95.14166666666664</v>
+        <v>95.06666666666663</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C11" t="n">
         <v>98.40000000000001</v>
@@ -757,13 +757,13 @@
         <v>98.40000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>98.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>5148.7169</v>
+        <v>23013.6549</v>
       </c>
       <c r="G11" t="n">
-        <v>95.21666666666664</v>
+        <v>95.14166666666664</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>97.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>97.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>97.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1560.6051</v>
+        <v>5148.7169</v>
       </c>
       <c r="G12" t="n">
-        <v>95.27666666666664</v>
+        <v>95.21666666666664</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>97.5</v>
       </c>
       <c r="F13" t="n">
-        <v>7845.2307</v>
+        <v>1560.6051</v>
       </c>
       <c r="G13" t="n">
-        <v>95.33666666666664</v>
+        <v>95.27666666666664</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>97.5</v>
       </c>
       <c r="F14" t="n">
-        <v>4934.9333</v>
+        <v>7845.2307</v>
       </c>
       <c r="G14" t="n">
-        <v>95.39666666666666</v>
+        <v>95.33666666666664</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>96.7</v>
+        <v>97.5</v>
       </c>
       <c r="C15" t="n">
-        <v>96.7</v>
+        <v>97.5</v>
       </c>
       <c r="D15" t="n">
-        <v>96.7</v>
+        <v>97.5</v>
       </c>
       <c r="E15" t="n">
-        <v>96.7</v>
+        <v>97.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2000</v>
+        <v>4934.9333</v>
       </c>
       <c r="G15" t="n">
-        <v>95.44333333333333</v>
+        <v>95.39666666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>96.7</v>
       </c>
       <c r="F16" t="n">
-        <v>135</v>
+        <v>2000</v>
       </c>
       <c r="G16" t="n">
-        <v>95.48999999999999</v>
+        <v>95.44333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
       <c r="C17" t="n">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
       <c r="D17" t="n">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
       <c r="E17" t="n">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1641.11</v>
+        <v>135</v>
       </c>
       <c r="G17" t="n">
-        <v>95.545</v>
+        <v>95.48999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>97.2</v>
       </c>
       <c r="F18" t="n">
-        <v>1164</v>
+        <v>1641.11</v>
       </c>
       <c r="G18" t="n">
-        <v>95.59999999999999</v>
+        <v>95.545</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>97.2</v>
       </c>
       <c r="F19" t="n">
-        <v>130</v>
+        <v>1164</v>
       </c>
       <c r="G19" t="n">
-        <v>95.655</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>96.5</v>
+        <v>97.2</v>
       </c>
       <c r="C20" t="n">
-        <v>96.5</v>
+        <v>97.2</v>
       </c>
       <c r="D20" t="n">
-        <v>96.5</v>
+        <v>97.2</v>
       </c>
       <c r="E20" t="n">
-        <v>96.5</v>
+        <v>97.2</v>
       </c>
       <c r="F20" t="n">
-        <v>3200</v>
+        <v>130</v>
       </c>
       <c r="G20" t="n">
-        <v>95.69833333333334</v>
+        <v>95.655</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>96.5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.5</v>
+        <v>96.5</v>
       </c>
       <c r="D21" t="n">
-        <v>97.5</v>
+        <v>96.5</v>
       </c>
       <c r="E21" t="n">
         <v>96.5</v>
       </c>
       <c r="F21" t="n">
-        <v>13361.6176</v>
+        <v>3200</v>
       </c>
       <c r="G21" t="n">
-        <v>95.75833333333335</v>
+        <v>95.69833333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>96.5</v>
       </c>
       <c r="C22" t="n">
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
       <c r="D22" t="n">
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
       <c r="E22" t="n">
         <v>96.5</v>
       </c>
       <c r="F22" t="n">
-        <v>12748.2135</v>
+        <v>13361.6176</v>
       </c>
       <c r="G22" t="n">
-        <v>95.80166666666669</v>
+        <v>95.75833333333335</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="C23" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="D23" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E23" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="F23" t="n">
-        <v>1694</v>
+        <v>12748.2135</v>
       </c>
       <c r="G23" t="n">
-        <v>95.85333333333337</v>
+        <v>95.80166666666669</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>97</v>
       </c>
       <c r="C24" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="D24" t="n">
         <v>97</v>
       </c>
       <c r="E24" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="F24" t="n">
-        <v>1600</v>
+        <v>1694</v>
       </c>
       <c r="G24" t="n">
-        <v>95.89833333333337</v>
+        <v>95.85333333333337</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>96.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="C25" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="E25" t="n">
-        <v>96.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G25" t="n">
-        <v>95.95666666666671</v>
+        <v>95.89833333333337</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>96.5</v>
@@ -1282,13 +1282,13 @@
         <v>96.5</v>
       </c>
       <c r="E26" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>2568.4239</v>
+        <v>800</v>
       </c>
       <c r="G26" t="n">
-        <v>96.00000000000004</v>
+        <v>95.95666666666671</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>96.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C27" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="D27" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E27" t="n">
-        <v>96.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F27" t="n">
-        <v>3200</v>
+        <v>2568.4239</v>
       </c>
       <c r="G27" t="n">
-        <v>96.05166666666672</v>
+        <v>96.00000000000004</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>97</v>
@@ -1352,13 +1352,13 @@
         <v>97</v>
       </c>
       <c r="E28" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>15600</v>
+        <v>3200</v>
       </c>
       <c r="G28" t="n">
-        <v>96.1033333333334</v>
+        <v>96.05166666666672</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>97</v>
       </c>
       <c r="C29" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="D29" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="E29" t="n">
         <v>97</v>
       </c>
       <c r="F29" t="n">
-        <v>7210</v>
+        <v>15600</v>
       </c>
       <c r="G29" t="n">
-        <v>96.17000000000006</v>
+        <v>96.1033333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="C30" t="n">
         <v>97.09999999999999</v>
@@ -1422,13 +1422,13 @@
         <v>97.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>7210</v>
       </c>
       <c r="G30" t="n">
-        <v>96.2233333333334</v>
+        <v>96.17000000000006</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>95.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>95.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>95.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>95.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>3305.7855</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>96.25166666666675</v>
+        <v>96.2233333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>95.7</v>
       </c>
       <c r="C32" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D32" t="n">
         <v>95.7</v>
       </c>
       <c r="E32" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>95509.3952</v>
+        <v>3305.7855</v>
       </c>
       <c r="G32" t="n">
-        <v>96.27833333333342</v>
+        <v>96.25166666666675</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="C33" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D33" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="E33" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="F33" t="n">
-        <v>2000</v>
+        <v>95509.3952</v>
       </c>
       <c r="G33" t="n">
-        <v>96.33166666666676</v>
+        <v>96.27833333333342</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>95.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>619.6</v>
+        <v>2000</v>
       </c>
       <c r="G34" t="n">
-        <v>96.36000000000011</v>
+        <v>96.33166666666676</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>95.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>3131.4403</v>
+        <v>619.6</v>
       </c>
       <c r="G35" t="n">
-        <v>96.38833333333346</v>
+        <v>96.36000000000011</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>96.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>96.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>96.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>96.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>3131.4403</v>
       </c>
       <c r="G36" t="n">
-        <v>96.43000000000012</v>
+        <v>96.38833333333346</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>96.40000000000001</v>
@@ -1667,22 +1667,26 @@
         <v>96.40000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>1211</v>
+        <v>250</v>
       </c>
       <c r="G37" t="n">
-        <v>96.47166666666679</v>
+        <v>96.43000000000012</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>95.59999999999999</v>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
@@ -1693,7 +1697,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>96.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="C38" t="n">
         <v>96.40000000000001</v>
@@ -1702,13 +1706,13 @@
         <v>96.40000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>96.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>1211</v>
       </c>
       <c r="G38" t="n">
-        <v>96.51333333333346</v>
+        <v>96.47166666666679</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1721,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1738,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>1600</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>96.54000000000013</v>
+        <v>96.51333333333346</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1762,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1775,10 +1791,10 @@
         <v>95.5</v>
       </c>
       <c r="F40" t="n">
-        <v>4656.5105</v>
+        <v>1600</v>
       </c>
       <c r="G40" t="n">
-        <v>96.5666666666668</v>
+        <v>96.54000000000013</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1803,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1810,10 +1832,10 @@
         <v>95.5</v>
       </c>
       <c r="F41" t="n">
-        <v>4969.811</v>
+        <v>4656.5105</v>
       </c>
       <c r="G41" t="n">
-        <v>96.59333333333348</v>
+        <v>96.5666666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1844,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1861,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>95.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="C42" t="n">
-        <v>95.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D42" t="n">
-        <v>95.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="E42" t="n">
-        <v>95.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="F42" t="n">
-        <v>4714.0403</v>
+        <v>4969.811</v>
       </c>
       <c r="G42" t="n">
-        <v>96.61500000000015</v>
+        <v>96.59333333333348</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +1885,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1871,19 +1905,19 @@
         <v>95.09999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D43" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>2400</v>
+        <v>4714.0403</v>
       </c>
       <c r="G43" t="n">
-        <v>96.63166666666682</v>
+        <v>96.61500000000015</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,8 +1926,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1943,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C44" t="n">
         <v>95</v>
       </c>
       <c r="D44" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>95</v>
       </c>
       <c r="F44" t="n">
-        <v>4984.1602</v>
+        <v>2400</v>
       </c>
       <c r="G44" t="n">
-        <v>96.63333333333348</v>
+        <v>96.63166666666682</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +1967,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,7 +1996,7 @@
         <v>95</v>
       </c>
       <c r="F45" t="n">
-        <v>800</v>
+        <v>4984.1602</v>
       </c>
       <c r="G45" t="n">
         <v>96.63333333333348</v>
@@ -1962,8 +2008,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1985,10 +2037,10 @@
         <v>95</v>
       </c>
       <c r="F46" t="n">
-        <v>4102.3536</v>
+        <v>800</v>
       </c>
       <c r="G46" t="n">
-        <v>96.62500000000016</v>
+        <v>96.63333333333348</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2049,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2011,19 +2069,19 @@
         <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="D47" t="n">
         <v>95</v>
       </c>
       <c r="E47" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="F47" t="n">
-        <v>10723</v>
+        <v>4102.3536</v>
       </c>
       <c r="G47" t="n">
-        <v>96.61333333333349</v>
+        <v>96.62500000000016</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2090,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2107,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="C48" t="n">
         <v>94.8</v>
       </c>
       <c r="D48" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="E48" t="n">
         <v>94.8</v>
       </c>
       <c r="F48" t="n">
-        <v>10624.05</v>
+        <v>10723</v>
       </c>
       <c r="G48" t="n">
-        <v>96.54333333333349</v>
+        <v>96.61333333333349</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2131,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2148,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>94.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="C49" t="n">
-        <v>94.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="D49" t="n">
-        <v>94.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="E49" t="n">
-        <v>94.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="F49" t="n">
-        <v>550.0821</v>
+        <v>10624.05</v>
       </c>
       <c r="G49" t="n">
-        <v>96.47000000000017</v>
+        <v>96.54333333333349</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2172,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2116,19 +2192,19 @@
         <v>94.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D50" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>10451.5617</v>
+        <v>550.0821</v>
       </c>
       <c r="G50" t="n">
-        <v>96.42666666666682</v>
+        <v>96.47000000000017</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2213,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2230,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C51" t="n">
         <v>94.5</v>
       </c>
       <c r="D51" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E51" t="n">
         <v>94.5</v>
       </c>
       <c r="F51" t="n">
-        <v>9975</v>
+        <v>10451.5617</v>
       </c>
       <c r="G51" t="n">
-        <v>96.38333333333348</v>
+        <v>96.42666666666682</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2254,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2195,10 +2283,10 @@
         <v>94.5</v>
       </c>
       <c r="F52" t="n">
-        <v>3944.191</v>
+        <v>9975</v>
       </c>
       <c r="G52" t="n">
-        <v>96.34000000000015</v>
+        <v>96.38333333333348</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2295,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2312,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>93.7</v>
+        <v>94.5</v>
       </c>
       <c r="C53" t="n">
-        <v>93.2</v>
+        <v>94.5</v>
       </c>
       <c r="D53" t="n">
-        <v>93.7</v>
+        <v>94.5</v>
       </c>
       <c r="E53" t="n">
-        <v>93.2</v>
+        <v>94.5</v>
       </c>
       <c r="F53" t="n">
-        <v>1556.7036</v>
+        <v>3944.191</v>
       </c>
       <c r="G53" t="n">
-        <v>96.27500000000013</v>
+        <v>96.34000000000015</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2336,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2353,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C54" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D54" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E54" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="F54" t="n">
-        <v>781.7944</v>
+        <v>1556.7036</v>
       </c>
       <c r="G54" t="n">
-        <v>96.22833333333347</v>
+        <v>96.27500000000013</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2377,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,36 +2394,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>781.7944</v>
       </c>
       <c r="G55" t="n">
-        <v>96.1816666666668</v>
+        <v>96.22833333333347</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L55" t="inlineStr"/>
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2339,26 +2447,24 @@
         <v>94</v>
       </c>
       <c r="F56" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="n">
-        <v>96.13500000000013</v>
+        <v>96.1816666666668</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>94</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>93.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -2382,10 +2488,10 @@
         <v>94</v>
       </c>
       <c r="F57" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G57" t="n">
-        <v>96.08833333333345</v>
+        <v>96.13500000000013</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2395,11 +2501,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>93.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -2411,36 +2517,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="C58" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="D58" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="E58" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="F58" t="n">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="G58" t="n">
-        <v>96.04000000000012</v>
+        <v>96.08833333333345</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>94</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>94</v>
-      </c>
-      <c r="L58" t="inlineStr"/>
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2462,10 +2570,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G59" t="n">
-        <v>95.99166666666677</v>
+        <v>96.04000000000012</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,11 +2583,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2503,10 +2611,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>95.94500000000011</v>
+        <v>95.99166666666677</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2516,11 +2624,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2544,10 +2652,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G61" t="n">
-        <v>95.90000000000009</v>
+        <v>95.94500000000011</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2556,8 +2664,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2570,19 +2684,19 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E62" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G62" t="n">
-        <v>95.85500000000009</v>
+        <v>95.90000000000009</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2591,8 +2705,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2602,7 +2722,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C63" t="n">
         <v>94</v>
@@ -2611,13 +2731,13 @@
         <v>94</v>
       </c>
       <c r="E63" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>340.4255319148936</v>
+        <v>800</v>
       </c>
       <c r="G63" t="n">
-        <v>95.82833333333342</v>
+        <v>95.85500000000009</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2626,8 +2746,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2649,10 +2775,10 @@
         <v>94</v>
       </c>
       <c r="F64" t="n">
-        <v>800</v>
+        <v>340.4255319148936</v>
       </c>
       <c r="G64" t="n">
-        <v>95.78333333333343</v>
+        <v>95.82833333333342</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2661,8 +2787,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2684,10 +2816,10 @@
         <v>94</v>
       </c>
       <c r="F65" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G65" t="n">
-        <v>95.73666666666675</v>
+        <v>95.78333333333343</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2696,8 +2828,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2719,10 +2857,10 @@
         <v>94</v>
       </c>
       <c r="F66" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G66" t="n">
-        <v>95.69000000000008</v>
+        <v>95.73666666666675</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2731,8 +2869,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2754,10 +2898,10 @@
         <v>94</v>
       </c>
       <c r="F67" t="n">
-        <v>543</v>
+        <v>800</v>
       </c>
       <c r="G67" t="n">
-        <v>95.64333333333342</v>
+        <v>95.69000000000008</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2766,8 +2910,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2777,22 +2927,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="C68" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="D68" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="E68" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="F68" t="n">
-        <v>9445.089900000001</v>
+        <v>543</v>
       </c>
       <c r="G68" t="n">
-        <v>95.60500000000008</v>
+        <v>95.64333333333342</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2801,8 +2951,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2824,10 +2980,10 @@
         <v>94.5</v>
       </c>
       <c r="F69" t="n">
-        <v>7299.7248</v>
+        <v>9445.089900000001</v>
       </c>
       <c r="G69" t="n">
-        <v>95.56166666666674</v>
+        <v>95.60500000000008</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2836,8 +2992,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2847,22 +3009,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>93.7</v>
+        <v>94.5</v>
       </c>
       <c r="C70" t="n">
-        <v>93.7</v>
+        <v>94.5</v>
       </c>
       <c r="D70" t="n">
-        <v>93.7</v>
+        <v>94.5</v>
       </c>
       <c r="E70" t="n">
-        <v>93.7</v>
+        <v>94.5</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>7299.7248</v>
       </c>
       <c r="G70" t="n">
-        <v>95.48333333333341</v>
+        <v>95.56166666666674</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2871,8 +3033,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2882,22 +3050,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C71" t="n">
         <v>93.7</v>
       </c>
       <c r="D71" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E71" t="n">
         <v>93.7</v>
       </c>
       <c r="F71" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>95.40500000000007</v>
+        <v>95.48333333333341</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2906,8 +3074,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2917,22 +3091,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>94.5</v>
+        <v>93.7</v>
       </c>
       <c r="D72" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>94.5</v>
+        <v>93.7</v>
       </c>
       <c r="F72" t="n">
-        <v>10582.0105</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>95.35500000000008</v>
+        <v>95.40500000000007</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2941,8 +3115,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2952,22 +3132,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C73" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D73" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E73" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F73" t="n">
-        <v>14059.8388</v>
+        <v>10582.0105</v>
       </c>
       <c r="G73" t="n">
-        <v>95.30333333333341</v>
+        <v>95.35500000000008</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2976,8 +3156,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2999,10 +3185,10 @@
         <v>94.40000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>4339.3312</v>
+        <v>14059.8388</v>
       </c>
       <c r="G74" t="n">
-        <v>95.25166666666674</v>
+        <v>95.30333333333341</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3011,8 +3197,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3034,10 +3226,10 @@
         <v>94.40000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>400</v>
+        <v>4339.3312</v>
       </c>
       <c r="G75" t="n">
-        <v>95.2133333333334</v>
+        <v>95.25166666666674</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3046,8 +3238,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3072,7 +3270,7 @@
         <v>400</v>
       </c>
       <c r="G76" t="n">
-        <v>95.17500000000005</v>
+        <v>95.2133333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3081,8 +3279,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3104,10 +3308,10 @@
         <v>94.40000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>619.896</v>
+        <v>400</v>
       </c>
       <c r="G77" t="n">
-        <v>95.12833333333339</v>
+        <v>95.17500000000005</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3116,8 +3320,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3139,10 +3349,10 @@
         <v>94.40000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>5128.66</v>
+        <v>619.896</v>
       </c>
       <c r="G78" t="n">
-        <v>95.08166666666672</v>
+        <v>95.12833333333339</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3151,8 +3361,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3162,22 +3378,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>1058.201058201058</v>
+        <v>5128.66</v>
       </c>
       <c r="G79" t="n">
-        <v>95.03666666666672</v>
+        <v>95.08166666666672</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3186,8 +3402,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3197,22 +3419,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C80" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D80" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E80" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F80" t="n">
-        <v>800</v>
+        <v>1058.201058201058</v>
       </c>
       <c r="G80" t="n">
-        <v>95.00166666666672</v>
+        <v>95.03666666666672</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3221,8 +3443,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3247,7 +3475,7 @@
         <v>800</v>
       </c>
       <c r="G81" t="n">
-        <v>94.95000000000005</v>
+        <v>95.00166666666672</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3256,8 +3484,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3279,10 +3513,10 @@
         <v>94.40000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>1123.7623</v>
+        <v>800</v>
       </c>
       <c r="G82" t="n">
-        <v>94.91500000000003</v>
+        <v>94.95000000000005</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3291,8 +3525,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3314,10 +3554,10 @@
         <v>94.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>5385.2346</v>
+        <v>1123.7623</v>
       </c>
       <c r="G83" t="n">
-        <v>94.8716666666667</v>
+        <v>94.91500000000003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3326,8 +3566,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3337,22 +3583,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>800</v>
+        <v>5385.2346</v>
       </c>
       <c r="G84" t="n">
-        <v>94.83666666666669</v>
+        <v>94.8716666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3361,8 +3607,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3384,10 +3636,10 @@
         <v>94.5</v>
       </c>
       <c r="F85" t="n">
-        <v>108.8757417989418</v>
+        <v>800</v>
       </c>
       <c r="G85" t="n">
-        <v>94.80333333333336</v>
+        <v>94.83666666666669</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3396,8 +3648,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3407,22 +3665,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C86" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D86" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E86" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F86" t="n">
-        <v>2175</v>
+        <v>108.8757417989418</v>
       </c>
       <c r="G86" t="n">
-        <v>94.78500000000003</v>
+        <v>94.80333333333336</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3431,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3454,10 +3718,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>3061</v>
+        <v>2175</v>
       </c>
       <c r="G87" t="n">
-        <v>94.75833333333335</v>
+        <v>94.78500000000003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3466,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3489,10 +3759,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>5600</v>
+        <v>3061</v>
       </c>
       <c r="G88" t="n">
-        <v>94.73166666666667</v>
+        <v>94.75833333333335</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3501,8 +3771,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3524,10 +3800,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>2401</v>
+        <v>5600</v>
       </c>
       <c r="G89" t="n">
-        <v>94.70333333333333</v>
+        <v>94.73166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3536,8 +3812,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3559,10 +3841,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>420</v>
+        <v>2401</v>
       </c>
       <c r="G90" t="n">
-        <v>94.67499999999998</v>
+        <v>94.70333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3571,8 +3853,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3594,10 +3882,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>2400</v>
+        <v>420</v>
       </c>
       <c r="G91" t="n">
-        <v>94.67166666666664</v>
+        <v>94.67499999999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3606,8 +3894,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3629,10 +3923,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="G92" t="n">
-        <v>94.66999999999997</v>
+        <v>94.67166666666664</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3641,8 +3935,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3667,7 +3967,7 @@
         <v>800</v>
       </c>
       <c r="G93" t="n">
-        <v>94.66666666666661</v>
+        <v>94.66999999999997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3676,8 +3976,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3702,7 +4008,7 @@
         <v>800</v>
       </c>
       <c r="G94" t="n">
-        <v>94.66333333333327</v>
+        <v>94.66666666666661</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3711,8 +4017,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3734,10 +4046,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G95" t="n">
-        <v>94.65999999999993</v>
+        <v>94.66333333333327</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3746,8 +4058,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3769,10 +4087,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>2460</v>
+        <v>2000</v>
       </c>
       <c r="G96" t="n">
-        <v>94.64333333333326</v>
+        <v>94.65999999999993</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3781,8 +4099,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3804,10 +4128,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>8504.937099999999</v>
+        <v>2460</v>
       </c>
       <c r="G97" t="n">
-        <v>94.62666666666659</v>
+        <v>94.64333333333326</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3816,8 +4140,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3839,10 +4169,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>800</v>
+        <v>8504.937099999999</v>
       </c>
       <c r="G98" t="n">
-        <v>94.60999999999993</v>
+        <v>94.62666666666659</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3851,8 +4181,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3877,7 +4213,7 @@
         <v>800</v>
       </c>
       <c r="G99" t="n">
-        <v>94.60833333333326</v>
+        <v>94.60999999999993</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3886,8 +4222,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3909,10 +4251,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>1221.3637</v>
+        <v>800</v>
       </c>
       <c r="G100" t="n">
-        <v>94.60666666666658</v>
+        <v>94.60833333333326</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3921,8 +4263,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3944,10 +4292,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>1221.3637</v>
       </c>
       <c r="G101" t="n">
-        <v>94.60499999999992</v>
+        <v>94.60666666666658</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3956,8 +4304,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3967,19 +4321,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>513.7388</v>
+        <v>2000</v>
       </c>
       <c r="G102" t="n">
         <v>94.60499999999992</v>
@@ -3991,8 +4345,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4002,22 +4362,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>587</v>
+        <v>513.7388</v>
       </c>
       <c r="G103" t="n">
-        <v>94.61166666666658</v>
+        <v>94.60499999999992</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4026,8 +4386,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4037,7 +4403,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="C104" t="n">
         <v>95.40000000000001</v>
@@ -4046,13 +4412,13 @@
         <v>95.40000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="F104" t="n">
-        <v>800</v>
+        <v>587</v>
       </c>
       <c r="G104" t="n">
-        <v>94.61833333333324</v>
+        <v>94.61166666666658</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4061,8 +4427,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4087,7 +4459,7 @@
         <v>800</v>
       </c>
       <c r="G105" t="n">
-        <v>94.6249999999999</v>
+        <v>94.61833333333324</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4096,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4122,7 +4500,7 @@
         <v>800</v>
       </c>
       <c r="G106" t="n">
-        <v>94.63166666666656</v>
+        <v>94.6249999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4131,8 +4509,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4154,10 +4538,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G107" t="n">
-        <v>94.64166666666655</v>
+        <v>94.63166666666656</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4166,8 +4550,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4189,10 +4579,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>15864.9371</v>
+        <v>1200</v>
       </c>
       <c r="G108" t="n">
-        <v>94.65166666666654</v>
+        <v>94.64166666666655</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4201,8 +4591,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4215,19 +4611,19 @@
         <v>95.40000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E109" t="n">
         <v>95.40000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>19761</v>
+        <v>15864.9371</v>
       </c>
       <c r="G109" t="n">
-        <v>94.67499999999987</v>
+        <v>94.65166666666654</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4236,8 +4632,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4247,7 +4649,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C110" t="n">
         <v>96</v>
@@ -4256,13 +4658,13 @@
         <v>96</v>
       </c>
       <c r="E110" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>1041.666666666667</v>
+        <v>19761</v>
       </c>
       <c r="G110" t="n">
-        <v>94.69999999999986</v>
+        <v>94.67499999999987</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4271,8 +4673,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4294,10 +4702,10 @@
         <v>96</v>
       </c>
       <c r="F111" t="n">
-        <v>400</v>
+        <v>1041.666666666667</v>
       </c>
       <c r="G111" t="n">
-        <v>94.72499999999987</v>
+        <v>94.69999999999986</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4306,8 +4714,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4329,10 +4743,10 @@
         <v>96</v>
       </c>
       <c r="F112" t="n">
-        <v>12133.6498</v>
+        <v>400</v>
       </c>
       <c r="G112" t="n">
-        <v>94.74999999999986</v>
+        <v>94.72499999999987</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4341,8 +4755,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4364,10 +4784,10 @@
         <v>96</v>
       </c>
       <c r="F113" t="n">
-        <v>27671.4883</v>
+        <v>12133.6498</v>
       </c>
       <c r="G113" t="n">
-        <v>94.79666666666654</v>
+        <v>94.74999999999986</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4376,8 +4796,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4399,10 +4825,10 @@
         <v>96</v>
       </c>
       <c r="F114" t="n">
-        <v>3.3333333333334e-05</v>
+        <v>27671.4883</v>
       </c>
       <c r="G114" t="n">
-        <v>94.83166666666654</v>
+        <v>94.79666666666654</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4411,8 +4837,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4422,22 +4854,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="C115" t="n">
-        <v>96.7</v>
+        <v>96</v>
       </c>
       <c r="D115" t="n">
-        <v>96.7</v>
+        <v>96</v>
       </c>
       <c r="E115" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="F115" t="n">
-        <v>1062.3242</v>
+        <v>3.3333333333334e-05</v>
       </c>
       <c r="G115" t="n">
-        <v>94.87666666666654</v>
+        <v>94.83166666666654</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4446,8 +4878,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4457,22 +4895,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>97</v>
+        <v>96.2</v>
       </c>
       <c r="C116" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D116" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="E116" t="n">
-        <v>96.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="F116" t="n">
-        <v>1380.2394</v>
+        <v>1062.3242</v>
       </c>
       <c r="G116" t="n">
-        <v>94.92499999999987</v>
+        <v>94.87666666666654</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4481,8 +4919,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4492,34 +4936,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="C117" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="E117" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>125.8217</v>
+        <v>1380.2394</v>
       </c>
       <c r="G117" t="n">
-        <v>94.97166666666654</v>
+        <v>94.92499999999987</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M117" t="n">
-        <v>1</v>
+        <v>1.008598326359833</v>
       </c>
     </row>
     <row r="118">
@@ -4527,22 +4977,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="C118" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D118" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="E118" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F118" t="n">
-        <v>5223.5268</v>
+        <v>125.8217</v>
       </c>
       <c r="G118" t="n">
-        <v>95.01333333333319</v>
+        <v>94.97166666666654</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4562,22 +5012,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>96.2</v>
+        <v>96.5</v>
       </c>
       <c r="C119" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>96.2</v>
+        <v>96.5</v>
       </c>
       <c r="E119" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>2784.4698</v>
+        <v>5223.5268</v>
       </c>
       <c r="G119" t="n">
-        <v>95.05166666666653</v>
+        <v>95.01333333333319</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4597,28 +5047,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="C120" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="D120" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="E120" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="F120" t="n">
-        <v>1305.3895</v>
+        <v>2784.4698</v>
       </c>
       <c r="G120" t="n">
-        <v>95.08666666666655</v>
+        <v>95.05166666666653</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4632,28 +5082,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="C121" t="n">
-        <v>96.7</v>
+        <v>96</v>
       </c>
       <c r="D121" t="n">
-        <v>96.7</v>
+        <v>96</v>
       </c>
       <c r="E121" t="n">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="F121" t="n">
-        <v>2000</v>
+        <v>1305.3895</v>
       </c>
       <c r="G121" t="n">
-        <v>95.13333333333321</v>
+        <v>95.08666666666655</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4667,22 +5117,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>95.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>95.8</v>
+        <v>96.7</v>
       </c>
       <c r="D122" t="n">
-        <v>95.8</v>
+        <v>96.7</v>
       </c>
       <c r="E122" t="n">
-        <v>95.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="G122" t="n">
-        <v>95.16333333333321</v>
+        <v>95.13333333333321</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4702,22 +5152,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="C123" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D123" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="E123" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="F123" t="n">
-        <v>1429.7784</v>
+        <v>800</v>
       </c>
       <c r="G123" t="n">
-        <v>95.19166666666655</v>
+        <v>95.16333333333321</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4737,22 +5187,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>96.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C124" t="n">
-        <v>96.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="D124" t="n">
-        <v>96.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="E124" t="n">
-        <v>96.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="F124" t="n">
-        <v>100</v>
+        <v>1429.7784</v>
       </c>
       <c r="G124" t="n">
-        <v>95.23166666666654</v>
+        <v>95.19166666666655</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4772,22 +5222,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>95.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>95.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>95.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>95.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>652.6987</v>
+        <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>95.25833333333321</v>
+        <v>95.23166666666654</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4810,19 +5260,19 @@
         <v>95.59999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D126" t="n">
         <v>95.59999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>2991.6595</v>
+        <v>652.6987</v>
       </c>
       <c r="G126" t="n">
-        <v>95.28333333333322</v>
+        <v>95.25833333333321</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4842,22 +5292,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>96.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D127" t="n">
-        <v>96.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="F127" t="n">
-        <v>3245.4528</v>
+        <v>2991.6595</v>
       </c>
       <c r="G127" t="n">
-        <v>95.31833333333321</v>
+        <v>95.28333333333322</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4877,22 +5327,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>95.09999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>95.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="F128" t="n">
-        <v>10697.591</v>
+        <v>3245.4528</v>
       </c>
       <c r="G128" t="n">
-        <v>95.32833333333322</v>
+        <v>95.31833333333321</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4912,22 +5362,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="C129" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="E129" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>4799.1814</v>
+        <v>10697.591</v>
       </c>
       <c r="G129" t="n">
-        <v>95.33833333333322</v>
+        <v>95.32833333333322</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4947,22 +5397,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>95.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>95.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>95.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>95.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>2383.91</v>
+        <v>4799.1814</v>
       </c>
       <c r="G130" t="n">
-        <v>95.37166666666657</v>
+        <v>95.33833333333322</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4982,22 +5432,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="C131" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="D131" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="E131" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="F131" t="n">
-        <v>1200</v>
+        <v>2383.91</v>
       </c>
       <c r="G131" t="n">
-        <v>95.4099999999999</v>
+        <v>95.37166666666657</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5012,6 +5462,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>96</v>
+      </c>
+      <c r="C132" t="n">
+        <v>96</v>
+      </c>
+      <c r="D132" t="n">
+        <v>96</v>
+      </c>
+      <c r="E132" t="n">
+        <v>96</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G132" t="n">
+        <v>95.4099999999999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1600</v>
       </c>
       <c r="G2" t="n">
+        <v>97.05999999999995</v>
+      </c>
+      <c r="H2" t="n">
         <v>94.69333333333324</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>4800</v>
       </c>
       <c r="G3" t="n">
+        <v>97.13999999999994</v>
+      </c>
+      <c r="H3" t="n">
         <v>94.74333333333325</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3933.7034</v>
       </c>
       <c r="G4" t="n">
+        <v>96.91333333333327</v>
+      </c>
+      <c r="H4" t="n">
         <v>94.77166666666659</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2800</v>
       </c>
       <c r="G5" t="n">
+        <v>96.75999999999995</v>
+      </c>
+      <c r="H5" t="n">
         <v>94.81833333333326</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>7200</v>
       </c>
       <c r="G6" t="n">
+        <v>96.73999999999995</v>
+      </c>
+      <c r="H6" t="n">
         <v>94.8666666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1239.6694</v>
       </c>
       <c r="G7" t="n">
+        <v>96.71999999999996</v>
+      </c>
+      <c r="H7" t="n">
         <v>94.91499999999995</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
+        <v>96.69999999999996</v>
+      </c>
+      <c r="H8" t="n">
         <v>94.96499999999995</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>800</v>
       </c>
       <c r="G9" t="n">
+        <v>96.67999999999996</v>
+      </c>
+      <c r="H9" t="n">
         <v>95.01333333333329</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>5868</v>
       </c>
       <c r="G10" t="n">
+        <v>96.70666666666662</v>
+      </c>
+      <c r="H10" t="n">
         <v>95.06666666666663</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>23013.6549</v>
       </c>
       <c r="G11" t="n">
+        <v>96.81333333333329</v>
+      </c>
+      <c r="H11" t="n">
         <v>95.14166666666664</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>5148.7169</v>
       </c>
       <c r="G12" t="n">
+        <v>96.91999999999997</v>
+      </c>
+      <c r="H12" t="n">
         <v>95.21666666666664</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1560.6051</v>
       </c>
       <c r="G13" t="n">
+        <v>96.96666666666664</v>
+      </c>
+      <c r="H13" t="n">
         <v>95.27666666666664</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>7845.2307</v>
       </c>
       <c r="G14" t="n">
+        <v>97.01333333333331</v>
+      </c>
+      <c r="H14" t="n">
         <v>95.33666666666664</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>4934.9333</v>
       </c>
       <c r="G15" t="n">
+        <v>97.05999999999997</v>
+      </c>
+      <c r="H15" t="n">
         <v>95.39666666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2000</v>
       </c>
       <c r="G16" t="n">
+        <v>97.05999999999997</v>
+      </c>
+      <c r="H16" t="n">
         <v>95.44333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>135</v>
       </c>
       <c r="G17" t="n">
+        <v>97.06666666666665</v>
+      </c>
+      <c r="H17" t="n">
         <v>95.48999999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1641.11</v>
       </c>
       <c r="G18" t="n">
+        <v>97.09999999999998</v>
+      </c>
+      <c r="H18" t="n">
         <v>95.545</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1164</v>
       </c>
       <c r="G19" t="n">
+        <v>97.20666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>130</v>
       </c>
       <c r="G20" t="n">
+        <v>97.23999999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>95.655</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>3200</v>
       </c>
       <c r="G21" t="n">
+        <v>97.22</v>
+      </c>
+      <c r="H21" t="n">
         <v>95.69833333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>13361.6176</v>
       </c>
       <c r="G22" t="n">
+        <v>97.26666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>95.75833333333335</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>12748.2135</v>
       </c>
       <c r="G23" t="n">
+        <v>97.24666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>95.80166666666669</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1694</v>
       </c>
       <c r="G24" t="n">
+        <v>97.26000000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>95.85333333333337</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1600</v>
       </c>
       <c r="G25" t="n">
+        <v>97.22666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>95.89833333333337</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>800</v>
       </c>
       <c r="G26" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>95.95666666666671</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2568.4239</v>
       </c>
       <c r="G27" t="n">
+        <v>96.97333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>96.00000000000004</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>3200</v>
       </c>
       <c r="G28" t="n">
+        <v>96.94</v>
+      </c>
+      <c r="H28" t="n">
         <v>96.05166666666672</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>15600</v>
       </c>
       <c r="G29" t="n">
+        <v>96.90666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>96.1033333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>7210</v>
       </c>
       <c r="G30" t="n">
+        <v>96.87999999999998</v>
+      </c>
+      <c r="H30" t="n">
         <v>96.17000000000006</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
+        <v>96.90666666666665</v>
+      </c>
+      <c r="H31" t="n">
         <v>96.2233333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>3305.7855</v>
       </c>
       <c r="G32" t="n">
+        <v>96.8333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>96.25166666666675</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>95509.3952</v>
       </c>
       <c r="G33" t="n">
+        <v>96.71999999999997</v>
+      </c>
+      <c r="H33" t="n">
         <v>96.27833333333342</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>2000</v>
       </c>
       <c r="G34" t="n">
+        <v>96.61333333333329</v>
+      </c>
+      <c r="H34" t="n">
         <v>96.33166666666676</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>619.6</v>
       </c>
       <c r="G35" t="n">
+        <v>96.50666666666662</v>
+      </c>
+      <c r="H35" t="n">
         <v>96.36000000000011</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>3131.4403</v>
       </c>
       <c r="G36" t="n">
+        <v>96.44666666666662</v>
+      </c>
+      <c r="H36" t="n">
         <v>96.38833333333346</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,22 +1783,21 @@
         <v>250</v>
       </c>
       <c r="G37" t="n">
+        <v>96.37333333333328</v>
+      </c>
+      <c r="H37" t="n">
         <v>96.43000000000012</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="K37" t="n">
-        <v>95.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,24 +1821,21 @@
         <v>1211</v>
       </c>
       <c r="G38" t="n">
+        <v>96.36666666666662</v>
+      </c>
+      <c r="H38" t="n">
         <v>96.47166666666679</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1753,24 +1859,21 @@
         <v>11</v>
       </c>
       <c r="G39" t="n">
+        <v>96.32666666666663</v>
+      </c>
+      <c r="H39" t="n">
         <v>96.51333333333346</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,24 +1897,21 @@
         <v>1600</v>
       </c>
       <c r="G40" t="n">
+        <v>96.2533333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>96.54000000000013</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1835,24 +1935,21 @@
         <v>4656.5105</v>
       </c>
       <c r="G41" t="n">
+        <v>96.18666666666664</v>
+      </c>
+      <c r="H41" t="n">
         <v>96.5666666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,24 +1973,21 @@
         <v>4969.811</v>
       </c>
       <c r="G42" t="n">
+        <v>96.11999999999996</v>
+      </c>
+      <c r="H42" t="n">
         <v>96.59333333333348</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1917,24 +2011,21 @@
         <v>4714.0403</v>
       </c>
       <c r="G43" t="n">
+        <v>95.9933333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>96.61500000000015</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,24 +2049,21 @@
         <v>2400</v>
       </c>
       <c r="G44" t="n">
+        <v>95.85999999999996</v>
+      </c>
+      <c r="H44" t="n">
         <v>96.63166666666682</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1999,24 +2087,21 @@
         <v>4984.1602</v>
       </c>
       <c r="G45" t="n">
+        <v>95.71999999999997</v>
+      </c>
+      <c r="H45" t="n">
         <v>96.63333333333348</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2040,24 +2125,21 @@
         <v>800</v>
       </c>
       <c r="G46" t="n">
+        <v>95.57999999999997</v>
+      </c>
+      <c r="H46" t="n">
         <v>96.63333333333348</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2081,24 +2163,21 @@
         <v>4102.3536</v>
       </c>
       <c r="G47" t="n">
+        <v>95.53999999999998</v>
+      </c>
+      <c r="H47" t="n">
         <v>96.62500000000016</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,24 +2201,21 @@
         <v>10723</v>
       </c>
       <c r="G48" t="n">
+        <v>95.49333333333331</v>
+      </c>
+      <c r="H48" t="n">
         <v>96.61333333333349</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,24 +2239,21 @@
         <v>10624.05</v>
       </c>
       <c r="G49" t="n">
+        <v>95.43999999999998</v>
+      </c>
+      <c r="H49" t="n">
         <v>96.54333333333349</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,24 +2277,21 @@
         <v>550.0821</v>
       </c>
       <c r="G50" t="n">
+        <v>95.37333333333331</v>
+      </c>
+      <c r="H50" t="n">
         <v>96.47000000000017</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2245,24 +2315,21 @@
         <v>10451.5617</v>
       </c>
       <c r="G51" t="n">
+        <v>95.29999999999998</v>
+      </c>
+      <c r="H51" t="n">
         <v>96.42666666666682</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,24 +2353,21 @@
         <v>9975</v>
       </c>
       <c r="G52" t="n">
+        <v>95.17333333333332</v>
+      </c>
+      <c r="H52" t="n">
         <v>96.38333333333348</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2327,24 +2391,21 @@
         <v>3944.191</v>
       </c>
       <c r="G53" t="n">
+        <v>95.04666666666664</v>
+      </c>
+      <c r="H53" t="n">
         <v>96.34000000000015</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2368,24 +2429,21 @@
         <v>1556.7036</v>
       </c>
       <c r="G54" t="n">
+        <v>94.8333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>96.27500000000013</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2409,24 +2467,21 @@
         <v>781.7944</v>
       </c>
       <c r="G55" t="n">
+        <v>94.72666666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>96.22833333333347</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2450,24 +2505,21 @@
         <v>1200</v>
       </c>
       <c r="G56" t="n">
+        <v>94.62666666666664</v>
+      </c>
+      <c r="H56" t="n">
         <v>96.1816666666668</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2491,24 +2543,21 @@
         <v>2000</v>
       </c>
       <c r="G57" t="n">
+        <v>94.52666666666664</v>
+      </c>
+      <c r="H57" t="n">
         <v>96.13500000000013</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2532,24 +2581,21 @@
         <v>6000</v>
       </c>
       <c r="G58" t="n">
+        <v>94.45333333333332</v>
+      </c>
+      <c r="H58" t="n">
         <v>96.08833333333345</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2573,24 +2619,21 @@
         <v>800</v>
       </c>
       <c r="G59" t="n">
+        <v>94.37999999999998</v>
+      </c>
+      <c r="H59" t="n">
         <v>96.04000000000012</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,24 +2657,21 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
+        <v>94.30666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>95.99166666666677</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2655,24 +2695,21 @@
         <v>400</v>
       </c>
       <c r="G61" t="n">
+        <v>94.23333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>95.94500000000011</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2696,24 +2733,21 @@
         <v>1200</v>
       </c>
       <c r="G62" t="n">
+        <v>94.16000000000001</v>
+      </c>
+      <c r="H62" t="n">
         <v>95.90000000000009</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2737,24 +2771,21 @@
         <v>800</v>
       </c>
       <c r="G63" t="n">
+        <v>94.10666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>95.85500000000009</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,24 +2809,21 @@
         <v>340.4255319148936</v>
       </c>
       <c r="G64" t="n">
+        <v>94.05333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>95.82833333333342</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2819,24 +2847,21 @@
         <v>800</v>
       </c>
       <c r="G65" t="n">
+        <v>94.01333333333335</v>
+      </c>
+      <c r="H65" t="n">
         <v>95.78333333333343</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2860,24 +2885,21 @@
         <v>1200</v>
       </c>
       <c r="G66" t="n">
+        <v>93.98000000000002</v>
+      </c>
+      <c r="H66" t="n">
         <v>95.73666666666675</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2901,24 +2923,21 @@
         <v>800</v>
       </c>
       <c r="G67" t="n">
+        <v>93.94666666666669</v>
+      </c>
+      <c r="H67" t="n">
         <v>95.69000000000008</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2942,24 +2961,21 @@
         <v>543</v>
       </c>
       <c r="G68" t="n">
+        <v>93.91333333333336</v>
+      </c>
+      <c r="H68" t="n">
         <v>95.64333333333342</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2983,24 +2999,25 @@
         <v>9445.089900000001</v>
       </c>
       <c r="G69" t="n">
+        <v>94.00000000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>95.60500000000008</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+        <v>94</v>
+      </c>
+      <c r="L69" t="n">
+        <v>94</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3024,24 +3041,27 @@
         <v>7299.7248</v>
       </c>
       <c r="G70" t="n">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>95.56166666666674</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>94</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3065,24 +3085,27 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
+        <v>94.02000000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>95.48333333333341</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>94</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3106,24 +3129,21 @@
         <v>20</v>
       </c>
       <c r="G72" t="n">
+        <v>94.00000000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>95.40500000000007</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3147,24 +3167,25 @@
         <v>10582.0105</v>
       </c>
       <c r="G73" t="n">
+        <v>94.03333333333335</v>
+      </c>
+      <c r="H73" t="n">
         <v>95.35500000000008</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="L73" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3188,24 +3209,29 @@
         <v>14059.8388</v>
       </c>
       <c r="G74" t="n">
+        <v>94.06666666666668</v>
+      </c>
+      <c r="H74" t="n">
         <v>95.30333333333341</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L74" t="inlineStr">
+        <v>94.5</v>
+      </c>
+      <c r="L74" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,24 +3255,29 @@
         <v>4339.3312</v>
       </c>
       <c r="G75" t="n">
+        <v>94.10000000000001</v>
+      </c>
+      <c r="H75" t="n">
         <v>95.25166666666674</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="L75" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,24 +3301,25 @@
         <v>400</v>
       </c>
       <c r="G76" t="n">
+        <v>94.13333333333335</v>
+      </c>
+      <c r="H76" t="n">
         <v>95.2133333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="L76" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3311,24 +3343,29 @@
         <v>400</v>
       </c>
       <c r="G77" t="n">
+        <v>94.16666666666669</v>
+      </c>
+      <c r="H77" t="n">
         <v>95.17500000000005</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L77" t="inlineStr">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="L77" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,24 +3389,29 @@
         <v>619.896</v>
       </c>
       <c r="G78" t="n">
+        <v>94.19333333333336</v>
+      </c>
+      <c r="H78" t="n">
         <v>95.12833333333339</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L78" t="inlineStr">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="L78" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3393,24 +3435,25 @@
         <v>5128.66</v>
       </c>
       <c r="G79" t="n">
+        <v>94.22000000000003</v>
+      </c>
+      <c r="H79" t="n">
         <v>95.08166666666672</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="L79" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,24 +3477,29 @@
         <v>1058.201058201058</v>
       </c>
       <c r="G80" t="n">
+        <v>94.25333333333336</v>
+      </c>
+      <c r="H80" t="n">
         <v>95.03666666666672</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L80" t="inlineStr">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="L80" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3475,24 +3523,29 @@
         <v>800</v>
       </c>
       <c r="G81" t="n">
+        <v>94.28000000000003</v>
+      </c>
+      <c r="H81" t="n">
         <v>95.00166666666672</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L81" t="inlineStr">
+        <v>94.5</v>
+      </c>
+      <c r="L81" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,24 +3569,21 @@
         <v>800</v>
       </c>
       <c r="G82" t="n">
+        <v>94.3066666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>94.95000000000005</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3557,24 +3607,21 @@
         <v>1123.7623</v>
       </c>
       <c r="G83" t="n">
+        <v>94.33333333333339</v>
+      </c>
+      <c r="H83" t="n">
         <v>94.91500000000003</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,24 +3645,21 @@
         <v>5385.2346</v>
       </c>
       <c r="G84" t="n">
+        <v>94.32666666666672</v>
+      </c>
+      <c r="H84" t="n">
         <v>94.8716666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3639,24 +3683,21 @@
         <v>800</v>
       </c>
       <c r="G85" t="n">
+        <v>94.32666666666672</v>
+      </c>
+      <c r="H85" t="n">
         <v>94.83666666666669</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,24 +3721,21 @@
         <v>108.8757417989418</v>
       </c>
       <c r="G86" t="n">
+        <v>94.38000000000005</v>
+      </c>
+      <c r="H86" t="n">
         <v>94.80333333333336</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,24 +3759,25 @@
         <v>2175</v>
       </c>
       <c r="G87" t="n">
+        <v>94.49333333333338</v>
+      </c>
+      <c r="H87" t="n">
         <v>94.78500000000003</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L87" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,24 +3801,27 @@
         <v>3061</v>
       </c>
       <c r="G88" t="n">
+        <v>94.55333333333338</v>
+      </c>
+      <c r="H88" t="n">
         <v>94.75833333333335</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3803,24 +3845,27 @@
         <v>5600</v>
       </c>
       <c r="G89" t="n">
+        <v>94.62000000000006</v>
+      </c>
+      <c r="H89" t="n">
         <v>94.73166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,24 +3889,21 @@
         <v>2401</v>
       </c>
       <c r="G90" t="n">
+        <v>94.68666666666672</v>
+      </c>
+      <c r="H90" t="n">
         <v>94.70333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3885,24 +3927,21 @@
         <v>420</v>
       </c>
       <c r="G91" t="n">
+        <v>94.75333333333339</v>
+      </c>
+      <c r="H91" t="n">
         <v>94.67499999999998</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,24 +3965,21 @@
         <v>2400</v>
       </c>
       <c r="G92" t="n">
+        <v>94.82000000000006</v>
+      </c>
+      <c r="H92" t="n">
         <v>94.67166666666664</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,24 +4003,21 @@
         <v>800</v>
       </c>
       <c r="G93" t="n">
+        <v>94.88666666666673</v>
+      </c>
+      <c r="H93" t="n">
         <v>94.66999999999997</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4008,24 +4041,21 @@
         <v>800</v>
       </c>
       <c r="G94" t="n">
+        <v>94.95333333333339</v>
+      </c>
+      <c r="H94" t="n">
         <v>94.66666666666661</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4049,24 +4079,21 @@
         <v>800</v>
       </c>
       <c r="G95" t="n">
+        <v>95.01333333333339</v>
+      </c>
+      <c r="H95" t="n">
         <v>94.66333333333327</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,24 +4117,21 @@
         <v>2000</v>
       </c>
       <c r="G96" t="n">
+        <v>95.08000000000007</v>
+      </c>
+      <c r="H96" t="n">
         <v>94.65999999999993</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4131,24 +4155,21 @@
         <v>2460</v>
       </c>
       <c r="G97" t="n">
+        <v>95.14666666666673</v>
+      </c>
+      <c r="H97" t="n">
         <v>94.64333333333326</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4172,24 +4193,21 @@
         <v>8504.937099999999</v>
       </c>
       <c r="G98" t="n">
+        <v>95.2133333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>94.62666666666659</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,24 +4231,21 @@
         <v>800</v>
       </c>
       <c r="G99" t="n">
+        <v>95.28000000000006</v>
+      </c>
+      <c r="H99" t="n">
         <v>94.60999999999993</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,24 +4269,21 @@
         <v>800</v>
       </c>
       <c r="G100" t="n">
+        <v>95.34000000000007</v>
+      </c>
+      <c r="H100" t="n">
         <v>94.60833333333326</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4295,24 +4307,21 @@
         <v>1221.3637</v>
       </c>
       <c r="G101" t="n">
+        <v>95.40000000000008</v>
+      </c>
+      <c r="H101" t="n">
         <v>94.60666666666658</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,24 +4345,21 @@
         <v>2000</v>
       </c>
       <c r="G102" t="n">
+        <v>95.40000000000008</v>
+      </c>
+      <c r="H102" t="n">
         <v>94.60499999999992</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4377,24 +4383,21 @@
         <v>513.7388</v>
       </c>
       <c r="G103" t="n">
+        <v>95.38000000000007</v>
+      </c>
+      <c r="H103" t="n">
         <v>94.60499999999992</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,24 +4421,21 @@
         <v>587</v>
       </c>
       <c r="G104" t="n">
+        <v>95.38000000000007</v>
+      </c>
+      <c r="H104" t="n">
         <v>94.61166666666658</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4459,24 +4459,21 @@
         <v>800</v>
       </c>
       <c r="G105" t="n">
+        <v>95.38000000000007</v>
+      </c>
+      <c r="H105" t="n">
         <v>94.61833333333324</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,24 +4497,21 @@
         <v>800</v>
       </c>
       <c r="G106" t="n">
+        <v>95.38000000000007</v>
+      </c>
+      <c r="H106" t="n">
         <v>94.6249999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4541,24 +4535,21 @@
         <v>800</v>
       </c>
       <c r="G107" t="n">
+        <v>95.38000000000007</v>
+      </c>
+      <c r="H107" t="n">
         <v>94.63166666666656</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,24 +4573,21 @@
         <v>1200</v>
       </c>
       <c r="G108" t="n">
+        <v>95.38000000000007</v>
+      </c>
+      <c r="H108" t="n">
         <v>94.64166666666655</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4623,24 +4611,21 @@
         <v>15864.9371</v>
       </c>
       <c r="G109" t="n">
+        <v>95.38000000000007</v>
+      </c>
+      <c r="H109" t="n">
         <v>94.65166666666654</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,24 +4649,21 @@
         <v>19761</v>
       </c>
       <c r="G110" t="n">
+        <v>95.42000000000006</v>
+      </c>
+      <c r="H110" t="n">
         <v>94.67499999999987</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4705,24 +4687,21 @@
         <v>1041.666666666667</v>
       </c>
       <c r="G111" t="n">
+        <v>95.46000000000005</v>
+      </c>
+      <c r="H111" t="n">
         <v>94.69999999999986</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4746,24 +4725,21 @@
         <v>400</v>
       </c>
       <c r="G112" t="n">
+        <v>95.50000000000004</v>
+      </c>
+      <c r="H112" t="n">
         <v>94.72499999999987</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,24 +4763,21 @@
         <v>12133.6498</v>
       </c>
       <c r="G113" t="n">
+        <v>95.54000000000003</v>
+      </c>
+      <c r="H113" t="n">
         <v>94.74999999999986</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4828,24 +4801,21 @@
         <v>27671.4883</v>
       </c>
       <c r="G114" t="n">
+        <v>95.58000000000003</v>
+      </c>
+      <c r="H114" t="n">
         <v>94.79666666666654</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4869,24 +4839,21 @@
         <v>3.3333333333334e-05</v>
       </c>
       <c r="G115" t="n">
+        <v>95.62000000000003</v>
+      </c>
+      <c r="H115" t="n">
         <v>94.83166666666654</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,24 +4877,21 @@
         <v>1062.3242</v>
       </c>
       <c r="G116" t="n">
+        <v>95.70666666666669</v>
+      </c>
+      <c r="H116" t="n">
         <v>94.87666666666654</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4951,25 +4915,22 @@
         <v>1380.2394</v>
       </c>
       <c r="G117" t="n">
+        <v>95.80666666666669</v>
+      </c>
+      <c r="H117" t="n">
         <v>94.92499999999987</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1.008598326359833</v>
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4992,18 +4953,21 @@
         <v>125.8217</v>
       </c>
       <c r="G118" t="n">
+        <v>95.92000000000003</v>
+      </c>
+      <c r="H118" t="n">
         <v>94.97166666666654</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5027,18 +4991,21 @@
         <v>5223.5268</v>
       </c>
       <c r="G119" t="n">
+        <v>95.98666666666669</v>
+      </c>
+      <c r="H119" t="n">
         <v>95.01333333333319</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5062,18 +5029,21 @@
         <v>2784.4698</v>
       </c>
       <c r="G120" t="n">
+        <v>96.04000000000002</v>
+      </c>
+      <c r="H120" t="n">
         <v>95.05166666666653</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5097,18 +5067,21 @@
         <v>1305.3895</v>
       </c>
       <c r="G121" t="n">
+        <v>96.08000000000001</v>
+      </c>
+      <c r="H121" t="n">
         <v>95.08666666666655</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,18 +5105,21 @@
         <v>2000</v>
       </c>
       <c r="G122" t="n">
+        <v>96.16666666666669</v>
+      </c>
+      <c r="H122" t="n">
         <v>95.13333333333321</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5167,18 +5143,21 @@
         <v>800</v>
       </c>
       <c r="G123" t="n">
+        <v>96.19333333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>95.16333333333321</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5202,18 +5181,21 @@
         <v>1429.7784</v>
       </c>
       <c r="G124" t="n">
+        <v>96.21333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>95.19166666666655</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5237,18 +5219,21 @@
         <v>100</v>
       </c>
       <c r="G125" t="n">
+        <v>96.24000000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>95.23166666666654</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,18 +5257,21 @@
         <v>652.6987</v>
       </c>
       <c r="G126" t="n">
+        <v>96.21333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>95.25833333333321</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5307,18 +5295,21 @@
         <v>2991.6595</v>
       </c>
       <c r="G127" t="n">
+        <v>96.18000000000001</v>
+      </c>
+      <c r="H127" t="n">
         <v>95.28333333333322</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,18 +5333,21 @@
         <v>3245.4528</v>
       </c>
       <c r="G128" t="n">
+        <v>96.18666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>95.31833333333321</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5377,18 +5371,21 @@
         <v>10697.591</v>
       </c>
       <c r="G129" t="n">
+        <v>96.12666666666665</v>
+      </c>
+      <c r="H129" t="n">
         <v>95.32833333333322</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5412,18 +5409,21 @@
         <v>4799.1814</v>
       </c>
       <c r="G130" t="n">
+        <v>96.06666666666665</v>
+      </c>
+      <c r="H130" t="n">
         <v>95.33833333333322</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5447,18 +5447,21 @@
         <v>2383.91</v>
       </c>
       <c r="G131" t="n">
+        <v>95.99999999999999</v>
+      </c>
+      <c r="H131" t="n">
         <v>95.37166666666657</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5482,18 +5485,401 @@
         <v>1200</v>
       </c>
       <c r="G132" t="n">
+        <v>95.93999999999998</v>
+      </c>
+      <c r="H132" t="n">
         <v>95.4099999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>96</v>
+      </c>
+      <c r="C133" t="n">
+        <v>96</v>
+      </c>
+      <c r="D133" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E133" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>792557.9142</v>
+      </c>
+      <c r="G133" t="n">
+        <v>95.88666666666664</v>
+      </c>
+      <c r="H133" t="n">
+        <v>95.4349999999999</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>96</v>
+      </c>
+      <c r="C134" t="n">
+        <v>96</v>
+      </c>
+      <c r="D134" t="n">
+        <v>96</v>
+      </c>
+      <c r="E134" t="n">
+        <v>96</v>
+      </c>
+      <c r="F134" t="n">
+        <v>667111.8981</v>
+      </c>
+      <c r="G134" t="n">
+        <v>95.85999999999997</v>
+      </c>
+      <c r="H134" t="n">
+        <v>95.46166666666657</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>96</v>
+      </c>
+      <c r="C135" t="n">
+        <v>96</v>
+      </c>
+      <c r="D135" t="n">
+        <v>96</v>
+      </c>
+      <c r="E135" t="n">
+        <v>96</v>
+      </c>
+      <c r="F135" t="n">
+        <v>74109.7065</v>
+      </c>
+      <c r="G135" t="n">
+        <v>95.84666666666664</v>
+      </c>
+      <c r="H135" t="n">
+        <v>95.48833333333324</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>96</v>
+      </c>
+      <c r="C136" t="n">
+        <v>96</v>
+      </c>
+      <c r="D136" t="n">
+        <v>96</v>
+      </c>
+      <c r="E136" t="n">
+        <v>96</v>
+      </c>
+      <c r="F136" t="n">
+        <v>65390.9175</v>
+      </c>
+      <c r="G136" t="n">
+        <v>95.84666666666664</v>
+      </c>
+      <c r="H136" t="n">
+        <v>95.51499999999992</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>41.0661</v>
+      </c>
+      <c r="G137" t="n">
+        <v>95.81999999999996</v>
+      </c>
+      <c r="H137" t="n">
+        <v>95.5466666666666</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C138" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D138" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E138" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F138" t="n">
+        <v>410.859</v>
+      </c>
+      <c r="G138" t="n">
+        <v>95.85999999999997</v>
+      </c>
+      <c r="H138" t="n">
+        <v>95.57999999999993</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C139" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D139" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>800</v>
+      </c>
+      <c r="G139" t="n">
+        <v>95.90666666666665</v>
+      </c>
+      <c r="H139" t="n">
+        <v>95.61333333333326</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C140" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>7262.0573</v>
+      </c>
+      <c r="G140" t="n">
+        <v>95.91999999999997</v>
+      </c>
+      <c r="H140" t="n">
+        <v>95.64833333333327</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D141" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E141" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F141" t="n">
+        <v>243.367</v>
+      </c>
+      <c r="G141" t="n">
+        <v>95.98666666666664</v>
+      </c>
+      <c r="H141" t="n">
+        <v>95.68499999999995</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C142" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D142" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E142" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1479.6583</v>
+      </c>
+      <c r="G142" t="n">
+        <v>96.05999999999996</v>
+      </c>
+      <c r="H142" t="n">
+        <v>95.72166666666662</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>96.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>96.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1600</v>
+        <v>2797</v>
       </c>
       <c r="G2" t="n">
-        <v>97.05999999999995</v>
+        <v>68061.1433</v>
       </c>
       <c r="H2" t="n">
-        <v>94.69333333333324</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>96.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>96.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>96.59999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>4800</v>
+        <v>7910</v>
       </c>
       <c r="G3" t="n">
-        <v>97.13999999999994</v>
+        <v>60151.1433</v>
       </c>
       <c r="H3" t="n">
-        <v>94.74333333333325</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +509,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>95.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="C4" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>95.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="F4" t="n">
-        <v>3933.7034</v>
+        <v>800</v>
       </c>
       <c r="G4" t="n">
-        <v>96.91333333333327</v>
+        <v>60951.1433</v>
       </c>
       <c r="H4" t="n">
-        <v>94.77166666666659</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +550,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>2800</v>
+        <v>667.4760383386581</v>
       </c>
       <c r="G5" t="n">
-        <v>96.75999999999995</v>
+        <v>60951.1433</v>
       </c>
       <c r="H5" t="n">
-        <v>94.81833333333326</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +591,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>7200</v>
+        <v>600.4366347177848</v>
       </c>
       <c r="G6" t="n">
-        <v>96.73999999999995</v>
+        <v>60951.1433</v>
       </c>
       <c r="H6" t="n">
-        <v>94.8666666666666</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +632,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>1239.6694</v>
+        <v>417.7955</v>
       </c>
       <c r="G7" t="n">
-        <v>96.71999999999996</v>
+        <v>60951.1433</v>
       </c>
       <c r="H7" t="n">
-        <v>94.91499999999995</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +673,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>2800</v>
       </c>
       <c r="G8" t="n">
-        <v>96.69999999999996</v>
+        <v>60951.1433</v>
       </c>
       <c r="H8" t="n">
-        <v>94.96499999999995</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +712,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>800</v>
+        <v>6400</v>
       </c>
       <c r="G9" t="n">
-        <v>96.67999999999996</v>
+        <v>60951.1433</v>
       </c>
       <c r="H9" t="n">
-        <v>95.01333333333329</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +751,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>5868</v>
+        <v>5200</v>
       </c>
       <c r="G10" t="n">
-        <v>96.70666666666662</v>
+        <v>60951.1433</v>
       </c>
       <c r="H10" t="n">
-        <v>95.06666666666663</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +790,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>98.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>98.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>97.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>23013.6549</v>
+        <v>7504.2375</v>
       </c>
       <c r="G11" t="n">
-        <v>96.81333333333329</v>
+        <v>60951.1433</v>
       </c>
       <c r="H11" t="n">
-        <v>95.14166666666664</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +831,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C12" t="n">
-        <v>98.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="D12" t="n">
-        <v>98.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="E12" t="n">
-        <v>98.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F12" t="n">
-        <v>5148.7169</v>
+        <v>400</v>
       </c>
       <c r="G12" t="n">
-        <v>96.91999999999997</v>
+        <v>60551.1433</v>
       </c>
       <c r="H12" t="n">
-        <v>95.21666666666664</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +872,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97.5</v>
+        <v>93.8</v>
       </c>
       <c r="C13" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="D13" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="E13" t="n">
-        <v>97.5</v>
+        <v>93.8</v>
       </c>
       <c r="F13" t="n">
-        <v>1560.6051</v>
+        <v>6800</v>
       </c>
       <c r="G13" t="n">
-        <v>96.96666666666664</v>
+        <v>67351.1433</v>
       </c>
       <c r="H13" t="n">
-        <v>95.27666666666664</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>93.8</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +913,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="C14" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="F14" t="n">
-        <v>7845.2307</v>
+        <v>4800</v>
       </c>
       <c r="G14" t="n">
-        <v>97.01333333333331</v>
+        <v>72151.1433</v>
       </c>
       <c r="H14" t="n">
-        <v>95.33666666666664</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +954,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="D15" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="E15" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>4934.9333</v>
+        <v>1600</v>
       </c>
       <c r="G15" t="n">
-        <v>97.05999999999997</v>
+        <v>73751.1433</v>
       </c>
       <c r="H15" t="n">
-        <v>95.39666666666666</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="C16" t="n">
-        <v>96.7</v>
+        <v>95.5</v>
       </c>
       <c r="D16" t="n">
-        <v>96.7</v>
+        <v>95.5</v>
       </c>
       <c r="E16" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="F16" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="G16" t="n">
-        <v>97.05999999999997</v>
+        <v>76951.1433</v>
       </c>
       <c r="H16" t="n">
-        <v>95.44333333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +1034,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>96.7</v>
+        <v>95.5</v>
       </c>
       <c r="C17" t="n">
-        <v>96.7</v>
+        <v>95.5</v>
       </c>
       <c r="D17" t="n">
-        <v>96.7</v>
+        <v>95.5</v>
       </c>
       <c r="E17" t="n">
-        <v>96.7</v>
+        <v>95.5</v>
       </c>
       <c r="F17" t="n">
-        <v>135</v>
+        <v>1650</v>
       </c>
       <c r="G17" t="n">
-        <v>97.06666666666665</v>
+        <v>76951.1433</v>
       </c>
       <c r="H17" t="n">
-        <v>95.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1073,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>97.2</v>
+        <v>95.5</v>
       </c>
       <c r="C18" t="n">
-        <v>97.2</v>
+        <v>99</v>
       </c>
       <c r="D18" t="n">
-        <v>97.2</v>
+        <v>99</v>
       </c>
       <c r="E18" t="n">
-        <v>97.2</v>
+        <v>95.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1641.11</v>
+        <v>95748.76720919192</v>
       </c>
       <c r="G18" t="n">
-        <v>97.09999999999998</v>
+        <v>172699.9105091919</v>
       </c>
       <c r="H18" t="n">
-        <v>95.545</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1112,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>97.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>97.2</v>
+        <v>99</v>
       </c>
       <c r="D19" t="n">
-        <v>97.2</v>
+        <v>99</v>
       </c>
       <c r="E19" t="n">
-        <v>97.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>1164</v>
+        <v>3314.0707</v>
       </c>
       <c r="G19" t="n">
-        <v>97.20666666666666</v>
+        <v>172699.9105091919</v>
       </c>
       <c r="H19" t="n">
-        <v>95.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,74 +1151,70 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>97.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>97.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>130</v>
+        <v>1888.28</v>
       </c>
       <c r="G20" t="n">
-        <v>97.23999999999999</v>
+        <v>170811.6305091919</v>
       </c>
       <c r="H20" t="n">
-        <v>95.655</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>3200</v>
+        <v>981.6154</v>
       </c>
       <c r="G21" t="n">
-        <v>97.22</v>
+        <v>170811.6305091919</v>
       </c>
       <c r="H21" t="n">
-        <v>95.69833333333334</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1223,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>13361.6176</v>
+        <v>635</v>
       </c>
       <c r="G22" t="n">
-        <v>97.26666666666667</v>
+        <v>170811.6305091919</v>
       </c>
       <c r="H22" t="n">
-        <v>95.75833333333335</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1258,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>12748.2135</v>
+        <v>1409.1366</v>
       </c>
       <c r="G23" t="n">
-        <v>97.24666666666667</v>
+        <v>170811.6305091919</v>
       </c>
       <c r="H23" t="n">
-        <v>95.80166666666669</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1293,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="C24" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="D24" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="E24" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="F24" t="n">
-        <v>1694</v>
+        <v>362.304</v>
       </c>
       <c r="G24" t="n">
-        <v>97.26000000000001</v>
+        <v>170449.3265091919</v>
       </c>
       <c r="H24" t="n">
-        <v>95.85333333333337</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1328,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="C25" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="D25" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="E25" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="F25" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G25" t="n">
-        <v>97.22666666666667</v>
+        <v>171249.3265091919</v>
       </c>
       <c r="H25" t="n">
-        <v>95.89833333333337</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1363,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C26" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="D26" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="E26" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F26" t="n">
-        <v>800</v>
+        <v>10047.9751</v>
       </c>
       <c r="G26" t="n">
-        <v>97.09999999999999</v>
+        <v>171249.3265091919</v>
       </c>
       <c r="H26" t="n">
-        <v>95.95666666666671</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1398,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="C27" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="D27" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="E27" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="F27" t="n">
-        <v>2568.4239</v>
+        <v>800</v>
       </c>
       <c r="G27" t="n">
-        <v>96.97333333333333</v>
+        <v>171249.3265091919</v>
       </c>
       <c r="H27" t="n">
-        <v>96.00000000000004</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1433,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C28" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="D28" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="E28" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="F28" t="n">
-        <v>3200</v>
+        <v>6910.6301</v>
       </c>
       <c r="G28" t="n">
-        <v>96.94</v>
+        <v>171249.3265091919</v>
       </c>
       <c r="H28" t="n">
-        <v>96.05166666666672</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1468,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="C29" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="D29" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="E29" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="F29" t="n">
-        <v>15600</v>
+        <v>800</v>
       </c>
       <c r="G29" t="n">
-        <v>96.90666666666667</v>
+        <v>171249.3265091919</v>
       </c>
       <c r="H29" t="n">
-        <v>96.1033333333334</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1503,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="C30" t="n">
-        <v>97.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D30" t="n">
-        <v>97.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="E30" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="F30" t="n">
-        <v>7210</v>
+        <v>800</v>
       </c>
       <c r="G30" t="n">
-        <v>96.87999999999998</v>
+        <v>170449.3265091919</v>
       </c>
       <c r="H30" t="n">
-        <v>96.17000000000006</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1538,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C31" t="n">
-        <v>97.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>97.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>1600</v>
       </c>
       <c r="G31" t="n">
-        <v>96.90666666666665</v>
+        <v>168849.3265091919</v>
       </c>
       <c r="H31" t="n">
-        <v>96.2233333333334</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1573,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>95.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>95.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D32" t="n">
-        <v>95.7</v>
+        <v>96.7</v>
       </c>
       <c r="E32" t="n">
-        <v>95.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>3305.7855</v>
+        <v>4800</v>
       </c>
       <c r="G32" t="n">
-        <v>96.8333333333333</v>
+        <v>173649.3265091919</v>
       </c>
       <c r="H32" t="n">
-        <v>96.25166666666675</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1608,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>95509.3952</v>
+        <v>3933.7034</v>
       </c>
       <c r="G33" t="n">
-        <v>96.71999999999997</v>
+        <v>169715.6231091919</v>
       </c>
       <c r="H33" t="n">
-        <v>96.27833333333342</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,33 +1646,30 @@
         <v>95.59999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>95.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D34" t="n">
-        <v>95.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="E34" t="n">
         <v>95.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="G34" t="n">
-        <v>96.61333333333329</v>
+        <v>172515.6231091919</v>
       </c>
       <c r="H34" t="n">
-        <v>96.33166666666676</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1678,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>95.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C35" t="n">
-        <v>95.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="D35" t="n">
-        <v>95.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="E35" t="n">
-        <v>95.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="F35" t="n">
-        <v>619.6</v>
+        <v>7200</v>
       </c>
       <c r="G35" t="n">
-        <v>96.50666666666662</v>
+        <v>179715.6231091919</v>
       </c>
       <c r="H35" t="n">
-        <v>96.36000000000011</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1713,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>95.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="C36" t="n">
-        <v>95.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="D36" t="n">
-        <v>95.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="E36" t="n">
-        <v>95.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="F36" t="n">
-        <v>3131.4403</v>
+        <v>1239.6694</v>
       </c>
       <c r="G36" t="n">
-        <v>96.44666666666662</v>
+        <v>179715.6231091919</v>
       </c>
       <c r="H36" t="n">
-        <v>96.38833333333346</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1748,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C37" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D37" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E37" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="G37" t="n">
-        <v>96.37333333333328</v>
+        <v>179715.6231091919</v>
       </c>
       <c r="H37" t="n">
-        <v>96.43000000000012</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1783,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>95.5</v>
+        <v>96.8</v>
       </c>
       <c r="C38" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D38" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E38" t="n">
-        <v>95.5</v>
+        <v>96.8</v>
       </c>
       <c r="F38" t="n">
-        <v>1211</v>
+        <v>800</v>
       </c>
       <c r="G38" t="n">
-        <v>96.36666666666662</v>
+        <v>179715.6231091919</v>
       </c>
       <c r="H38" t="n">
-        <v>96.47166666666679</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1818,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C39" t="n">
-        <v>96.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>96.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
+        <v>5868</v>
       </c>
       <c r="G39" t="n">
-        <v>96.32666666666663</v>
+        <v>185583.6231091919</v>
       </c>
       <c r="H39" t="n">
-        <v>96.51333333333346</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1853,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>95.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>95.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>95.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>95.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>1600</v>
+        <v>23013.6549</v>
       </c>
       <c r="G40" t="n">
-        <v>96.2533333333333</v>
+        <v>208597.2780091919</v>
       </c>
       <c r="H40" t="n">
-        <v>96.54000000000013</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1888,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>95.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>95.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>95.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>95.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>4656.5105</v>
+        <v>5148.7169</v>
       </c>
       <c r="G41" t="n">
-        <v>96.18666666666664</v>
+        <v>208597.2780091919</v>
       </c>
       <c r="H41" t="n">
-        <v>96.5666666666668</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1923,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="C42" t="n">
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="D42" t="n">
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="E42" t="n">
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="F42" t="n">
-        <v>4969.811</v>
+        <v>1560.6051</v>
       </c>
       <c r="G42" t="n">
-        <v>96.11999999999996</v>
+        <v>207036.6729091919</v>
       </c>
       <c r="H42" t="n">
-        <v>96.59333333333348</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1958,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>95.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C43" t="n">
-        <v>95.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="D43" t="n">
-        <v>95.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E43" t="n">
-        <v>95.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F43" t="n">
-        <v>4714.0403</v>
+        <v>7845.2307</v>
       </c>
       <c r="G43" t="n">
-        <v>95.9933333333333</v>
+        <v>207036.6729091919</v>
       </c>
       <c r="H43" t="n">
-        <v>96.61500000000015</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1993,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>95.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C44" t="n">
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="D44" t="n">
-        <v>95.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E44" t="n">
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="F44" t="n">
-        <v>2400</v>
+        <v>4934.9333</v>
       </c>
       <c r="G44" t="n">
-        <v>95.85999999999996</v>
+        <v>207036.6729091919</v>
       </c>
       <c r="H44" t="n">
-        <v>96.63166666666682</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2028,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="C45" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="D45" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="E45" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="F45" t="n">
-        <v>4984.1602</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="n">
-        <v>95.71999999999997</v>
+        <v>205036.6729091919</v>
       </c>
       <c r="H45" t="n">
-        <v>96.63333333333348</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2063,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="C46" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="D46" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="E46" t="n">
-        <v>95</v>
+        <v>96.7</v>
       </c>
       <c r="F46" t="n">
-        <v>800</v>
+        <v>135</v>
       </c>
       <c r="G46" t="n">
-        <v>95.57999999999997</v>
+        <v>205036.6729091919</v>
       </c>
       <c r="H46" t="n">
-        <v>96.63333333333348</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2098,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>95</v>
+        <v>97.2</v>
       </c>
       <c r="C47" t="n">
-        <v>95</v>
+        <v>97.2</v>
       </c>
       <c r="D47" t="n">
-        <v>95</v>
+        <v>97.2</v>
       </c>
       <c r="E47" t="n">
-        <v>95</v>
+        <v>97.2</v>
       </c>
       <c r="F47" t="n">
-        <v>4102.3536</v>
+        <v>1641.11</v>
       </c>
       <c r="G47" t="n">
-        <v>95.53999999999998</v>
+        <v>206677.7829091919</v>
       </c>
       <c r="H47" t="n">
-        <v>96.62500000000016</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2133,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>95</v>
+        <v>97.2</v>
       </c>
       <c r="C48" t="n">
-        <v>94.8</v>
+        <v>97.2</v>
       </c>
       <c r="D48" t="n">
-        <v>95</v>
+        <v>97.2</v>
       </c>
       <c r="E48" t="n">
-        <v>94.8</v>
+        <v>97.2</v>
       </c>
       <c r="F48" t="n">
-        <v>10723</v>
+        <v>1164</v>
       </c>
       <c r="G48" t="n">
-        <v>95.49333333333331</v>
+        <v>206677.7829091919</v>
       </c>
       <c r="H48" t="n">
-        <v>96.61333333333349</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2168,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>94.8</v>
+        <v>97.2</v>
       </c>
       <c r="C49" t="n">
-        <v>94.8</v>
+        <v>97.2</v>
       </c>
       <c r="D49" t="n">
-        <v>94.8</v>
+        <v>97.2</v>
       </c>
       <c r="E49" t="n">
-        <v>94.8</v>
+        <v>97.2</v>
       </c>
       <c r="F49" t="n">
-        <v>10624.05</v>
+        <v>130</v>
       </c>
       <c r="G49" t="n">
-        <v>95.43999999999998</v>
+        <v>206677.7829091919</v>
       </c>
       <c r="H49" t="n">
-        <v>96.54333333333349</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2203,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>94.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C50" t="n">
-        <v>94.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="D50" t="n">
-        <v>94.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="E50" t="n">
-        <v>94.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="F50" t="n">
-        <v>550.0821</v>
+        <v>3200</v>
       </c>
       <c r="G50" t="n">
-        <v>95.37333333333331</v>
+        <v>203477.7829091919</v>
       </c>
       <c r="H50" t="n">
-        <v>96.47000000000017</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2238,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>94.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C51" t="n">
-        <v>94.5</v>
+        <v>97.5</v>
       </c>
       <c r="D51" t="n">
-        <v>94.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E51" t="n">
-        <v>94.5</v>
+        <v>96.5</v>
       </c>
       <c r="F51" t="n">
-        <v>10451.5617</v>
+        <v>13361.6176</v>
       </c>
       <c r="G51" t="n">
-        <v>95.29999999999998</v>
+        <v>216839.4005091919</v>
       </c>
       <c r="H51" t="n">
-        <v>96.42666666666682</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2273,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>94.5</v>
+        <v>96.5</v>
       </c>
       <c r="C52" t="n">
-        <v>94.5</v>
+        <v>96.5</v>
       </c>
       <c r="D52" t="n">
-        <v>94.5</v>
+        <v>96.5</v>
       </c>
       <c r="E52" t="n">
-        <v>94.5</v>
+        <v>96.5</v>
       </c>
       <c r="F52" t="n">
-        <v>9975</v>
+        <v>12748.2135</v>
       </c>
       <c r="G52" t="n">
-        <v>95.17333333333332</v>
+        <v>204091.1870091919</v>
       </c>
       <c r="H52" t="n">
-        <v>96.38333333333348</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2308,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>94.5</v>
+        <v>97</v>
       </c>
       <c r="C53" t="n">
-        <v>94.5</v>
+        <v>97</v>
       </c>
       <c r="D53" t="n">
-        <v>94.5</v>
+        <v>97</v>
       </c>
       <c r="E53" t="n">
-        <v>94.5</v>
+        <v>97</v>
       </c>
       <c r="F53" t="n">
-        <v>3944.191</v>
+        <v>1694</v>
       </c>
       <c r="G53" t="n">
-        <v>95.04666666666664</v>
+        <v>205785.1870091919</v>
       </c>
       <c r="H53" t="n">
-        <v>96.34000000000015</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2343,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>93.7</v>
+        <v>97</v>
       </c>
       <c r="C54" t="n">
-        <v>93.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>93.7</v>
+        <v>97</v>
       </c>
       <c r="E54" t="n">
-        <v>93.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>1556.7036</v>
+        <v>1600</v>
       </c>
       <c r="G54" t="n">
-        <v>94.8333333333333</v>
+        <v>204185.1870091919</v>
       </c>
       <c r="H54" t="n">
-        <v>96.27500000000013</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2378,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>93.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="D55" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="E55" t="n">
-        <v>93.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>781.7944</v>
+        <v>800</v>
       </c>
       <c r="G55" t="n">
-        <v>94.72666666666665</v>
+        <v>203385.1870091919</v>
       </c>
       <c r="H55" t="n">
-        <v>96.22833333333347</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2413,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="C56" t="n">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="D56" t="n">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="E56" t="n">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>2568.4239</v>
       </c>
       <c r="G56" t="n">
-        <v>94.62666666666664</v>
+        <v>203385.1870091919</v>
       </c>
       <c r="H56" t="n">
-        <v>96.1816666666668</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2448,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>94</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D57" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E57" t="n">
-        <v>94</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="G57" t="n">
-        <v>94.52666666666664</v>
+        <v>206585.1870091919</v>
       </c>
       <c r="H57" t="n">
-        <v>96.13500000000013</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2483,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C58" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D58" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E58" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F58" t="n">
-        <v>6000</v>
+        <v>15600</v>
       </c>
       <c r="G58" t="n">
-        <v>94.45333333333332</v>
+        <v>206585.1870091919</v>
       </c>
       <c r="H58" t="n">
-        <v>96.08833333333345</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2518,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>93.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="C59" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>93.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="F59" t="n">
-        <v>800</v>
+        <v>7210</v>
       </c>
       <c r="G59" t="n">
-        <v>94.37999999999998</v>
+        <v>213795.1870091919</v>
       </c>
       <c r="H59" t="n">
-        <v>96.04000000000012</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2553,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F60" t="n">
         <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>94.30666666666666</v>
+        <v>213795.1870091919</v>
       </c>
       <c r="H60" t="n">
-        <v>95.99166666666677</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2588,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>93.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C61" t="n">
-        <v>93.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>93.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="E61" t="n">
-        <v>93.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>400</v>
+        <v>3305.7855</v>
       </c>
       <c r="G61" t="n">
-        <v>94.23333333333333</v>
+        <v>210489.4015091919</v>
       </c>
       <c r="H61" t="n">
-        <v>95.94500000000011</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2623,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>93.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C62" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D62" t="n">
-        <v>93.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="E62" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F62" t="n">
-        <v>1200</v>
+        <v>95509.3952</v>
       </c>
       <c r="G62" t="n">
-        <v>94.16000000000001</v>
+        <v>114980.0063091919</v>
       </c>
       <c r="H62" t="n">
-        <v>95.90000000000009</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2658,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>93.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>93.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>94.10666666666667</v>
+        <v>116980.0063091919</v>
       </c>
       <c r="H63" t="n">
-        <v>95.85500000000009</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2693,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>340.4255319148936</v>
+        <v>619.6</v>
       </c>
       <c r="G64" t="n">
-        <v>94.05333333333334</v>
+        <v>116980.0063091919</v>
       </c>
       <c r="H64" t="n">
-        <v>95.82833333333342</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2728,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>800</v>
+        <v>3131.4403</v>
       </c>
       <c r="G65" t="n">
-        <v>94.01333333333335</v>
+        <v>116980.0063091919</v>
       </c>
       <c r="H65" t="n">
-        <v>95.78333333333343</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2763,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G66" t="n">
-        <v>93.98000000000002</v>
+        <v>117230.0063091919</v>
       </c>
       <c r="H66" t="n">
-        <v>95.73666666666675</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2798,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>94</v>
+        <v>95.5</v>
       </c>
       <c r="C67" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>94</v>
+        <v>95.5</v>
       </c>
       <c r="F67" t="n">
-        <v>800</v>
+        <v>1211</v>
       </c>
       <c r="G67" t="n">
-        <v>93.94666666666669</v>
+        <v>117230.0063091919</v>
       </c>
       <c r="H67" t="n">
-        <v>95.69000000000008</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2833,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>543</v>
+        <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>93.91333333333336</v>
+        <v>117230.0063091919</v>
       </c>
       <c r="H68" t="n">
-        <v>95.64333333333342</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,40 +2868,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="C69" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="D69" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="E69" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="F69" t="n">
-        <v>9445.089900000001</v>
+        <v>1600</v>
       </c>
       <c r="G69" t="n">
-        <v>94.00000000000001</v>
+        <v>115630.0063091919</v>
       </c>
       <c r="H69" t="n">
-        <v>95.60500000000008</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>94</v>
-      </c>
-      <c r="L69" t="n">
-        <v>94</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3026,42 +2903,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="C70" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="D70" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="E70" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="F70" t="n">
-        <v>7299.7248</v>
+        <v>4656.5105</v>
       </c>
       <c r="G70" t="n">
-        <v>94.04000000000001</v>
+        <v>115630.0063091919</v>
       </c>
       <c r="H70" t="n">
-        <v>95.56166666666674</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>94</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3070,42 +2938,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>93.7</v>
+        <v>95.5</v>
       </c>
       <c r="C71" t="n">
-        <v>93.7</v>
+        <v>95.5</v>
       </c>
       <c r="D71" t="n">
-        <v>93.7</v>
+        <v>95.5</v>
       </c>
       <c r="E71" t="n">
-        <v>93.7</v>
+        <v>95.5</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>4969.811</v>
       </c>
       <c r="G71" t="n">
-        <v>94.02000000000001</v>
+        <v>115630.0063091919</v>
       </c>
       <c r="H71" t="n">
-        <v>95.48333333333341</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>94</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,36 +2973,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>93.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>93.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>93.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>93.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>4714.0403</v>
       </c>
       <c r="G72" t="n">
-        <v>94.00000000000001</v>
+        <v>110915.9660091919</v>
       </c>
       <c r="H72" t="n">
-        <v>95.40500000000007</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3152,40 +3008,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>94.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>94.5</v>
+        <v>95</v>
       </c>
       <c r="D73" t="n">
-        <v>94.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>94.5</v>
+        <v>95</v>
       </c>
       <c r="F73" t="n">
-        <v>10582.0105</v>
+        <v>2400</v>
       </c>
       <c r="G73" t="n">
-        <v>94.03333333333335</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H73" t="n">
-        <v>95.35500000000008</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="L73" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,44 +3043,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="C74" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D74" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="E74" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="F74" t="n">
-        <v>14059.8388</v>
+        <v>4984.1602</v>
       </c>
       <c r="G74" t="n">
-        <v>94.06666666666668</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H74" t="n">
-        <v>95.30333333333341</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L74" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3240,44 +3078,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="C75" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D75" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="E75" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="F75" t="n">
-        <v>4339.3312</v>
+        <v>800</v>
       </c>
       <c r="G75" t="n">
-        <v>94.10000000000001</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H75" t="n">
-        <v>95.25166666666674</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="L75" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,40 +3113,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="C76" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D76" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="E76" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="F76" t="n">
-        <v>400</v>
+        <v>4102.3536</v>
       </c>
       <c r="G76" t="n">
-        <v>94.13333333333335</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H76" t="n">
-        <v>95.2133333333334</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="L76" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,44 +3148,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="C77" t="n">
-        <v>94.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="D77" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="E77" t="n">
-        <v>94.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="F77" t="n">
-        <v>400</v>
+        <v>10723</v>
       </c>
       <c r="G77" t="n">
-        <v>94.16666666666669</v>
+        <v>97792.96600919191</v>
       </c>
       <c r="H77" t="n">
-        <v>95.17500000000005</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="L77" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,44 +3183,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>94.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="C78" t="n">
-        <v>94.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="D78" t="n">
-        <v>94.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="E78" t="n">
-        <v>94.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="F78" t="n">
-        <v>619.896</v>
+        <v>10624.05</v>
       </c>
       <c r="G78" t="n">
-        <v>94.19333333333336</v>
+        <v>97792.96600919191</v>
       </c>
       <c r="H78" t="n">
-        <v>95.12833333333339</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="L78" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,40 +3218,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>5128.66</v>
+        <v>550.0821</v>
       </c>
       <c r="G79" t="n">
-        <v>94.22000000000003</v>
+        <v>97242.88390919191</v>
       </c>
       <c r="H79" t="n">
-        <v>95.08166666666672</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="L79" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,44 +3253,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C80" t="n">
         <v>94.5</v>
       </c>
       <c r="D80" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E80" t="n">
         <v>94.5</v>
       </c>
       <c r="F80" t="n">
-        <v>1058.201058201058</v>
+        <v>10451.5617</v>
       </c>
       <c r="G80" t="n">
-        <v>94.25333333333336</v>
+        <v>86791.3222091919</v>
       </c>
       <c r="H80" t="n">
-        <v>95.03666666666672</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="L80" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,44 +3294,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C81" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D81" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E81" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F81" t="n">
-        <v>800</v>
+        <v>9975</v>
       </c>
       <c r="G81" t="n">
-        <v>94.28000000000003</v>
+        <v>86791.3222091919</v>
       </c>
       <c r="H81" t="n">
-        <v>95.00166666666672</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
         <v>94.5</v>
       </c>
-      <c r="L81" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3335,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C82" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D82" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E82" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F82" t="n">
-        <v>800</v>
+        <v>3944.191</v>
       </c>
       <c r="G82" t="n">
-        <v>94.3066666666667</v>
+        <v>86791.3222091919</v>
       </c>
       <c r="H82" t="n">
-        <v>94.95000000000005</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3376,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>94.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C83" t="n">
-        <v>94.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D83" t="n">
-        <v>94.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E83" t="n">
-        <v>94.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1123.7623</v>
+        <v>1556.7036</v>
       </c>
       <c r="G83" t="n">
-        <v>94.33333333333339</v>
+        <v>85234.61860919191</v>
       </c>
       <c r="H83" t="n">
-        <v>94.91500000000003</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3415,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>94.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>94.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>94.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>94.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>5385.2346</v>
+        <v>781.7944</v>
       </c>
       <c r="G84" t="n">
-        <v>94.32666666666672</v>
+        <v>86016.41300919191</v>
       </c>
       <c r="H84" t="n">
-        <v>94.8716666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3454,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="C85" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="D85" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="E85" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="F85" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G85" t="n">
-        <v>94.32666666666672</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H85" t="n">
-        <v>94.83666666666669</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3493,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="C86" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="D86" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="E86" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="F86" t="n">
-        <v>108.8757417989418</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="n">
-        <v>94.38000000000005</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H86" t="n">
-        <v>94.80333333333336</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,40 +3532,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C87" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D87" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E87" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="F87" t="n">
-        <v>2175</v>
+        <v>6000</v>
       </c>
       <c r="G87" t="n">
-        <v>94.49333333333338</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H87" t="n">
-        <v>94.78500000000003</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L87" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,42 +3571,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>3061</v>
+        <v>800</v>
       </c>
       <c r="G88" t="n">
-        <v>94.55333333333338</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H88" t="n">
-        <v>94.75833333333335</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,42 +3610,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>5600</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>94.62000000000006</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H89" t="n">
-        <v>94.73166666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,36 +3649,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>2401</v>
+        <v>400</v>
       </c>
       <c r="G90" t="n">
-        <v>94.68666666666672</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H90" t="n">
-        <v>94.70333333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,36 +3688,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>420</v>
+        <v>1200</v>
       </c>
       <c r="G91" t="n">
-        <v>94.75333333333339</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H91" t="n">
-        <v>94.67499999999998</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,36 +3727,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D92" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E92" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="G92" t="n">
-        <v>94.82000000000006</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H92" t="n">
-        <v>94.67166666666664</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,36 +3766,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C93" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D93" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E93" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="F93" t="n">
-        <v>800</v>
+        <v>340.4255319148936</v>
       </c>
       <c r="G93" t="n">
-        <v>94.88666666666673</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H93" t="n">
-        <v>94.66999999999997</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,36 +3805,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C94" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D94" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E94" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="F94" t="n">
         <v>800</v>
       </c>
       <c r="G94" t="n">
-        <v>94.95333333333339</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H94" t="n">
-        <v>94.66666666666661</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,36 +3844,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E95" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="F95" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="n">
-        <v>95.01333333333339</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H95" t="n">
-        <v>94.66333333333327</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,36 +3883,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D96" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E96" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="F96" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G96" t="n">
-        <v>95.08000000000007</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H96" t="n">
-        <v>94.65999999999993</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,36 +3922,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C97" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D97" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E97" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="F97" t="n">
-        <v>2460</v>
+        <v>543</v>
       </c>
       <c r="G97" t="n">
-        <v>95.14666666666673</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H97" t="n">
-        <v>94.64333333333326</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,36 +3961,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C98" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D98" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E98" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F98" t="n">
-        <v>8504.937099999999</v>
+        <v>9445.089900000001</v>
       </c>
       <c r="G98" t="n">
-        <v>95.2133333333334</v>
+        <v>96661.50290919191</v>
       </c>
       <c r="H98" t="n">
-        <v>94.62666666666659</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,36 +4000,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C99" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D99" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E99" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F99" t="n">
-        <v>800</v>
+        <v>7299.7248</v>
       </c>
       <c r="G99" t="n">
-        <v>95.28000000000006</v>
+        <v>96661.50290919191</v>
       </c>
       <c r="H99" t="n">
-        <v>94.60999999999993</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,36 +4039,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>95.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C100" t="n">
-        <v>95.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D100" t="n">
-        <v>95.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E100" t="n">
-        <v>95.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F100" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>95.34000000000007</v>
+        <v>96651.50290919191</v>
       </c>
       <c r="H100" t="n">
-        <v>94.60833333333326</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,36 +4078,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>95.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D101" t="n">
-        <v>95.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>95.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F101" t="n">
-        <v>1221.3637</v>
+        <v>20</v>
       </c>
       <c r="G101" t="n">
-        <v>95.40000000000008</v>
+        <v>96651.50290919191</v>
       </c>
       <c r="H101" t="n">
-        <v>94.60666666666658</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,36 +4117,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C102" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D102" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E102" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F102" t="n">
-        <v>2000</v>
+        <v>10582.0105</v>
       </c>
       <c r="G102" t="n">
-        <v>95.40000000000008</v>
+        <v>107233.5134091919</v>
       </c>
       <c r="H102" t="n">
-        <v>94.60499999999992</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,36 +4156,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>95.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>95.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>95.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>95.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>513.7388</v>
+        <v>14059.8388</v>
       </c>
       <c r="G103" t="n">
-        <v>95.38000000000007</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H103" t="n">
-        <v>94.60499999999992</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,36 +4195,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>95.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>95.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>587</v>
+        <v>4339.3312</v>
       </c>
       <c r="G104" t="n">
-        <v>95.38000000000007</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H104" t="n">
-        <v>94.61166666666658</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,36 +4234,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G105" t="n">
-        <v>95.38000000000007</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H105" t="n">
-        <v>94.61833333333324</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,36 +4273,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G106" t="n">
-        <v>95.38000000000007</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H106" t="n">
-        <v>94.6249999999999</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,36 +4312,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>800</v>
+        <v>619.896</v>
       </c>
       <c r="G107" t="n">
-        <v>95.38000000000007</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H107" t="n">
-        <v>94.63166666666656</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,36 +4351,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>1200</v>
+        <v>5128.66</v>
       </c>
       <c r="G108" t="n">
-        <v>95.38000000000007</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H108" t="n">
-        <v>94.64166666666655</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,36 +4390,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C109" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D109" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E109" t="n">
-        <v>95.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F109" t="n">
-        <v>15864.9371</v>
+        <v>1058.201058201058</v>
       </c>
       <c r="G109" t="n">
-        <v>95.38000000000007</v>
+        <v>94231.87566739297</v>
       </c>
       <c r="H109" t="n">
-        <v>94.65166666666654</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,36 +4429,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>19761</v>
+        <v>800</v>
       </c>
       <c r="G110" t="n">
-        <v>95.42000000000006</v>
+        <v>93431.87566739297</v>
       </c>
       <c r="H110" t="n">
-        <v>94.67499999999987</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4672,36 +4468,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>1041.666666666667</v>
+        <v>800</v>
       </c>
       <c r="G111" t="n">
-        <v>95.46000000000005</v>
+        <v>93431.87566739297</v>
       </c>
       <c r="H111" t="n">
-        <v>94.69999999999986</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,36 +4507,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>400</v>
+        <v>1123.7623</v>
       </c>
       <c r="G112" t="n">
-        <v>95.50000000000004</v>
+        <v>93431.87566739297</v>
       </c>
       <c r="H112" t="n">
-        <v>94.72499999999987</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,36 +4546,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>96</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>12133.6498</v>
+        <v>5385.2346</v>
       </c>
       <c r="G113" t="n">
-        <v>95.54000000000003</v>
+        <v>93431.87566739297</v>
       </c>
       <c r="H113" t="n">
-        <v>94.74999999999986</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,36 +4585,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C114" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="D114" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E114" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F114" t="n">
-        <v>27671.4883</v>
+        <v>800</v>
       </c>
       <c r="G114" t="n">
-        <v>95.58000000000003</v>
+        <v>94231.87566739297</v>
       </c>
       <c r="H114" t="n">
-        <v>94.79666666666654</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,36 +4624,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C115" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="D115" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E115" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F115" t="n">
-        <v>3.3333333333334e-05</v>
+        <v>108.8757417989418</v>
       </c>
       <c r="G115" t="n">
-        <v>95.62000000000003</v>
+        <v>94231.87566739297</v>
       </c>
       <c r="H115" t="n">
-        <v>94.83166666666654</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,36 +4663,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>96.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>96.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>96.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>96.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>1062.3242</v>
+        <v>2175</v>
       </c>
       <c r="G116" t="n">
-        <v>95.70666666666669</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H116" t="n">
-        <v>94.87666666666654</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,36 +4702,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>97</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>96.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>97</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>96.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>1380.2394</v>
+        <v>3061</v>
       </c>
       <c r="G117" t="n">
-        <v>95.80666666666669</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H117" t="n">
-        <v>94.92499999999987</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,36 +4741,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>96.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>96.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>96.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>96.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>125.8217</v>
+        <v>5600</v>
       </c>
       <c r="G118" t="n">
-        <v>95.92000000000003</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H118" t="n">
-        <v>94.97166666666654</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4976,36 +4780,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>96.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>96.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>5223.5268</v>
+        <v>2401</v>
       </c>
       <c r="G119" t="n">
-        <v>95.98666666666669</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H119" t="n">
-        <v>95.01333333333319</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,36 +4819,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>96.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>96.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>96.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>96.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>2784.4698</v>
+        <v>420</v>
       </c>
       <c r="G120" t="n">
-        <v>96.04000000000002</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H120" t="n">
-        <v>95.05166666666653</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,36 +4858,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>1305.3895</v>
+        <v>2400</v>
       </c>
       <c r="G121" t="n">
-        <v>96.08000000000001</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H121" t="n">
-        <v>95.08666666666655</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5090,36 +4897,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>96.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>96.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>96.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>96.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G122" t="n">
-        <v>96.16666666666669</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H122" t="n">
-        <v>95.13333333333321</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5128,36 +4936,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>95.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>95.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>95.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>95.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F123" t="n">
         <v>800</v>
       </c>
       <c r="G123" t="n">
-        <v>96.19333333333334</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H123" t="n">
-        <v>95.16333333333321</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5166,36 +4975,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>1429.7784</v>
+        <v>800</v>
       </c>
       <c r="G124" t="n">
-        <v>96.21333333333334</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H124" t="n">
-        <v>95.19166666666655</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,36 +5014,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G125" t="n">
-        <v>96.24000000000001</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H125" t="n">
-        <v>95.23166666666654</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,36 +5053,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>652.6987</v>
+        <v>2460</v>
       </c>
       <c r="G126" t="n">
-        <v>96.21333333333334</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H126" t="n">
-        <v>95.25833333333321</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5280,36 +5092,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>2991.6595</v>
+        <v>8504.937099999999</v>
       </c>
       <c r="G127" t="n">
-        <v>96.18000000000001</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H127" t="n">
-        <v>95.28333333333322</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5321,33 +5134,34 @@
         <v>95.40000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>96.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>96.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>3245.4528</v>
+        <v>800</v>
       </c>
       <c r="G128" t="n">
-        <v>96.18666666666667</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H128" t="n">
-        <v>95.31833333333321</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,36 +5170,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>10697.591</v>
+        <v>800</v>
       </c>
       <c r="G129" t="n">
-        <v>96.12666666666665</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H129" t="n">
-        <v>95.32833333333322</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5394,36 +5209,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>4799.1814</v>
+        <v>1221.3637</v>
       </c>
       <c r="G130" t="n">
-        <v>96.06666666666665</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H130" t="n">
-        <v>95.33833333333322</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5432,36 +5248,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>2383.91</v>
+        <v>2000</v>
       </c>
       <c r="G131" t="n">
-        <v>95.99999999999999</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H131" t="n">
-        <v>95.37166666666657</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,36 +5287,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>1200</v>
+        <v>513.7388</v>
       </c>
       <c r="G132" t="n">
-        <v>95.93999999999998</v>
+        <v>95893.13686739297</v>
       </c>
       <c r="H132" t="n">
-        <v>95.4099999999999</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,36 +5326,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>96</v>
+        <v>95.3</v>
       </c>
       <c r="C133" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>96.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>95.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="F133" t="n">
-        <v>792557.9142</v>
+        <v>587</v>
       </c>
       <c r="G133" t="n">
-        <v>95.88666666666664</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H133" t="n">
-        <v>95.4349999999999</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5546,36 +5365,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>667111.8981</v>
+        <v>800</v>
       </c>
       <c r="G134" t="n">
-        <v>95.85999999999997</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H134" t="n">
-        <v>95.46166666666657</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5584,36 +5404,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>74109.7065</v>
+        <v>800</v>
       </c>
       <c r="G135" t="n">
-        <v>95.84666666666664</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H135" t="n">
-        <v>95.48833333333324</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5622,36 +5443,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>65390.9175</v>
+        <v>800</v>
       </c>
       <c r="G136" t="n">
-        <v>95.84666666666664</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H136" t="n">
-        <v>95.51499999999992</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,36 +5482,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>96.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>96.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>96.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>96.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>41.0661</v>
+        <v>1200</v>
       </c>
       <c r="G137" t="n">
-        <v>95.81999999999996</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H137" t="n">
-        <v>95.5466666666666</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,36 +5521,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>410.859</v>
+        <v>15864.9371</v>
       </c>
       <c r="G138" t="n">
-        <v>95.85999999999997</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H138" t="n">
-        <v>95.57999999999993</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,36 +5560,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D139" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E139" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>800</v>
+        <v>19761</v>
       </c>
       <c r="G139" t="n">
-        <v>95.90666666666665</v>
+        <v>116241.136867393</v>
       </c>
       <c r="H139" t="n">
-        <v>95.61333333333326</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5774,36 +5599,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C140" t="n">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="D140" t="n">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="E140" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F140" t="n">
-        <v>7262.0573</v>
+        <v>1041.666666666667</v>
       </c>
       <c r="G140" t="n">
-        <v>95.91999999999997</v>
+        <v>116241.136867393</v>
       </c>
       <c r="H140" t="n">
-        <v>95.64833333333327</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5812,36 +5638,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="C141" t="n">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="D141" t="n">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="E141" t="n">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="F141" t="n">
-        <v>243.367</v>
+        <v>400</v>
       </c>
       <c r="G141" t="n">
-        <v>95.98666666666664</v>
+        <v>116241.136867393</v>
       </c>
       <c r="H141" t="n">
-        <v>95.68499999999995</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5850,36 +5677,1182 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>96</v>
+      </c>
+      <c r="C142" t="n">
+        <v>96</v>
+      </c>
+      <c r="D142" t="n">
+        <v>96</v>
+      </c>
+      <c r="E142" t="n">
+        <v>96</v>
+      </c>
+      <c r="F142" t="n">
+        <v>12133.6498</v>
+      </c>
+      <c r="G142" t="n">
+        <v>116241.136867393</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>96</v>
+      </c>
+      <c r="C143" t="n">
+        <v>96</v>
+      </c>
+      <c r="D143" t="n">
+        <v>96</v>
+      </c>
+      <c r="E143" t="n">
+        <v>96</v>
+      </c>
+      <c r="F143" t="n">
+        <v>27671.4883</v>
+      </c>
+      <c r="G143" t="n">
+        <v>116241.136867393</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>96</v>
+      </c>
+      <c r="C144" t="n">
+        <v>96</v>
+      </c>
+      <c r="D144" t="n">
+        <v>96</v>
+      </c>
+      <c r="E144" t="n">
+        <v>96</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3.3333333333334e-05</v>
+      </c>
+      <c r="G144" t="n">
+        <v>116241.136867393</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1062.3242</v>
+      </c>
+      <c r="G145" t="n">
+        <v>117303.461067393</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>97</v>
+      </c>
+      <c r="C146" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>97</v>
+      </c>
+      <c r="E146" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1380.2394</v>
+      </c>
+      <c r="G146" t="n">
+        <v>118683.700467393</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>125.8217</v>
+      </c>
+      <c r="G147" t="n">
+        <v>118557.878767393</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D148" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5223.5268</v>
+      </c>
+      <c r="G148" t="n">
+        <v>113334.351967393</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2784.4698</v>
+      </c>
+      <c r="G149" t="n">
+        <v>110549.882167393</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>96</v>
+      </c>
+      <c r="C150" t="n">
+        <v>96</v>
+      </c>
+      <c r="D150" t="n">
+        <v>96</v>
+      </c>
+      <c r="E150" t="n">
+        <v>96</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1305.3895</v>
+      </c>
+      <c r="G150" t="n">
+        <v>109244.492667393</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C151" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="E151" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="D142" t="n">
+      <c r="F151" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>111244.492667393</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>800</v>
+      </c>
+      <c r="G152" t="n">
+        <v>110444.492667393</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="D153" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1429.7784</v>
+      </c>
+      <c r="G153" t="n">
+        <v>109014.714267393</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C154" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E154" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F154" t="n">
+        <v>100</v>
+      </c>
+      <c r="G154" t="n">
+        <v>109114.714267393</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="D155" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="F155" t="n">
+        <v>652.6987</v>
+      </c>
+      <c r="G155" t="n">
+        <v>108462.015567393</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2991.6595</v>
+      </c>
+      <c r="G156" t="n">
+        <v>105470.356067393</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D157" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3245.4528</v>
+      </c>
+      <c r="G157" t="n">
+        <v>108715.808867393</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="D158" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10697.591</v>
+      </c>
+      <c r="G158" t="n">
+        <v>98018.21786739299</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4799.1814</v>
+      </c>
+      <c r="G159" t="n">
+        <v>98018.21786739299</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2383.91</v>
+      </c>
+      <c r="G160" t="n">
+        <v>100402.127867393</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>96</v>
+      </c>
+      <c r="C161" t="n">
+        <v>96</v>
+      </c>
+      <c r="D161" t="n">
+        <v>96</v>
+      </c>
+      <c r="E161" t="n">
+        <v>96</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G161" t="n">
+        <v>101602.127867393</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>96</v>
+      </c>
+      <c r="C162" t="n">
+        <v>96</v>
+      </c>
+      <c r="D162" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E162" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="F162" t="n">
+        <v>792557.9142</v>
+      </c>
+      <c r="G162" t="n">
+        <v>101602.127867393</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>96</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>96</v>
+      </c>
+      <c r="C163" t="n">
+        <v>96</v>
+      </c>
+      <c r="D163" t="n">
+        <v>96</v>
+      </c>
+      <c r="E163" t="n">
+        <v>96</v>
+      </c>
+      <c r="F163" t="n">
+        <v>667111.8981</v>
+      </c>
+      <c r="G163" t="n">
+        <v>101602.127867393</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>96</v>
+      </c>
+      <c r="C164" t="n">
+        <v>96</v>
+      </c>
+      <c r="D164" t="n">
+        <v>96</v>
+      </c>
+      <c r="E164" t="n">
+        <v>96</v>
+      </c>
+      <c r="F164" t="n">
+        <v>74109.7065</v>
+      </c>
+      <c r="G164" t="n">
+        <v>101602.127867393</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>96</v>
+      </c>
+      <c r="C165" t="n">
+        <v>96</v>
+      </c>
+      <c r="D165" t="n">
+        <v>96</v>
+      </c>
+      <c r="E165" t="n">
+        <v>96</v>
+      </c>
+      <c r="F165" t="n">
+        <v>65390.9175</v>
+      </c>
+      <c r="G165" t="n">
+        <v>101602.127867393</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>96</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>41.0661</v>
+      </c>
+      <c r="G166" t="n">
+        <v>101643.193967393</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C167" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D167" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E167" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F167" t="n">
+        <v>410.859</v>
+      </c>
+      <c r="G167" t="n">
+        <v>102054.052967393</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C168" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D168" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>800</v>
+      </c>
+      <c r="G168" t="n">
+        <v>102054.052967393</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C169" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="E142" t="n">
+      <c r="D169" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="F142" t="n">
+      <c r="E169" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F169" t="n">
+        <v>7262.0573</v>
+      </c>
+      <c r="G169" t="n">
+        <v>109316.110267393</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>243.367</v>
+      </c>
+      <c r="G170" t="n">
+        <v>109316.110267393</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D171" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E171" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F171" t="n">
         <v>1479.6583</v>
       </c>
-      <c r="G142" t="n">
-        <v>96.05999999999996</v>
-      </c>
-      <c r="H142" t="n">
-        <v>95.72166666666662</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="G171" t="n">
+        <v>109316.110267393</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>93.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="C2" t="n">
-        <v>93.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D2" t="n">
-        <v>93.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E2" t="n">
-        <v>93.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2797</v>
+        <v>4934.9333</v>
       </c>
       <c r="G2" t="n">
-        <v>68061.1433</v>
+        <v>207036.6729091919</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,233 +467,209 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="C3" t="n">
-        <v>92.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D3" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E3" t="n">
-        <v>92.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="F3" t="n">
-        <v>7910</v>
+        <v>2000</v>
       </c>
       <c r="G3" t="n">
-        <v>60151.1433</v>
+        <v>205036.6729091919</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>93.8</v>
+        <v>96.7</v>
       </c>
       <c r="C4" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D4" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E4" t="n">
-        <v>93.8</v>
+        <v>96.7</v>
       </c>
       <c r="F4" t="n">
-        <v>800</v>
+        <v>135</v>
       </c>
       <c r="G4" t="n">
-        <v>60951.1433</v>
+        <v>205036.6729091919</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>92.40000000000001</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C5" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D5" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E5" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F5" t="n">
-        <v>667.4760383386581</v>
+        <v>1641.11</v>
       </c>
       <c r="G5" t="n">
-        <v>60951.1433</v>
+        <v>206677.7829091919</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C6" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D6" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E6" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F6" t="n">
-        <v>600.4366347177848</v>
+        <v>1164</v>
       </c>
       <c r="G6" t="n">
-        <v>60951.1433</v>
+        <v>206677.7829091919</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C7" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D7" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E7" t="n">
-        <v>93.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F7" t="n">
-        <v>417.7955</v>
+        <v>130</v>
       </c>
       <c r="G7" t="n">
-        <v>60951.1433</v>
+        <v>206677.7829091919</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C8" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="D8" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="E8" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F8" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="G8" t="n">
-        <v>60951.1433</v>
+        <v>203477.7829091919</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -698,36 +679,33 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C9" t="n">
-        <v>93.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D9" t="n">
-        <v>93.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E9" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F9" t="n">
-        <v>6400</v>
+        <v>13361.6176</v>
       </c>
       <c r="G9" t="n">
-        <v>60951.1433</v>
+        <v>216839.4005091919</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -737,36 +715,33 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C10" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="D10" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="E10" t="n">
-        <v>93.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F10" t="n">
-        <v>5200</v>
+        <v>12748.2135</v>
       </c>
       <c r="G10" t="n">
-        <v>60951.1433</v>
+        <v>204091.1870091919</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -776,397 +751,357 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="C11" t="n">
-        <v>93.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="D11" t="n">
-        <v>93.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="E11" t="n">
-        <v>92.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
-        <v>7504.2375</v>
+        <v>1694</v>
       </c>
       <c r="G11" t="n">
-        <v>60951.1433</v>
+        <v>205785.1870091919</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>93.8</v>
+        <v>97</v>
       </c>
       <c r="C12" t="n">
-        <v>93.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>93.8</v>
+        <v>97</v>
       </c>
       <c r="E12" t="n">
-        <v>93.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="G12" t="n">
-        <v>60551.1433</v>
+        <v>204185.1870091919</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>93.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="D13" t="n">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="E13" t="n">
-        <v>93.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>6800</v>
+        <v>800</v>
       </c>
       <c r="G13" t="n">
-        <v>67351.1433</v>
+        <v>203385.1870091919</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>93.8</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="C14" t="n">
-        <v>94.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="D14" t="n">
-        <v>94.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="E14" t="n">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="F14" t="n">
-        <v>4800</v>
+        <v>2568.4239</v>
       </c>
       <c r="G14" t="n">
-        <v>72151.1433</v>
+        <v>203385.1870091919</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>94</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>94.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E15" t="n">
-        <v>94.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="G15" t="n">
-        <v>73751.1433</v>
+        <v>206585.1870091919</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>94.90000000000001</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C16" t="n">
-        <v>95.5</v>
+        <v>97</v>
       </c>
       <c r="D16" t="n">
-        <v>95.5</v>
+        <v>97</v>
       </c>
       <c r="E16" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" t="n">
-        <v>3200</v>
+        <v>15600</v>
       </c>
       <c r="G16" t="n">
-        <v>76951.1433</v>
+        <v>206585.1870091919</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>95.5</v>
+        <v>97</v>
       </c>
       <c r="C17" t="n">
-        <v>95.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>95.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>95.5</v>
+        <v>97</v>
       </c>
       <c r="F17" t="n">
-        <v>1650</v>
+        <v>7210</v>
       </c>
       <c r="G17" t="n">
-        <v>76951.1433</v>
+        <v>213795.1870091919</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>95.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>99</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>99</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>95.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>95748.76720919192</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>172699.9105091919</v>
+        <v>213795.1870091919</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C19" t="n">
-        <v>99</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>99</v>
+        <v>95.7</v>
       </c>
       <c r="E19" t="n">
-        <v>98.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>3314.0707</v>
+        <v>3305.7855</v>
       </c>
       <c r="G19" t="n">
-        <v>172699.9105091919</v>
+        <v>210489.4015091919</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>96.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C20" t="n">
-        <v>97.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D20" t="n">
-        <v>97.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="E20" t="n">
-        <v>96.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F20" t="n">
-        <v>1888.28</v>
+        <v>95509.3952</v>
       </c>
       <c r="G20" t="n">
-        <v>170811.6305091919</v>
+        <v>114980.0063091919</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1176,34 +1111,33 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>981.6154</v>
+        <v>2000</v>
       </c>
       <c r="G21" t="n">
-        <v>170811.6305091919</v>
+        <v>116980.0063091919</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1217,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>635</v>
+        <v>619.6</v>
       </c>
       <c r="G22" t="n">
-        <v>170811.6305091919</v>
+        <v>116980.0063091919</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1252,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>97.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>1409.1366</v>
+        <v>3131.4403</v>
       </c>
       <c r="G23" t="n">
-        <v>170811.6305091919</v>
+        <v>116980.0063091919</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1287,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>362.304</v>
+        <v>250</v>
       </c>
       <c r="G24" t="n">
-        <v>170449.3265091919</v>
+        <v>117230.0063091919</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1322,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="C25" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="F25" t="n">
-        <v>800</v>
+        <v>1211</v>
       </c>
       <c r="G25" t="n">
-        <v>171249.3265091919</v>
+        <v>117230.0063091919</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1357,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>10047.9751</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>171249.3265091919</v>
+        <v>117230.0063091919</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1392,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="C27" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="D27" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="E27" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="F27" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G27" t="n">
-        <v>171249.3265091919</v>
+        <v>115630.0063091919</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1427,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="C28" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="D28" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="E28" t="n">
-        <v>96.7</v>
+        <v>95.5</v>
       </c>
       <c r="F28" t="n">
-        <v>6910.6301</v>
+        <v>4656.5105</v>
       </c>
       <c r="G28" t="n">
-        <v>171249.3265091919</v>
+        <v>115630.0063091919</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1462,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="C29" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="D29" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="E29" t="n">
-        <v>96.8</v>
+        <v>95.5</v>
       </c>
       <c r="F29" t="n">
-        <v>800</v>
+        <v>4969.811</v>
       </c>
       <c r="G29" t="n">
-        <v>171249.3265091919</v>
+        <v>115630.0063091919</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1497,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>96.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>96.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>96.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>800</v>
+        <v>4714.0403</v>
       </c>
       <c r="G30" t="n">
-        <v>170449.3265091919</v>
+        <v>110915.9660091919</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1532,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>96.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D31" t="n">
-        <v>96.59999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>96.5</v>
+        <v>95</v>
       </c>
       <c r="F31" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="G31" t="n">
-        <v>168849.3265091919</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1567,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C32" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="D32" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="E32" t="n">
-        <v>96.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="F32" t="n">
-        <v>4800</v>
+        <v>4984.1602</v>
       </c>
       <c r="G32" t="n">
-        <v>173649.3265091919</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1602,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C33" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D33" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="E33" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="F33" t="n">
-        <v>3933.7034</v>
+        <v>800</v>
       </c>
       <c r="G33" t="n">
-        <v>169715.6231091919</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1637,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C34" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="D34" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="E34" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="F34" t="n">
-        <v>2800</v>
+        <v>4102.3536</v>
       </c>
       <c r="G34" t="n">
-        <v>172515.6231091919</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1672,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>96.5</v>
+        <v>95</v>
       </c>
       <c r="C35" t="n">
-        <v>96.8</v>
+        <v>94.8</v>
       </c>
       <c r="D35" t="n">
-        <v>96.8</v>
+        <v>95</v>
       </c>
       <c r="E35" t="n">
-        <v>96.5</v>
+        <v>94.8</v>
       </c>
       <c r="F35" t="n">
-        <v>7200</v>
+        <v>10723</v>
       </c>
       <c r="G35" t="n">
-        <v>179715.6231091919</v>
+        <v>97792.96600919191</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1707,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>96.8</v>
+        <v>94.8</v>
       </c>
       <c r="C36" t="n">
-        <v>96.8</v>
+        <v>94.8</v>
       </c>
       <c r="D36" t="n">
-        <v>96.8</v>
+        <v>94.8</v>
       </c>
       <c r="E36" t="n">
-        <v>96.8</v>
+        <v>94.8</v>
       </c>
       <c r="F36" t="n">
-        <v>1239.6694</v>
+        <v>10624.05</v>
       </c>
       <c r="G36" t="n">
-        <v>179715.6231091919</v>
+        <v>97792.96600919191</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1742,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>96.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>96.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>96.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>96.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>400</v>
+        <v>550.0821</v>
       </c>
       <c r="G37" t="n">
-        <v>179715.6231091919</v>
+        <v>97242.88390919191</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1777,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>96.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="D38" t="n">
-        <v>96.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="F38" t="n">
-        <v>800</v>
+        <v>10451.5617</v>
       </c>
       <c r="G38" t="n">
-        <v>179715.6231091919</v>
+        <v>86791.3222091919</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1812,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="C39" t="n">
-        <v>97.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D39" t="n">
-        <v>97.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E39" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="F39" t="n">
-        <v>5868</v>
+        <v>9975</v>
       </c>
       <c r="G39" t="n">
-        <v>185583.6231091919</v>
+        <v>86791.3222091919</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1847,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>97.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C40" t="n">
-        <v>98.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D40" t="n">
-        <v>98.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E40" t="n">
-        <v>97.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F40" t="n">
-        <v>23013.6549</v>
+        <v>3944.191</v>
       </c>
       <c r="G40" t="n">
-        <v>208597.2780091919</v>
+        <v>86791.3222091919</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1882,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>98.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C41" t="n">
-        <v>98.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D41" t="n">
-        <v>98.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E41" t="n">
-        <v>98.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="F41" t="n">
-        <v>5148.7169</v>
+        <v>1556.7036</v>
       </c>
       <c r="G41" t="n">
-        <v>208597.2780091919</v>
+        <v>85234.61860919191</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1917,238 +1871,285 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>97.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>97.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>97.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>97.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>1560.6051</v>
+        <v>781.7944</v>
       </c>
       <c r="G42" t="n">
-        <v>207036.6729091919</v>
+        <v>86016.41300919191</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>93.2</v>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="C43" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="D43" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="E43" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="F43" t="n">
-        <v>7845.2307</v>
+        <v>1200</v>
       </c>
       <c r="G43" t="n">
-        <v>207036.6729091919</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K43" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="C44" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="D44" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="E44" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="F44" t="n">
-        <v>4934.9333</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="n">
-        <v>207036.6729091919</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>94</v>
+      </c>
+      <c r="K44" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>96.7</v>
+        <v>94</v>
       </c>
       <c r="C45" t="n">
-        <v>96.7</v>
+        <v>94</v>
       </c>
       <c r="D45" t="n">
-        <v>96.7</v>
+        <v>94</v>
       </c>
       <c r="E45" t="n">
-        <v>96.7</v>
+        <v>94</v>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G45" t="n">
-        <v>205036.6729091919</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>94</v>
+      </c>
+      <c r="K45" t="n">
+        <v>94</v>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>135</v>
+        <v>800</v>
       </c>
       <c r="G46" t="n">
-        <v>205036.6729091919</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>94</v>
+      </c>
+      <c r="K46" t="n">
+        <v>94</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>1641.11</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>206677.7829091919</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K47" t="n">
+        <v>94</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>1164</v>
+        <v>400</v>
       </c>
       <c r="G48" t="n">
-        <v>206677.7829091919</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2162,63 +2163,69 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>130</v>
+        <v>1200</v>
       </c>
       <c r="G49" t="n">
-        <v>206677.7829091919</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K49" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="D50" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="E50" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G50" t="n">
-        <v>203477.7829091919</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2227,33 +2234,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="C51" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="D51" t="n">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="E51" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="F51" t="n">
-        <v>13361.6176</v>
+        <v>340.4255319148936</v>
       </c>
       <c r="G51" t="n">
-        <v>216839.4005091919</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2262,33 +2276,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="C52" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="D52" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="E52" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="F52" t="n">
-        <v>12748.2135</v>
+        <v>800</v>
       </c>
       <c r="G52" t="n">
-        <v>204091.1870091919</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2297,348 +2318,432 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C53" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D53" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E53" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F53" t="n">
-        <v>1694</v>
+        <v>1200</v>
       </c>
       <c r="G53" t="n">
-        <v>205785.1870091919</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C54" t="n">
-        <v>96.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="D54" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E54" t="n">
-        <v>96.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="F54" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G54" t="n">
-        <v>204185.1870091919</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>94</v>
+      </c>
+      <c r="K54" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C55" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="D55" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="E55" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="F55" t="n">
-        <v>800</v>
+        <v>543</v>
       </c>
       <c r="G55" t="n">
-        <v>203385.1870091919</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>94</v>
+      </c>
+      <c r="K55" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="C56" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="D56" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="E56" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="F56" t="n">
-        <v>2568.4239</v>
+        <v>9445.089900000001</v>
       </c>
       <c r="G56" t="n">
-        <v>203385.1870091919</v>
+        <v>96661.50290919191</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>94</v>
+      </c>
+      <c r="K56" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>96.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C57" t="n">
-        <v>97</v>
+        <v>94.5</v>
       </c>
       <c r="D57" t="n">
-        <v>97</v>
+        <v>94.5</v>
       </c>
       <c r="E57" t="n">
-        <v>96.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F57" t="n">
-        <v>3200</v>
+        <v>7299.7248</v>
       </c>
       <c r="G57" t="n">
-        <v>206585.1870091919</v>
+        <v>96661.50290919191</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>97</v>
+        <v>93.7</v>
       </c>
       <c r="C58" t="n">
-        <v>97</v>
+        <v>93.7</v>
       </c>
       <c r="D58" t="n">
-        <v>97</v>
+        <v>93.7</v>
       </c>
       <c r="E58" t="n">
-        <v>97</v>
+        <v>93.7</v>
       </c>
       <c r="F58" t="n">
-        <v>15600</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>206585.1870091919</v>
+        <v>96651.50290919191</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>97.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="D59" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>97</v>
+        <v>93.7</v>
       </c>
       <c r="F59" t="n">
-        <v>7210</v>
+        <v>20</v>
       </c>
       <c r="G59" t="n">
-        <v>213795.1870091919</v>
+        <v>96651.50290919191</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>97.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C60" t="n">
-        <v>97.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D60" t="n">
-        <v>97.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E60" t="n">
-        <v>97.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>10582.0105</v>
       </c>
       <c r="G60" t="n">
-        <v>213795.1870091919</v>
+        <v>107233.5134091919</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="K60" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>95.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>95.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>3305.7855</v>
+        <v>14059.8388</v>
       </c>
       <c r="G61" t="n">
-        <v>210489.4015091919</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>95.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>95.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>95509.3952</v>
+        <v>4339.3312</v>
       </c>
       <c r="G62" t="n">
-        <v>114980.0063091919</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2647,33 +2752,40 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G63" t="n">
-        <v>116980.0063091919</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2682,33 +2794,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>619.6</v>
+        <v>400</v>
       </c>
       <c r="G64" t="n">
-        <v>116980.0063091919</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2717,33 +2836,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>95.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>3131.4403</v>
+        <v>619.896</v>
       </c>
       <c r="G65" t="n">
-        <v>116980.0063091919</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2752,33 +2878,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>96.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>96.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>96.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>96.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>5128.66</v>
       </c>
       <c r="G66" t="n">
-        <v>117230.0063091919</v>
+        <v>93173.67460919192</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2787,33 +2920,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>95.5</v>
+        <v>94.5</v>
       </c>
       <c r="C67" t="n">
-        <v>96.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D67" t="n">
-        <v>96.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E67" t="n">
-        <v>95.5</v>
+        <v>94.5</v>
       </c>
       <c r="F67" t="n">
-        <v>1211</v>
+        <v>1058.201058201058</v>
       </c>
       <c r="G67" t="n">
-        <v>117230.0063091919</v>
+        <v>94231.87566739297</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2822,33 +2962,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>96.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>96.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>96.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>96.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>800</v>
       </c>
       <c r="G68" t="n">
-        <v>117230.0063091919</v>
+        <v>93431.87566739297</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2857,33 +3004,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G69" t="n">
-        <v>115630.0063091919</v>
+        <v>93431.87566739297</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2892,33 +3046,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>4656.5105</v>
+        <v>1123.7623</v>
       </c>
       <c r="G70" t="n">
-        <v>115630.0063091919</v>
+        <v>93431.87566739297</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2927,33 +3088,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>95.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>4969.811</v>
+        <v>5385.2346</v>
       </c>
       <c r="G71" t="n">
-        <v>115630.0063091919</v>
+        <v>93431.87566739297</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2962,33 +3130,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C72" t="n">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D72" t="n">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E72" t="n">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F72" t="n">
-        <v>4714.0403</v>
+        <v>800</v>
       </c>
       <c r="G72" t="n">
-        <v>110915.9660091919</v>
+        <v>94231.87566739297</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2997,33 +3172,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C73" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="D73" t="n">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E73" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="F73" t="n">
-        <v>2400</v>
+        <v>108.8757417989418</v>
       </c>
       <c r="G73" t="n">
-        <v>108515.9660091919</v>
+        <v>94231.87566739297</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3032,33 +3214,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>4984.1602</v>
+        <v>2175</v>
       </c>
       <c r="G74" t="n">
-        <v>108515.9660091919</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3067,33 +3256,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>800</v>
+        <v>3061</v>
       </c>
       <c r="G75" t="n">
-        <v>108515.9660091919</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,33 +3298,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>4102.3536</v>
+        <v>5600</v>
       </c>
       <c r="G76" t="n">
-        <v>108515.9660091919</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3137,33 +3340,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>94.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>94.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>10723</v>
+        <v>2401</v>
       </c>
       <c r="G77" t="n">
-        <v>97792.96600919191</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3172,33 +3382,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>94.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>94.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>94.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>94.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>10624.05</v>
+        <v>420</v>
       </c>
       <c r="G78" t="n">
-        <v>97792.96600919191</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3207,33 +3424,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>94.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>94.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>94.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>94.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>550.0821</v>
+        <v>2400</v>
       </c>
       <c r="G79" t="n">
-        <v>97242.88390919191</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3242,85 +3466,93 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>94.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>94.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>10451.5617</v>
+        <v>800</v>
       </c>
       <c r="G80" t="n">
-        <v>86791.3222091919</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>9975</v>
+        <v>800</v>
       </c>
       <c r="G81" t="n">
-        <v>86791.3222091919</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,39 +3561,40 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>3944.191</v>
+        <v>800</v>
       </c>
       <c r="G82" t="n">
-        <v>86791.3222091919</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3370,28 +3603,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>93.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>93.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>93.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>93.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1556.7036</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="n">
-        <v>85234.61860919191</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3400,7 +3634,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3409,28 +3645,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>781.7944</v>
+        <v>2460</v>
       </c>
       <c r="G84" t="n">
-        <v>86016.41300919191</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3439,7 +3676,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,28 +3687,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>1200</v>
+        <v>8504.937099999999</v>
       </c>
       <c r="G85" t="n">
-        <v>87216.41300919191</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3478,7 +3718,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3487,28 +3729,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G86" t="n">
-        <v>87216.41300919191</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3517,7 +3760,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3526,28 +3771,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="G87" t="n">
-        <v>87216.41300919191</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3556,7 +3802,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3565,28 +3813,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>800</v>
+        <v>1221.3637</v>
       </c>
       <c r="G88" t="n">
-        <v>86416.41300919191</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3595,7 +3844,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3604,28 +3855,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="n">
-        <v>86416.41300919191</v>
+        <v>96406.87566739297</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3634,7 +3886,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,28 +3897,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>93.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>93.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>93.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>93.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>400</v>
+        <v>513.7388</v>
       </c>
       <c r="G90" t="n">
-        <v>86416.41300919191</v>
+        <v>95893.13686739297</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3673,7 +3928,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3682,28 +3939,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>93.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="C91" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>93.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>587</v>
       </c>
       <c r="G91" t="n">
-        <v>86416.41300919191</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3712,7 +3970,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3721,28 +3981,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>93.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F92" t="n">
         <v>800</v>
       </c>
       <c r="G92" t="n">
-        <v>87216.41300919191</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3751,7 +4012,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3760,28 +4023,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>340.4255319148936</v>
+        <v>800</v>
       </c>
       <c r="G93" t="n">
-        <v>87216.41300919191</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3790,7 +4054,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3799,28 +4065,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F94" t="n">
         <v>800</v>
       </c>
       <c r="G94" t="n">
-        <v>87216.41300919191</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3829,7 +4096,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,28 +4107,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F95" t="n">
         <v>1200</v>
       </c>
       <c r="G95" t="n">
-        <v>87216.41300919191</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3868,7 +4138,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3877,28 +4149,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>800</v>
+        <v>15864.9371</v>
       </c>
       <c r="G96" t="n">
-        <v>87216.41300919191</v>
+        <v>96480.13686739297</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3907,7 +4180,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3916,28 +4191,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E97" t="n">
-        <v>94</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>543</v>
+        <v>19761</v>
       </c>
       <c r="G97" t="n">
-        <v>87216.41300919191</v>
+        <v>116241.136867393</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3946,7 +4222,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3955,28 +4233,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="D98" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="E98" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="F98" t="n">
-        <v>9445.089900000001</v>
+        <v>1041.666666666667</v>
       </c>
       <c r="G98" t="n">
-        <v>96661.50290919191</v>
+        <v>116241.136867393</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3985,7 +4264,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3994,28 +4275,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="C99" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="D99" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="E99" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="F99" t="n">
-        <v>7299.7248</v>
+        <v>400</v>
       </c>
       <c r="G99" t="n">
-        <v>96661.50290919191</v>
+        <v>116241.136867393</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4024,7 +4306,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4033,28 +4317,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>93.7</v>
+        <v>96</v>
       </c>
       <c r="C100" t="n">
-        <v>93.7</v>
+        <v>96</v>
       </c>
       <c r="D100" t="n">
-        <v>93.7</v>
+        <v>96</v>
       </c>
       <c r="E100" t="n">
-        <v>93.7</v>
+        <v>96</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>12133.6498</v>
       </c>
       <c r="G100" t="n">
-        <v>96651.50290919191</v>
+        <v>116241.136867393</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4063,7 +4348,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4072,28 +4359,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>93.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="C101" t="n">
-        <v>93.7</v>
+        <v>96</v>
       </c>
       <c r="D101" t="n">
-        <v>93.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="E101" t="n">
-        <v>93.7</v>
+        <v>96</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>27671.4883</v>
       </c>
       <c r="G101" t="n">
-        <v>96651.50290919191</v>
+        <v>116241.136867393</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4102,7 +4390,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,28 +4401,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="C102" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="D102" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="E102" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="F102" t="n">
-        <v>10582.0105</v>
+        <v>3.3333333333334e-05</v>
       </c>
       <c r="G102" t="n">
-        <v>107233.5134091919</v>
+        <v>116241.136867393</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4141,7 +4432,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,28 +4443,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>94.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="C103" t="n">
-        <v>94.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D103" t="n">
-        <v>94.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E103" t="n">
-        <v>94.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="F103" t="n">
-        <v>14059.8388</v>
+        <v>1062.3242</v>
       </c>
       <c r="G103" t="n">
-        <v>93173.67460919192</v>
+        <v>117303.461067393</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4180,7 +4474,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4189,28 +4485,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>94.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="C104" t="n">
-        <v>94.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>94.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="E104" t="n">
-        <v>94.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>4339.3312</v>
+        <v>1380.2394</v>
       </c>
       <c r="G104" t="n">
-        <v>93173.67460919192</v>
+        <v>118683.700467393</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4219,7 +4516,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,28 +4527,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C105" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D105" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E105" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F105" t="n">
-        <v>400</v>
+        <v>125.8217</v>
       </c>
       <c r="G105" t="n">
-        <v>93173.67460919192</v>
+        <v>118557.878767393</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4258,7 +4558,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4267,28 +4569,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>94.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C106" t="n">
-        <v>94.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>94.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="E106" t="n">
-        <v>94.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>400</v>
+        <v>5223.5268</v>
       </c>
       <c r="G106" t="n">
-        <v>93173.67460919192</v>
+        <v>113334.351967393</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4297,7 +4600,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,67 +4611,71 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>94.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="C107" t="n">
-        <v>94.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="D107" t="n">
-        <v>94.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="E107" t="n">
-        <v>94.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="F107" t="n">
-        <v>619.896</v>
+        <v>2784.4698</v>
       </c>
       <c r="G107" t="n">
-        <v>93173.67460919192</v>
+        <v>110549.882167393</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
-      </c>
+        <v>1.019494142705005</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C108" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D108" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E108" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F108" t="n">
-        <v>5128.66</v>
+        <v>1305.3895</v>
       </c>
       <c r="G108" t="n">
-        <v>93173.67460919192</v>
+        <v>109244.492667393</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4376,36 +4685,33 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>94.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>94.5</v>
+        <v>96.7</v>
       </c>
       <c r="D109" t="n">
-        <v>94.5</v>
+        <v>96.7</v>
       </c>
       <c r="E109" t="n">
-        <v>94.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>1058.201058201058</v>
+        <v>2000</v>
       </c>
       <c r="G109" t="n">
-        <v>94231.87566739297</v>
+        <v>111244.492667393</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4415,36 +4721,33 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>94.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="C110" t="n">
-        <v>94.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="D110" t="n">
-        <v>94.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="E110" t="n">
-        <v>94.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="F110" t="n">
         <v>800</v>
       </c>
       <c r="G110" t="n">
-        <v>93431.87566739297</v>
+        <v>110444.492667393</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4454,36 +4757,33 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>94.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C111" t="n">
-        <v>94.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="D111" t="n">
-        <v>94.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="E111" t="n">
-        <v>94.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="F111" t="n">
-        <v>800</v>
+        <v>1429.7784</v>
       </c>
       <c r="G111" t="n">
-        <v>93431.87566739297</v>
+        <v>109014.714267393</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4493,36 +4793,33 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>94.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>94.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>94.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>94.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>1123.7623</v>
+        <v>100</v>
       </c>
       <c r="G112" t="n">
-        <v>93431.87566739297</v>
+        <v>109114.714267393</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4532,36 +4829,33 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>94.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>94.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>94.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>94.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>5385.2346</v>
+        <v>652.6987</v>
       </c>
       <c r="G113" t="n">
-        <v>93431.87566739297</v>
+        <v>108462.015567393</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4571,36 +4865,33 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>94.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="D114" t="n">
-        <v>94.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="F114" t="n">
-        <v>800</v>
+        <v>2991.6595</v>
       </c>
       <c r="G114" t="n">
-        <v>94231.87566739297</v>
+        <v>105470.356067393</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4610,36 +4901,33 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>94.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>94.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="F115" t="n">
-        <v>108.8757417989418</v>
+        <v>3245.4528</v>
       </c>
       <c r="G115" t="n">
-        <v>94231.87566739297</v>
+        <v>108715.808867393</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4649,36 +4937,33 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="C116" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="E116" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>2175</v>
+        <v>10697.591</v>
       </c>
       <c r="G116" t="n">
-        <v>96406.87566739297</v>
+        <v>98018.21786739299</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4688,36 +4973,33 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>3061</v>
+        <v>4799.1814</v>
       </c>
       <c r="G117" t="n">
-        <v>96406.87566739297</v>
+        <v>98018.21786739299</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4727,36 +5009,33 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C118" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="D118" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="E118" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="F118" t="n">
-        <v>5600</v>
+        <v>2383.91</v>
       </c>
       <c r="G118" t="n">
-        <v>96406.87566739297</v>
+        <v>100402.127867393</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4766,36 +5045,33 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C119" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D119" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E119" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F119" t="n">
-        <v>2401</v>
+        <v>1200</v>
       </c>
       <c r="G119" t="n">
-        <v>96406.87566739297</v>
+        <v>101602.127867393</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4805,36 +5081,33 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C120" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D120" t="n">
-        <v>95.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>95.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>420</v>
+        <v>792557.9142</v>
       </c>
       <c r="G120" t="n">
-        <v>96406.87566739297</v>
+        <v>101602.127867393</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4844,36 +5117,33 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C121" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D121" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E121" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F121" t="n">
-        <v>2400</v>
+        <v>667111.8981</v>
       </c>
       <c r="G121" t="n">
-        <v>96406.87566739297</v>
+        <v>101602.127867393</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4883,36 +5153,33 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C122" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D122" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E122" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F122" t="n">
-        <v>800</v>
+        <v>74109.7065</v>
       </c>
       <c r="G122" t="n">
-        <v>96406.87566739297</v>
+        <v>101602.127867393</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4922,36 +5189,33 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C123" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D123" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E123" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F123" t="n">
-        <v>800</v>
+        <v>65390.9175</v>
       </c>
       <c r="G123" t="n">
-        <v>96406.87566739297</v>
+        <v>101602.127867393</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4961,36 +5225,33 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>95.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C124" t="n">
-        <v>95.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="D124" t="n">
-        <v>95.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="E124" t="n">
-        <v>95.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="F124" t="n">
-        <v>800</v>
+        <v>41.0661</v>
       </c>
       <c r="G124" t="n">
-        <v>96406.87566739297</v>
+        <v>101643.193967393</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5000,36 +5261,33 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>2000</v>
+        <v>410.859</v>
       </c>
       <c r="G125" t="n">
-        <v>96406.87566739297</v>
+        <v>102054.052967393</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5039,36 +5297,33 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>2460</v>
+        <v>800</v>
       </c>
       <c r="G126" t="n">
-        <v>96406.87566739297</v>
+        <v>102054.052967393</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5078,36 +5333,33 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>8504.937099999999</v>
+        <v>7262.0573</v>
       </c>
       <c r="G127" t="n">
-        <v>96406.87566739297</v>
+        <v>109316.110267393</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5117,36 +5369,33 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>800</v>
+        <v>243.367</v>
       </c>
       <c r="G128" t="n">
-        <v>96406.87566739297</v>
+        <v>109316.110267393</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5156,36 +5405,33 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>800</v>
+        <v>1479.6583</v>
       </c>
       <c r="G129" t="n">
-        <v>96406.87566739297</v>
+        <v>109316.110267393</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5195,1666 +5441,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C130" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D130" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E130" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1221.3637</v>
-      </c>
-      <c r="G130" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C131" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D131" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E131" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G131" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="C132" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="D132" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="E132" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="F132" t="n">
-        <v>513.7388</v>
-      </c>
-      <c r="G132" t="n">
-        <v>95893.13686739297</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="C133" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D133" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E133" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="F133" t="n">
-        <v>587</v>
-      </c>
-      <c r="G133" t="n">
-        <v>96480.13686739297</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C134" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D134" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E134" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>800</v>
-      </c>
-      <c r="G134" t="n">
-        <v>96480.13686739297</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C135" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D135" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E135" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F135" t="n">
-        <v>800</v>
-      </c>
-      <c r="G135" t="n">
-        <v>96480.13686739297</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C136" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D136" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E136" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F136" t="n">
-        <v>800</v>
-      </c>
-      <c r="G136" t="n">
-        <v>96480.13686739297</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C137" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D137" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E137" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G137" t="n">
-        <v>96480.13686739297</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C138" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D138" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="E138" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F138" t="n">
-        <v>15864.9371</v>
-      </c>
-      <c r="G138" t="n">
-        <v>96480.13686739297</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C139" t="n">
-        <v>96</v>
-      </c>
-      <c r="D139" t="n">
-        <v>96</v>
-      </c>
-      <c r="E139" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F139" t="n">
-        <v>19761</v>
-      </c>
-      <c r="G139" t="n">
-        <v>116241.136867393</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>96</v>
-      </c>
-      <c r="C140" t="n">
-        <v>96</v>
-      </c>
-      <c r="D140" t="n">
-        <v>96</v>
-      </c>
-      <c r="E140" t="n">
-        <v>96</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1041.666666666667</v>
-      </c>
-      <c r="G140" t="n">
-        <v>116241.136867393</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>96</v>
-      </c>
-      <c r="C141" t="n">
-        <v>96</v>
-      </c>
-      <c r="D141" t="n">
-        <v>96</v>
-      </c>
-      <c r="E141" t="n">
-        <v>96</v>
-      </c>
-      <c r="F141" t="n">
-        <v>400</v>
-      </c>
-      <c r="G141" t="n">
-        <v>116241.136867393</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>96</v>
-      </c>
-      <c r="C142" t="n">
-        <v>96</v>
-      </c>
-      <c r="D142" t="n">
-        <v>96</v>
-      </c>
-      <c r="E142" t="n">
-        <v>96</v>
-      </c>
-      <c r="F142" t="n">
-        <v>12133.6498</v>
-      </c>
-      <c r="G142" t="n">
-        <v>116241.136867393</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>96</v>
-      </c>
-      <c r="C143" t="n">
-        <v>96</v>
-      </c>
-      <c r="D143" t="n">
-        <v>96</v>
-      </c>
-      <c r="E143" t="n">
-        <v>96</v>
-      </c>
-      <c r="F143" t="n">
-        <v>27671.4883</v>
-      </c>
-      <c r="G143" t="n">
-        <v>116241.136867393</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>96</v>
-      </c>
-      <c r="C144" t="n">
-        <v>96</v>
-      </c>
-      <c r="D144" t="n">
-        <v>96</v>
-      </c>
-      <c r="E144" t="n">
-        <v>96</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3.3333333333334e-05</v>
-      </c>
-      <c r="G144" t="n">
-        <v>116241.136867393</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D145" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E145" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1062.3242</v>
-      </c>
-      <c r="G145" t="n">
-        <v>117303.461067393</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>97</v>
-      </c>
-      <c r="C146" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="D146" t="n">
-        <v>97</v>
-      </c>
-      <c r="E146" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1380.2394</v>
-      </c>
-      <c r="G146" t="n">
-        <v>118683.700467393</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C147" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>125.8217</v>
-      </c>
-      <c r="G147" t="n">
-        <v>118557.878767393</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D148" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5223.5268</v>
-      </c>
-      <c r="G148" t="n">
-        <v>113334.351967393</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2784.4698</v>
-      </c>
-      <c r="G149" t="n">
-        <v>110549.882167393</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>96</v>
-      </c>
-      <c r="C150" t="n">
-        <v>96</v>
-      </c>
-      <c r="D150" t="n">
-        <v>96</v>
-      </c>
-      <c r="E150" t="n">
-        <v>96</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1305.3895</v>
-      </c>
-      <c r="G150" t="n">
-        <v>109244.492667393</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C151" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G151" t="n">
-        <v>111244.492667393</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="C152" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="D152" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="E152" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="F152" t="n">
-        <v>800</v>
-      </c>
-      <c r="G152" t="n">
-        <v>110444.492667393</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="C153" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="D153" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="E153" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1429.7784</v>
-      </c>
-      <c r="G153" t="n">
-        <v>109014.714267393</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C154" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D154" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E154" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F154" t="n">
-        <v>100</v>
-      </c>
-      <c r="G154" t="n">
-        <v>109114.714267393</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="C155" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="D155" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="E155" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="F155" t="n">
-        <v>652.6987</v>
-      </c>
-      <c r="G155" t="n">
-        <v>108462.015567393</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="C156" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="E156" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2991.6595</v>
-      </c>
-      <c r="G156" t="n">
-        <v>105470.356067393</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C157" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="D157" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="E157" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3245.4528</v>
-      </c>
-      <c r="G157" t="n">
-        <v>108715.808867393</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="D158" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="F158" t="n">
-        <v>10697.591</v>
-      </c>
-      <c r="G158" t="n">
-        <v>98018.21786739299</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="C159" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="D159" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="E159" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="F159" t="n">
-        <v>4799.1814</v>
-      </c>
-      <c r="G159" t="n">
-        <v>98018.21786739299</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="C160" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="D160" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="E160" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2383.91</v>
-      </c>
-      <c r="G160" t="n">
-        <v>100402.127867393</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>96</v>
-      </c>
-      <c r="C161" t="n">
-        <v>96</v>
-      </c>
-      <c r="D161" t="n">
-        <v>96</v>
-      </c>
-      <c r="E161" t="n">
-        <v>96</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G161" t="n">
-        <v>101602.127867393</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>96</v>
-      </c>
-      <c r="C162" t="n">
-        <v>96</v>
-      </c>
-      <c r="D162" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="E162" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="F162" t="n">
-        <v>792557.9142</v>
-      </c>
-      <c r="G162" t="n">
-        <v>101602.127867393</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>96</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>96</v>
-      </c>
-      <c r="C163" t="n">
-        <v>96</v>
-      </c>
-      <c r="D163" t="n">
-        <v>96</v>
-      </c>
-      <c r="E163" t="n">
-        <v>96</v>
-      </c>
-      <c r="F163" t="n">
-        <v>667111.8981</v>
-      </c>
-      <c r="G163" t="n">
-        <v>101602.127867393</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>96</v>
-      </c>
-      <c r="C164" t="n">
-        <v>96</v>
-      </c>
-      <c r="D164" t="n">
-        <v>96</v>
-      </c>
-      <c r="E164" t="n">
-        <v>96</v>
-      </c>
-      <c r="F164" t="n">
-        <v>74109.7065</v>
-      </c>
-      <c r="G164" t="n">
-        <v>101602.127867393</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>96</v>
-      </c>
-      <c r="C165" t="n">
-        <v>96</v>
-      </c>
-      <c r="D165" t="n">
-        <v>96</v>
-      </c>
-      <c r="E165" t="n">
-        <v>96</v>
-      </c>
-      <c r="F165" t="n">
-        <v>65390.9175</v>
-      </c>
-      <c r="G165" t="n">
-        <v>101602.127867393</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>96</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="C166" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="D166" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="E166" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="F166" t="n">
-        <v>41.0661</v>
-      </c>
-      <c r="G166" t="n">
-        <v>101643.193967393</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C167" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D167" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E167" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F167" t="n">
-        <v>410.859</v>
-      </c>
-      <c r="G167" t="n">
-        <v>102054.052967393</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C168" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D168" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E168" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F168" t="n">
-        <v>800</v>
-      </c>
-      <c r="G168" t="n">
-        <v>102054.052967393</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C169" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D169" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E169" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F169" t="n">
-        <v>7262.0573</v>
-      </c>
-      <c r="G169" t="n">
-        <v>109316.110267393</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C170" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D170" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E170" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F170" t="n">
-        <v>243.367</v>
-      </c>
-      <c r="G170" t="n">
-        <v>109316.110267393</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C171" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D171" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E171" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1479.6583</v>
-      </c>
-      <c r="G171" t="n">
-        <v>109316.110267393</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
+      <c r="N129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>97.5</v>
+        <v>93.7</v>
       </c>
       <c r="C2" t="n">
-        <v>97.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>97.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>97.5</v>
+        <v>93.7</v>
       </c>
       <c r="F2" t="n">
-        <v>4934.9333</v>
+        <v>11973.0075</v>
       </c>
       <c r="G2" t="n">
-        <v>207036.6729091919</v>
+        <v>48107.71610000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>2000</v>
+        <v>1454.8523</v>
       </c>
       <c r="G3" t="n">
-        <v>205036.6729091919</v>
+        <v>48107.71610000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>96.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>135</v>
+        <v>2198.935</v>
       </c>
       <c r="G4" t="n">
-        <v>205036.6729091919</v>
+        <v>48107.71610000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1641.11</v>
+        <v>5702.3216</v>
       </c>
       <c r="G5" t="n">
-        <v>206677.7829091919</v>
+        <v>48107.71610000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>97.2</v>
+        <v>93.8</v>
       </c>
       <c r="C6" t="n">
-        <v>97.2</v>
+        <v>93.8</v>
       </c>
       <c r="D6" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>97.2</v>
+        <v>93.8</v>
       </c>
       <c r="F6" t="n">
-        <v>1164</v>
+        <v>2400</v>
       </c>
       <c r="G6" t="n">
-        <v>206677.7829091919</v>
+        <v>45707.71610000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>97.2</v>
+        <v>93.8</v>
       </c>
       <c r="C7" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>97.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>97.2</v>
+        <v>93.8</v>
       </c>
       <c r="F7" t="n">
-        <v>130</v>
+        <v>3600</v>
       </c>
       <c r="G7" t="n">
-        <v>206677.7829091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +690,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>3200</v>
       </c>
       <c r="G8" t="n">
-        <v>203477.7829091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +734,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>97.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>97.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>13361.6176</v>
+        <v>2800</v>
       </c>
       <c r="G9" t="n">
-        <v>216839.4005091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +778,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>12748.2135</v>
+        <v>5090</v>
       </c>
       <c r="G10" t="n">
-        <v>204091.1870091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +822,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>1694</v>
+        <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>205785.1870091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +866,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>96.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>96.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1600</v>
+        <v>716</v>
       </c>
       <c r="G12" t="n">
-        <v>204185.1870091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +910,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>96.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F13" t="n">
         <v>800</v>
       </c>
       <c r="G13" t="n">
-        <v>203385.1870091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K13" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +954,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>2568.4239</v>
+        <v>1600</v>
       </c>
       <c r="G14" t="n">
-        <v>203385.1870091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +998,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>96.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>96.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="G15" t="n">
-        <v>206585.1870091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K15" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1042,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>15600</v>
+        <v>800</v>
       </c>
       <c r="G16" t="n">
-        <v>206585.1870091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1086,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>97</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>97</v>
+        <v>93.8</v>
       </c>
       <c r="F17" t="n">
-        <v>7210</v>
+        <v>2800</v>
       </c>
       <c r="G17" t="n">
-        <v>213795.1870091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1130,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>97.09999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>97.09999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>17867</v>
       </c>
       <c r="G18" t="n">
-        <v>213795.1870091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1174,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>95.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>95.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>3305.7855</v>
+        <v>4905</v>
       </c>
       <c r="G19" t="n">
-        <v>210489.4015091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1218,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>95.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>95.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>95509.3952</v>
+        <v>800</v>
       </c>
       <c r="G20" t="n">
-        <v>114980.0063091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1262,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G21" t="n">
-        <v>116980.0063091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1306,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>619.6</v>
+        <v>9727</v>
       </c>
       <c r="G22" t="n">
-        <v>116980.0063091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K22" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1350,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>3131.4403</v>
+        <v>203</v>
       </c>
       <c r="G23" t="n">
-        <v>116980.0063091919</v>
+        <v>49307.71610000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1394,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>96.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>96.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="D24" t="n">
-        <v>96.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>96.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>24951.9032</v>
       </c>
       <c r="G24" t="n">
-        <v>117230.0063091919</v>
+        <v>24355.8129</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1438,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>95.5</v>
+        <v>93.8</v>
       </c>
       <c r="C25" t="n">
-        <v>96.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>96.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>95.5</v>
+        <v>93.8</v>
       </c>
       <c r="F25" t="n">
-        <v>1211</v>
+        <v>7200</v>
       </c>
       <c r="G25" t="n">
-        <v>117230.0063091919</v>
+        <v>31555.8129</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>93</v>
+      </c>
+      <c r="K25" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1482,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>96.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>96.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>96.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>1753.8828</v>
       </c>
       <c r="G26" t="n">
-        <v>117230.0063091919</v>
+        <v>31555.8129</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K26" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1526,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>1600</v>
+        <v>3898</v>
       </c>
       <c r="G27" t="n">
-        <v>115630.0063091919</v>
+        <v>31555.8129</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K27" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1570,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>95.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>95.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>95.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>95.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>4656.5105</v>
+        <v>538.2356</v>
       </c>
       <c r="G28" t="n">
-        <v>115630.0063091919</v>
+        <v>31017.5773</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K28" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1614,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>95.5</v>
+        <v>93</v>
       </c>
       <c r="C29" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>95.5</v>
+        <v>93</v>
       </c>
       <c r="F29" t="n">
-        <v>4969.811</v>
+        <v>37043.566</v>
       </c>
       <c r="G29" t="n">
-        <v>115630.0063091919</v>
+        <v>68061.1433</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="K29" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1658,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>95.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>95.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>95.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>95.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>4714.0403</v>
+        <v>117</v>
       </c>
       <c r="G30" t="n">
-        <v>110915.9660091919</v>
+        <v>68061.1433</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K30" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1702,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>95.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>95.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>2400</v>
+        <v>2797</v>
       </c>
       <c r="G31" t="n">
-        <v>108515.9660091919</v>
+        <v>68061.1433</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1746,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>95</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>95</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>4984.1602</v>
+        <v>7910</v>
       </c>
       <c r="G32" t="n">
-        <v>108515.9660091919</v>
+        <v>60151.1433</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K32" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1790,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95</v>
+        <v>93.8</v>
       </c>
       <c r="C33" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>95</v>
+        <v>93.8</v>
       </c>
       <c r="F33" t="n">
         <v>800</v>
       </c>
       <c r="G33" t="n">
-        <v>108515.9660091919</v>
+        <v>60951.1433</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1834,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>4102.3536</v>
+        <v>667.4760383386581</v>
       </c>
       <c r="G34" t="n">
-        <v>108515.9660091919</v>
+        <v>60951.1433</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K34" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1878,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>94.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>94.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>10723</v>
+        <v>600.4366347177848</v>
       </c>
       <c r="G35" t="n">
-        <v>97792.96600919191</v>
+        <v>60951.1433</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K35" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1922,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>94.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>94.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>94.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>10624.05</v>
+        <v>417.7955</v>
       </c>
       <c r="G36" t="n">
-        <v>97792.96600919191</v>
+        <v>60951.1433</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1946,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1964,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>94.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>94.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>94.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>94.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>550.0821</v>
+        <v>2800</v>
       </c>
       <c r="G37" t="n">
-        <v>97242.88390919191</v>
+        <v>60951.1433</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1988,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +2006,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>94.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>94.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>10451.5617</v>
+        <v>6400</v>
       </c>
       <c r="G38" t="n">
-        <v>86791.3222091919</v>
+        <v>60951.1433</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +2030,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +2048,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>9975</v>
+        <v>5200</v>
       </c>
       <c r="G39" t="n">
-        <v>86791.3222091919</v>
+        <v>60951.1433</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2072,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2090,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>94.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>3944.191</v>
+        <v>7504.2375</v>
       </c>
       <c r="G40" t="n">
-        <v>86791.3222091919</v>
+        <v>60951.1433</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2114,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2132,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="C41" t="n">
-        <v>93.2</v>
+        <v>93.8</v>
       </c>
       <c r="D41" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="E41" t="n">
-        <v>93.2</v>
+        <v>93.8</v>
       </c>
       <c r="F41" t="n">
-        <v>1556.7036</v>
+        <v>400</v>
       </c>
       <c r="G41" t="n">
-        <v>85234.61860919191</v>
+        <v>60551.1433</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2156,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,36 +2174,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C42" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="D42" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="E42" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F42" t="n">
-        <v>781.7944</v>
+        <v>6800</v>
       </c>
       <c r="G42" t="n">
-        <v>86016.41300919191</v>
+        <v>67351.1433</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>93.2</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1921,35 +2219,33 @@
         <v>94</v>
       </c>
       <c r="C43" t="n">
-        <v>94</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>94</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E43" t="n">
         <v>94</v>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="G43" t="n">
-        <v>87216.41300919191</v>
+        <v>72151.1433</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>93.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -1962,38 +2258,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>94</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" t="n">
-        <v>94</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G44" t="n">
-        <v>87216.41300919191</v>
+        <v>73751.1433</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>94</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>93.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2006,36 +2300,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" t="n">
-        <v>94</v>
+        <v>95.5</v>
       </c>
       <c r="D45" t="n">
-        <v>94</v>
+        <v>95.5</v>
       </c>
       <c r="E45" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" t="n">
-        <v>6000</v>
+        <v>3200</v>
       </c>
       <c r="G45" t="n">
-        <v>87216.41300919191</v>
+        <v>76951.1433</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>94</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>94</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2046,38 +2342,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="C46" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D46" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="E46" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F46" t="n">
-        <v>800</v>
+        <v>1650</v>
       </c>
       <c r="G46" t="n">
-        <v>86416.41300919191</v>
+        <v>76951.1433</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>94</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -2090,38 +2384,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="C47" t="n">
-        <v>93.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="D47" t="n">
-        <v>93.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E47" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>95748.76720919192</v>
       </c>
       <c r="G47" t="n">
-        <v>86416.41300919191</v>
+        <v>172699.9105091919</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -2134,22 +2426,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>93.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>93.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="D48" t="n">
-        <v>93.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E48" t="n">
-        <v>93.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>400</v>
+        <v>3314.0707</v>
       </c>
       <c r="G48" t="n">
-        <v>86416.41300919191</v>
+        <v>172699.9105091919</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2158,8 +2450,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2170,38 +2468,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>93.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>93.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>1888.28</v>
       </c>
       <c r="G49" t="n">
-        <v>86416.41300919191</v>
+        <v>170811.6305091919</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>1.029078807241746</v>
       </c>
       <c r="N49" t="inlineStr"/>
     </row>
@@ -2210,22 +2510,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>94</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>94</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>800</v>
+        <v>981.6154</v>
       </c>
       <c r="G50" t="n">
-        <v>87216.41300919191</v>
+        <v>170811.6305091919</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2234,14 +2534,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2252,22 +2546,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>94</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>94</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>94</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>94</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>340.4255319148936</v>
+        <v>635</v>
       </c>
       <c r="G51" t="n">
-        <v>87216.41300919191</v>
+        <v>170811.6305091919</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2276,14 +2570,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2294,22 +2582,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>94</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>94</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>94</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>94</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>800</v>
+        <v>1409.1366</v>
       </c>
       <c r="G52" t="n">
-        <v>87216.41300919191</v>
+        <v>170811.6305091919</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2318,14 +2606,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2336,22 +2618,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>94</v>
+        <v>96.7</v>
       </c>
       <c r="C53" t="n">
-        <v>94</v>
+        <v>96.7</v>
       </c>
       <c r="D53" t="n">
-        <v>94</v>
+        <v>96.7</v>
       </c>
       <c r="E53" t="n">
-        <v>94</v>
+        <v>96.7</v>
       </c>
       <c r="F53" t="n">
-        <v>1200</v>
+        <v>362.304</v>
       </c>
       <c r="G53" t="n">
-        <v>87216.41300919191</v>
+        <v>170449.3265091919</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2360,14 +2642,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2378,40 +2654,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>94</v>
+        <v>96.8</v>
       </c>
       <c r="C54" t="n">
-        <v>94</v>
+        <v>96.8</v>
       </c>
       <c r="D54" t="n">
-        <v>94</v>
+        <v>96.8</v>
       </c>
       <c r="E54" t="n">
-        <v>94</v>
+        <v>96.8</v>
       </c>
       <c r="F54" t="n">
         <v>800</v>
       </c>
       <c r="G54" t="n">
-        <v>87216.41300919191</v>
+        <v>171249.3265091919</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>94</v>
-      </c>
-      <c r="K54" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2422,40 +2690,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>94</v>
+        <v>96.8</v>
       </c>
       <c r="C55" t="n">
-        <v>94</v>
+        <v>96.8</v>
       </c>
       <c r="D55" t="n">
-        <v>94</v>
+        <v>96.8</v>
       </c>
       <c r="E55" t="n">
-        <v>94</v>
+        <v>96.8</v>
       </c>
       <c r="F55" t="n">
-        <v>543</v>
+        <v>10047.9751</v>
       </c>
       <c r="G55" t="n">
-        <v>87216.41300919191</v>
+        <v>171249.3265091919</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>94</v>
-      </c>
-      <c r="K55" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2466,40 +2726,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>94.5</v>
+        <v>96.8</v>
       </c>
       <c r="C56" t="n">
-        <v>94.5</v>
+        <v>96.8</v>
       </c>
       <c r="D56" t="n">
-        <v>94.5</v>
+        <v>96.8</v>
       </c>
       <c r="E56" t="n">
-        <v>94.5</v>
+        <v>96.8</v>
       </c>
       <c r="F56" t="n">
-        <v>9445.089900000001</v>
+        <v>800</v>
       </c>
       <c r="G56" t="n">
-        <v>96661.50290919191</v>
+        <v>171249.3265091919</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>94</v>
-      </c>
-      <c r="K56" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2510,40 +2762,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>94.5</v>
+        <v>96.8</v>
       </c>
       <c r="C57" t="n">
-        <v>94.5</v>
+        <v>96.8</v>
       </c>
       <c r="D57" t="n">
-        <v>94.5</v>
+        <v>96.8</v>
       </c>
       <c r="E57" t="n">
-        <v>94.5</v>
+        <v>96.7</v>
       </c>
       <c r="F57" t="n">
-        <v>7299.7248</v>
+        <v>6910.6301</v>
       </c>
       <c r="G57" t="n">
-        <v>96661.50290919191</v>
+        <v>171249.3265091919</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K57" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2554,40 +2798,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>93.7</v>
+        <v>96.8</v>
       </c>
       <c r="C58" t="n">
-        <v>93.7</v>
+        <v>96.8</v>
       </c>
       <c r="D58" t="n">
-        <v>93.7</v>
+        <v>96.8</v>
       </c>
       <c r="E58" t="n">
-        <v>93.7</v>
+        <v>96.8</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G58" t="n">
-        <v>96651.50290919191</v>
+        <v>171249.3265091919</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K58" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2598,40 +2834,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="C59" t="n">
-        <v>93.7</v>
+        <v>96.7</v>
       </c>
       <c r="D59" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E59" t="n">
-        <v>93.7</v>
+        <v>96.7</v>
       </c>
       <c r="F59" t="n">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G59" t="n">
-        <v>96651.50290919191</v>
+        <v>170449.3265091919</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="K59" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2642,40 +2870,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>94.5</v>
+        <v>96.5</v>
       </c>
       <c r="C60" t="n">
-        <v>94.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>94.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>94.5</v>
+        <v>96.5</v>
       </c>
       <c r="F60" t="n">
-        <v>10582.0105</v>
+        <v>1600</v>
       </c>
       <c r="G60" t="n">
-        <v>107233.5134091919</v>
+        <v>168849.3265091919</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="K60" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2686,22 +2906,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>94.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>94.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D61" t="n">
-        <v>94.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E61" t="n">
-        <v>94.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>14059.8388</v>
+        <v>4800</v>
       </c>
       <c r="G61" t="n">
-        <v>93173.67460919192</v>
+        <v>173649.3265091919</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2710,14 +2930,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2728,22 +2942,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>94.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>94.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>94.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>94.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>4339.3312</v>
+        <v>3933.7034</v>
       </c>
       <c r="G62" t="n">
-        <v>93173.67460919192</v>
+        <v>169715.6231091919</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2752,14 +2966,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2770,22 +2978,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>94.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>94.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D63" t="n">
-        <v>94.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E63" t="n">
-        <v>94.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>400</v>
+        <v>2800</v>
       </c>
       <c r="G63" t="n">
-        <v>93173.67460919192</v>
+        <v>172515.6231091919</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2794,14 +3002,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2812,22 +3014,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>94.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C64" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D64" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E64" t="n">
-        <v>94.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F64" t="n">
-        <v>400</v>
+        <v>7200</v>
       </c>
       <c r="G64" t="n">
-        <v>93173.67460919192</v>
+        <v>179715.6231091919</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2836,14 +3038,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2854,22 +3050,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C65" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D65" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E65" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F65" t="n">
-        <v>619.896</v>
+        <v>1239.6694</v>
       </c>
       <c r="G65" t="n">
-        <v>93173.67460919192</v>
+        <v>179715.6231091919</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2878,14 +3074,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2896,22 +3086,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C66" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D66" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E66" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F66" t="n">
-        <v>5128.66</v>
+        <v>400</v>
       </c>
       <c r="G66" t="n">
-        <v>93173.67460919192</v>
+        <v>179715.6231091919</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2920,14 +3110,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2938,22 +3122,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>94.5</v>
+        <v>96.8</v>
       </c>
       <c r="C67" t="n">
-        <v>94.5</v>
+        <v>96.8</v>
       </c>
       <c r="D67" t="n">
-        <v>94.5</v>
+        <v>96.8</v>
       </c>
       <c r="E67" t="n">
-        <v>94.5</v>
+        <v>96.8</v>
       </c>
       <c r="F67" t="n">
-        <v>1058.201058201058</v>
+        <v>800</v>
       </c>
       <c r="G67" t="n">
-        <v>94231.87566739297</v>
+        <v>179715.6231091919</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2962,14 +3146,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2980,22 +3158,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C68" t="n">
-        <v>94.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>94.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>94.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F68" t="n">
-        <v>800</v>
+        <v>5868</v>
       </c>
       <c r="G68" t="n">
-        <v>93431.87566739297</v>
+        <v>185583.6231091919</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3004,14 +3182,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3022,22 +3194,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>94.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>94.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>94.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>94.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>800</v>
+        <v>23013.6549</v>
       </c>
       <c r="G69" t="n">
-        <v>93431.87566739297</v>
+        <v>208597.2780091919</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3046,14 +3218,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3064,22 +3230,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>94.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>94.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>94.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>94.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>1123.7623</v>
+        <v>5148.7169</v>
       </c>
       <c r="G70" t="n">
-        <v>93431.87566739297</v>
+        <v>208597.2780091919</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3088,14 +3254,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3106,38 +3266,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>94.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="C71" t="n">
-        <v>94.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D71" t="n">
-        <v>94.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E71" t="n">
-        <v>94.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F71" t="n">
-        <v>5385.2346</v>
+        <v>1560.6051</v>
       </c>
       <c r="G71" t="n">
-        <v>93431.87566739297</v>
+        <v>207036.6729091919</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3148,38 +3302,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>94.5</v>
+        <v>97.5</v>
       </c>
       <c r="C72" t="n">
-        <v>94.5</v>
+        <v>97.5</v>
       </c>
       <c r="D72" t="n">
-        <v>94.5</v>
+        <v>97.5</v>
       </c>
       <c r="E72" t="n">
-        <v>94.5</v>
+        <v>97.5</v>
       </c>
       <c r="F72" t="n">
-        <v>800</v>
+        <v>7845.2307</v>
       </c>
       <c r="G72" t="n">
-        <v>94231.87566739297</v>
+        <v>207036.6729091919</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3190,38 +3338,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>94.5</v>
+        <v>97.5</v>
       </c>
       <c r="C73" t="n">
-        <v>94.5</v>
+        <v>97.5</v>
       </c>
       <c r="D73" t="n">
-        <v>94.5</v>
+        <v>97.5</v>
       </c>
       <c r="E73" t="n">
-        <v>94.5</v>
+        <v>97.5</v>
       </c>
       <c r="F73" t="n">
-        <v>108.8757417989418</v>
+        <v>4934.9333</v>
       </c>
       <c r="G73" t="n">
-        <v>94231.87566739297</v>
+        <v>207036.6729091919</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3232,38 +3374,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>95.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="C74" t="n">
-        <v>95.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D74" t="n">
-        <v>95.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E74" t="n">
-        <v>95.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="F74" t="n">
-        <v>2175</v>
+        <v>2000</v>
       </c>
       <c r="G74" t="n">
-        <v>96406.87566739297</v>
+        <v>205036.6729091919</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3274,22 +3410,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>95.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="C75" t="n">
-        <v>95.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D75" t="n">
-        <v>95.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E75" t="n">
-        <v>95.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="F75" t="n">
-        <v>3061</v>
+        <v>135</v>
       </c>
       <c r="G75" t="n">
-        <v>96406.87566739297</v>
+        <v>205036.6729091919</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3298,14 +3434,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3316,38 +3446,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C76" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D76" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E76" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F76" t="n">
-        <v>5600</v>
+        <v>1641.11</v>
       </c>
       <c r="G76" t="n">
-        <v>96406.87566739297</v>
+        <v>206677.7829091919</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3358,38 +3482,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C77" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D77" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E77" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F77" t="n">
-        <v>2401</v>
+        <v>1164</v>
       </c>
       <c r="G77" t="n">
-        <v>96406.87566739297</v>
+        <v>206677.7829091919</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3400,38 +3518,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C78" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D78" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E78" t="n">
-        <v>95.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F78" t="n">
-        <v>420</v>
+        <v>130</v>
       </c>
       <c r="G78" t="n">
-        <v>96406.87566739297</v>
+        <v>206677.7829091919</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3442,38 +3554,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C79" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="D79" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="E79" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F79" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="G79" t="n">
-        <v>96406.87566739297</v>
+        <v>203477.7829091919</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3484,38 +3590,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C80" t="n">
-        <v>95.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D80" t="n">
-        <v>95.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E80" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F80" t="n">
-        <v>800</v>
+        <v>13361.6176</v>
       </c>
       <c r="G80" t="n">
-        <v>96406.87566739297</v>
+        <v>216839.4005091919</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3526,38 +3626,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C81" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="D81" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="E81" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F81" t="n">
-        <v>800</v>
+        <v>12748.2135</v>
       </c>
       <c r="G81" t="n">
-        <v>96406.87566739297</v>
+        <v>204091.1870091919</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3568,38 +3662,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="C82" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="D82" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="E82" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="F82" t="n">
-        <v>800</v>
+        <v>1694</v>
       </c>
       <c r="G82" t="n">
-        <v>96406.87566739297</v>
+        <v>205785.1870091919</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3610,38 +3698,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="C83" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="E83" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G83" t="n">
-        <v>96406.87566739297</v>
+        <v>204185.1870091919</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3652,38 +3734,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="D84" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="E84" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>2460</v>
+        <v>800</v>
       </c>
       <c r="G84" t="n">
-        <v>96406.87566739297</v>
+        <v>203385.1870091919</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3694,38 +3770,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C85" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="D85" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="E85" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F85" t="n">
-        <v>8504.937099999999</v>
+        <v>2568.4239</v>
       </c>
       <c r="G85" t="n">
-        <v>96406.87566739297</v>
+        <v>203385.1870091919</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3736,38 +3806,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>95.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="D86" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="E86" t="n">
-        <v>95.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="G86" t="n">
-        <v>96406.87566739297</v>
+        <v>206585.1870091919</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3778,38 +3842,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="C87" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="D87" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="E87" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="F87" t="n">
-        <v>800</v>
+        <v>15600</v>
       </c>
       <c r="G87" t="n">
-        <v>96406.87566739297</v>
+        <v>206585.1870091919</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3820,38 +3878,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="C88" t="n">
-        <v>95.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>95.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="F88" t="n">
-        <v>1221.3637</v>
+        <v>7210</v>
       </c>
       <c r="G88" t="n">
-        <v>96406.87566739297</v>
+        <v>213795.1870091919</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3862,38 +3914,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>95.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>95.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>95.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>95.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>96406.87566739297</v>
+        <v>213795.1870091919</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3904,38 +3950,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>95.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="C90" t="n">
-        <v>95.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>95.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="E90" t="n">
-        <v>95.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>513.7388</v>
+        <v>3305.7855</v>
       </c>
       <c r="G90" t="n">
-        <v>95893.13686739297</v>
+        <v>210489.4015091919</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3946,38 +3986,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>95.3</v>
+        <v>95.7</v>
       </c>
       <c r="C91" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D91" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="E91" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="F91" t="n">
-        <v>587</v>
+        <v>95509.3952</v>
       </c>
       <c r="G91" t="n">
-        <v>96480.13686739297</v>
+        <v>114980.0063091919</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3988,22 +4022,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="n">
-        <v>96480.13686739297</v>
+        <v>116980.0063091919</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4012,14 +4046,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4030,22 +4058,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>800</v>
+        <v>619.6</v>
       </c>
       <c r="G93" t="n">
-        <v>96480.13686739297</v>
+        <v>116980.0063091919</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4054,14 +4082,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4072,22 +4094,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>800</v>
+        <v>3131.4403</v>
       </c>
       <c r="G94" t="n">
-        <v>96480.13686739297</v>
+        <v>116980.0063091919</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4096,14 +4118,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4114,22 +4130,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G95" t="n">
-        <v>96480.13686739297</v>
+        <v>117230.0063091919</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4138,14 +4154,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4156,22 +4166,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="C96" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F96" t="n">
-        <v>15864.9371</v>
+        <v>1211</v>
       </c>
       <c r="G96" t="n">
-        <v>96480.13686739297</v>
+        <v>117230.0063091919</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4180,14 +4190,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4198,22 +4202,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>19761</v>
+        <v>11</v>
       </c>
       <c r="G97" t="n">
-        <v>116241.136867393</v>
+        <v>117230.0063091919</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4222,14 +4226,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4240,22 +4238,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="C98" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="D98" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="E98" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="F98" t="n">
-        <v>1041.666666666667</v>
+        <v>1600</v>
       </c>
       <c r="G98" t="n">
-        <v>116241.136867393</v>
+        <v>115630.0063091919</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4264,14 +4262,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4282,22 +4274,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="C99" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="D99" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="E99" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="F99" t="n">
-        <v>400</v>
+        <v>4656.5105</v>
       </c>
       <c r="G99" t="n">
-        <v>116241.136867393</v>
+        <v>115630.0063091919</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4306,14 +4298,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4324,22 +4310,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="C100" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="D100" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="E100" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="F100" t="n">
-        <v>12133.6498</v>
+        <v>4969.811</v>
       </c>
       <c r="G100" t="n">
-        <v>116241.136867393</v>
+        <v>115630.0063091919</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4348,14 +4334,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4366,22 +4346,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>27671.4883</v>
+        <v>4714.0403</v>
       </c>
       <c r="G101" t="n">
-        <v>116241.136867393</v>
+        <v>110915.9660091919</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4390,14 +4370,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4408,22 +4382,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D102" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F102" t="n">
-        <v>3.3333333333334e-05</v>
+        <v>2400</v>
       </c>
       <c r="G102" t="n">
-        <v>116241.136867393</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4432,14 +4406,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4450,22 +4418,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>96.2</v>
+        <v>95</v>
       </c>
       <c r="C103" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="D103" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="E103" t="n">
-        <v>96.2</v>
+        <v>95</v>
       </c>
       <c r="F103" t="n">
-        <v>1062.3242</v>
+        <v>4984.1602</v>
       </c>
       <c r="G103" t="n">
-        <v>117303.461067393</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4474,14 +4442,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4492,22 +4454,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C104" t="n">
-        <v>96.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="D104" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E104" t="n">
-        <v>96.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="F104" t="n">
-        <v>1380.2394</v>
+        <v>800</v>
       </c>
       <c r="G104" t="n">
-        <v>118683.700467393</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4516,14 +4478,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4534,22 +4490,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>96.8</v>
+        <v>95</v>
       </c>
       <c r="C105" t="n">
-        <v>96.8</v>
+        <v>95</v>
       </c>
       <c r="D105" t="n">
-        <v>96.8</v>
+        <v>95</v>
       </c>
       <c r="E105" t="n">
-        <v>96.8</v>
+        <v>95</v>
       </c>
       <c r="F105" t="n">
-        <v>125.8217</v>
+        <v>4102.3536</v>
       </c>
       <c r="G105" t="n">
-        <v>118557.878767393</v>
+        <v>108515.9660091919</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4558,14 +4514,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4576,22 +4526,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>96.5</v>
+        <v>95</v>
       </c>
       <c r="C106" t="n">
-        <v>96.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="D106" t="n">
-        <v>96.5</v>
+        <v>95</v>
       </c>
       <c r="E106" t="n">
-        <v>96.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="F106" t="n">
-        <v>5223.5268</v>
+        <v>10723</v>
       </c>
       <c r="G106" t="n">
-        <v>113334.351967393</v>
+        <v>97792.96600919191</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4600,14 +4550,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4618,40 +4562,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>96.2</v>
+        <v>94.8</v>
       </c>
       <c r="C107" t="n">
-        <v>96.2</v>
+        <v>94.8</v>
       </c>
       <c r="D107" t="n">
-        <v>96.2</v>
+        <v>94.8</v>
       </c>
       <c r="E107" t="n">
-        <v>96.2</v>
+        <v>94.8</v>
       </c>
       <c r="F107" t="n">
-        <v>2784.4698</v>
+        <v>10624.05</v>
       </c>
       <c r="G107" t="n">
-        <v>110549.882167393</v>
+        <v>97792.96600919191</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>1.019494142705005</v>
+        <v>1</v>
       </c>
       <c r="N107" t="inlineStr"/>
     </row>
@@ -4660,22 +4598,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>96</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>96</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>96</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>96</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>1305.3895</v>
+        <v>550.0821</v>
       </c>
       <c r="G108" t="n">
-        <v>109244.492667393</v>
+        <v>97242.88390919191</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4696,22 +4634,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>96.59999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>96.7</v>
+        <v>94.5</v>
       </c>
       <c r="D109" t="n">
-        <v>96.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>96.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F109" t="n">
-        <v>2000</v>
+        <v>10451.5617</v>
       </c>
       <c r="G109" t="n">
-        <v>111244.492667393</v>
+        <v>86791.3222091919</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4732,22 +4670,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="C110" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="D110" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="E110" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="F110" t="n">
-        <v>800</v>
+        <v>9975</v>
       </c>
       <c r="G110" t="n">
-        <v>110444.492667393</v>
+        <v>86791.3222091919</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4768,22 +4706,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>95.7</v>
+        <v>94.5</v>
       </c>
       <c r="C111" t="n">
-        <v>95.7</v>
+        <v>94.5</v>
       </c>
       <c r="D111" t="n">
-        <v>95.7</v>
+        <v>94.5</v>
       </c>
       <c r="E111" t="n">
-        <v>95.7</v>
+        <v>94.5</v>
       </c>
       <c r="F111" t="n">
-        <v>1429.7784</v>
+        <v>3944.191</v>
       </c>
       <c r="G111" t="n">
-        <v>109014.714267393</v>
+        <v>86791.3222091919</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4804,22 +4742,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>96.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C112" t="n">
-        <v>96.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D112" t="n">
-        <v>96.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E112" t="n">
-        <v>96.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>1556.7036</v>
       </c>
       <c r="G112" t="n">
-        <v>109114.714267393</v>
+        <v>85234.61860919191</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4840,22 +4778,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>652.6987</v>
+        <v>781.7944</v>
       </c>
       <c r="G113" t="n">
-        <v>108462.015567393</v>
+        <v>86016.41300919191</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4876,22 +4814,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="C114" t="n">
-        <v>95.5</v>
+        <v>94</v>
       </c>
       <c r="D114" t="n">
-        <v>95.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="E114" t="n">
-        <v>95.5</v>
+        <v>94</v>
       </c>
       <c r="F114" t="n">
-        <v>2991.6595</v>
+        <v>1200</v>
       </c>
       <c r="G114" t="n">
-        <v>105470.356067393</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4912,22 +4850,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>95.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C115" t="n">
-        <v>96.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="D115" t="n">
-        <v>96.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="E115" t="n">
-        <v>95.3</v>
+        <v>94</v>
       </c>
       <c r="F115" t="n">
-        <v>3245.4528</v>
+        <v>2000</v>
       </c>
       <c r="G115" t="n">
-        <v>108715.808867393</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4948,22 +4886,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>95.2</v>
+        <v>94</v>
       </c>
       <c r="C116" t="n">
-        <v>95.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="D116" t="n">
-        <v>95.2</v>
+        <v>94</v>
       </c>
       <c r="E116" t="n">
-        <v>95.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="F116" t="n">
-        <v>10697.591</v>
+        <v>6000</v>
       </c>
       <c r="G116" t="n">
-        <v>98018.21786739299</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4984,22 +4922,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>95.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>95.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>95.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>95.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>4799.1814</v>
+        <v>800</v>
       </c>
       <c r="G117" t="n">
-        <v>98018.21786739299</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5020,22 +4958,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>95.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>95.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>95.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>95.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>2383.91</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>100402.127867393</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5056,22 +4994,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>96</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>96</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>96</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>96</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G119" t="n">
-        <v>101602.127867393</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5092,22 +5030,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>96</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>96</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>96.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>95.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>792557.9142</v>
+        <v>1200</v>
       </c>
       <c r="G120" t="n">
-        <v>101602.127867393</v>
+        <v>86416.41300919191</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5128,22 +5066,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>96</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D121" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E121" t="n">
-        <v>96</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>667111.8981</v>
+        <v>800</v>
       </c>
       <c r="G121" t="n">
-        <v>101602.127867393</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5164,22 +5102,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C122" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D122" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E122" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F122" t="n">
-        <v>74109.7065</v>
+        <v>340.4255319148936</v>
       </c>
       <c r="G122" t="n">
-        <v>101602.127867393</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5200,22 +5138,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C123" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D123" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E123" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F123" t="n">
-        <v>65390.9175</v>
+        <v>800</v>
       </c>
       <c r="G123" t="n">
-        <v>101602.127867393</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5236,22 +5174,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>96.3</v>
+        <v>94</v>
       </c>
       <c r="C124" t="n">
-        <v>96.3</v>
+        <v>94</v>
       </c>
       <c r="D124" t="n">
-        <v>96.3</v>
+        <v>94</v>
       </c>
       <c r="E124" t="n">
-        <v>96.3</v>
+        <v>94</v>
       </c>
       <c r="F124" t="n">
-        <v>41.0661</v>
+        <v>1200</v>
       </c>
       <c r="G124" t="n">
-        <v>101643.193967393</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5272,22 +5210,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C125" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D125" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E125" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="F125" t="n">
-        <v>410.859</v>
+        <v>800</v>
       </c>
       <c r="G125" t="n">
-        <v>102054.052967393</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5308,22 +5246,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C126" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D126" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E126" t="n">
-        <v>96.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="F126" t="n">
-        <v>800</v>
+        <v>543</v>
       </c>
       <c r="G126" t="n">
-        <v>102054.052967393</v>
+        <v>87216.41300919191</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5344,22 +5282,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>96.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C127" t="n">
-        <v>96.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D127" t="n">
-        <v>96.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E127" t="n">
-        <v>96.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F127" t="n">
-        <v>7262.0573</v>
+        <v>9445.089900000001</v>
       </c>
       <c r="G127" t="n">
-        <v>109316.110267393</v>
+        <v>96661.50290919191</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5380,22 +5318,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>96.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C128" t="n">
-        <v>96.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D128" t="n">
-        <v>96.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E128" t="n">
-        <v>96.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F128" t="n">
-        <v>243.367</v>
+        <v>7299.7248</v>
       </c>
       <c r="G128" t="n">
-        <v>109316.110267393</v>
+        <v>96661.50290919191</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5416,22 +5354,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>96.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C129" t="n">
-        <v>96.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="D129" t="n">
-        <v>96.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E129" t="n">
-        <v>96.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="F129" t="n">
-        <v>1479.6583</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>109316.110267393</v>
+        <v>96651.50290919191</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5447,6 +5385,2562 @@
       </c>
       <c r="N129" t="inlineStr"/>
     </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E130" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>20</v>
+      </c>
+      <c r="G130" t="n">
+        <v>96651.50290919191</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10582.0105</v>
+      </c>
+      <c r="G131" t="n">
+        <v>107233.5134091919</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C132" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F132" t="n">
+        <v>14059.8388</v>
+      </c>
+      <c r="G132" t="n">
+        <v>93173.67460919192</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D133" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4339.3312</v>
+      </c>
+      <c r="G133" t="n">
+        <v>93173.67460919192</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>400</v>
+      </c>
+      <c r="G134" t="n">
+        <v>93173.67460919192</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D135" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F135" t="n">
+        <v>400</v>
+      </c>
+      <c r="G135" t="n">
+        <v>93173.67460919192</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C136" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="E136" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F136" t="n">
+        <v>619.896</v>
+      </c>
+      <c r="G136" t="n">
+        <v>93173.67460919192</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C137" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="E137" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5128.66</v>
+      </c>
+      <c r="G137" t="n">
+        <v>93173.67460919192</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1058.201058201058</v>
+      </c>
+      <c r="G138" t="n">
+        <v>94231.87566739297</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C139" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D139" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>800</v>
+      </c>
+      <c r="G139" t="n">
+        <v>93431.87566739297</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C140" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>800</v>
+      </c>
+      <c r="G140" t="n">
+        <v>93431.87566739297</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1123.7623</v>
+      </c>
+      <c r="G141" t="n">
+        <v>93431.87566739297</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="E142" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5385.2346</v>
+      </c>
+      <c r="G142" t="n">
+        <v>93431.87566739297</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>800</v>
+      </c>
+      <c r="G143" t="n">
+        <v>94231.87566739297</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>108.8757417989418</v>
+      </c>
+      <c r="G144" t="n">
+        <v>94231.87566739297</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C145" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E145" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2175</v>
+      </c>
+      <c r="G145" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3061</v>
+      </c>
+      <c r="G146" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D147" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5600</v>
+      </c>
+      <c r="G147" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C148" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D148" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E148" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2401</v>
+      </c>
+      <c r="G148" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F149" t="n">
+        <v>420</v>
+      </c>
+      <c r="G149" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C150" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D150" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G150" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C151" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D151" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E151" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F151" t="n">
+        <v>800</v>
+      </c>
+      <c r="G151" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D152" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E152" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>800</v>
+      </c>
+      <c r="G152" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C153" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D153" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E153" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F153" t="n">
+        <v>800</v>
+      </c>
+      <c r="G153" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C154" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E154" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2460</v>
+      </c>
+      <c r="G155" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8504.937099999999</v>
+      </c>
+      <c r="G156" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>800</v>
+      </c>
+      <c r="G157" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D158" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>800</v>
+      </c>
+      <c r="G158" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C159" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D159" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E159" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1221.3637</v>
+      </c>
+      <c r="G159" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C160" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D160" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E160" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>96406.87566739297</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="C161" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="D161" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="E161" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F161" t="n">
+        <v>513.7388</v>
+      </c>
+      <c r="G161" t="n">
+        <v>95893.13686739297</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D162" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E162" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>587</v>
+      </c>
+      <c r="G162" t="n">
+        <v>96480.13686739297</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E163" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>800</v>
+      </c>
+      <c r="G163" t="n">
+        <v>96480.13686739297</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C164" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D164" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E164" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F164" t="n">
+        <v>800</v>
+      </c>
+      <c r="G164" t="n">
+        <v>96480.13686739297</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C165" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D165" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E165" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F165" t="n">
+        <v>800</v>
+      </c>
+      <c r="G165" t="n">
+        <v>96480.13686739297</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D166" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E166" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G166" t="n">
+        <v>96480.13686739297</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C167" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D167" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="E167" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F167" t="n">
+        <v>15864.9371</v>
+      </c>
+      <c r="G167" t="n">
+        <v>96480.13686739297</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C168" t="n">
+        <v>96</v>
+      </c>
+      <c r="D168" t="n">
+        <v>96</v>
+      </c>
+      <c r="E168" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19761</v>
+      </c>
+      <c r="G168" t="n">
+        <v>116241.136867393</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>96</v>
+      </c>
+      <c r="C169" t="n">
+        <v>96</v>
+      </c>
+      <c r="D169" t="n">
+        <v>96</v>
+      </c>
+      <c r="E169" t="n">
+        <v>96</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1041.666666666667</v>
+      </c>
+      <c r="G169" t="n">
+        <v>116241.136867393</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>96</v>
+      </c>
+      <c r="C170" t="n">
+        <v>96</v>
+      </c>
+      <c r="D170" t="n">
+        <v>96</v>
+      </c>
+      <c r="E170" t="n">
+        <v>96</v>
+      </c>
+      <c r="F170" t="n">
+        <v>400</v>
+      </c>
+      <c r="G170" t="n">
+        <v>116241.136867393</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>96</v>
+      </c>
+      <c r="C171" t="n">
+        <v>96</v>
+      </c>
+      <c r="D171" t="n">
+        <v>96</v>
+      </c>
+      <c r="E171" t="n">
+        <v>96</v>
+      </c>
+      <c r="F171" t="n">
+        <v>12133.6498</v>
+      </c>
+      <c r="G171" t="n">
+        <v>116241.136867393</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>96</v>
+      </c>
+      <c r="C172" t="n">
+        <v>96</v>
+      </c>
+      <c r="D172" t="n">
+        <v>96</v>
+      </c>
+      <c r="E172" t="n">
+        <v>96</v>
+      </c>
+      <c r="F172" t="n">
+        <v>27671.4883</v>
+      </c>
+      <c r="G172" t="n">
+        <v>116241.136867393</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>96</v>
+      </c>
+      <c r="C173" t="n">
+        <v>96</v>
+      </c>
+      <c r="D173" t="n">
+        <v>96</v>
+      </c>
+      <c r="E173" t="n">
+        <v>96</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3.3333333333334e-05</v>
+      </c>
+      <c r="G173" t="n">
+        <v>116241.136867393</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1062.3242</v>
+      </c>
+      <c r="G174" t="n">
+        <v>117303.461067393</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>97</v>
+      </c>
+      <c r="C175" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>97</v>
+      </c>
+      <c r="E175" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1380.2394</v>
+      </c>
+      <c r="G175" t="n">
+        <v>118683.700467393</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="C176" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="D176" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="E176" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="F176" t="n">
+        <v>125.8217</v>
+      </c>
+      <c r="G176" t="n">
+        <v>118557.878767393</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D177" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5223.5268</v>
+      </c>
+      <c r="G177" t="n">
+        <v>113334.351967393</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2784.4698</v>
+      </c>
+      <c r="G178" t="n">
+        <v>110549.882167393</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>96</v>
+      </c>
+      <c r="C179" t="n">
+        <v>96</v>
+      </c>
+      <c r="D179" t="n">
+        <v>96</v>
+      </c>
+      <c r="E179" t="n">
+        <v>96</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1305.3895</v>
+      </c>
+      <c r="G179" t="n">
+        <v>109244.492667393</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C180" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G180" t="n">
+        <v>111244.492667393</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="D181" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="E181" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>800</v>
+      </c>
+      <c r="G181" t="n">
+        <v>110444.492667393</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="D182" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1429.7784</v>
+      </c>
+      <c r="G182" t="n">
+        <v>109014.714267393</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C183" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D183" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E183" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F183" t="n">
+        <v>100</v>
+      </c>
+      <c r="G183" t="n">
+        <v>109114.714267393</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="D184" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="E184" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>652.6987</v>
+      </c>
+      <c r="G184" t="n">
+        <v>108462.015567393</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2991.6595</v>
+      </c>
+      <c r="G185" t="n">
+        <v>105470.356067393</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C186" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D186" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3245.4528</v>
+      </c>
+      <c r="G186" t="n">
+        <v>108715.808867393</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>10697.591</v>
+      </c>
+      <c r="G187" t="n">
+        <v>98018.21786739299</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="D188" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4799.1814</v>
+      </c>
+      <c r="G188" t="n">
+        <v>98018.21786739299</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="C189" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="D189" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2383.91</v>
+      </c>
+      <c r="G189" t="n">
+        <v>100402.127867393</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>96</v>
+      </c>
+      <c r="C190" t="n">
+        <v>96</v>
+      </c>
+      <c r="D190" t="n">
+        <v>96</v>
+      </c>
+      <c r="E190" t="n">
+        <v>96</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G190" t="n">
+        <v>101602.127867393</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>96</v>
+      </c>
+      <c r="C191" t="n">
+        <v>96</v>
+      </c>
+      <c r="D191" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E191" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="F191" t="n">
+        <v>792557.9142</v>
+      </c>
+      <c r="G191" t="n">
+        <v>101602.127867393</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>96</v>
+      </c>
+      <c r="C192" t="n">
+        <v>96</v>
+      </c>
+      <c r="D192" t="n">
+        <v>96</v>
+      </c>
+      <c r="E192" t="n">
+        <v>96</v>
+      </c>
+      <c r="F192" t="n">
+        <v>667111.8981</v>
+      </c>
+      <c r="G192" t="n">
+        <v>101602.127867393</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>96</v>
+      </c>
+      <c r="C193" t="n">
+        <v>96</v>
+      </c>
+      <c r="D193" t="n">
+        <v>96</v>
+      </c>
+      <c r="E193" t="n">
+        <v>96</v>
+      </c>
+      <c r="F193" t="n">
+        <v>74109.7065</v>
+      </c>
+      <c r="G193" t="n">
+        <v>101602.127867393</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>96</v>
+      </c>
+      <c r="C194" t="n">
+        <v>96</v>
+      </c>
+      <c r="D194" t="n">
+        <v>96</v>
+      </c>
+      <c r="E194" t="n">
+        <v>96</v>
+      </c>
+      <c r="F194" t="n">
+        <v>65390.9175</v>
+      </c>
+      <c r="G194" t="n">
+        <v>101602.127867393</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="E195" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>41.0661</v>
+      </c>
+      <c r="G195" t="n">
+        <v>101643.193967393</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C196" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D196" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E196" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F196" t="n">
+        <v>410.859</v>
+      </c>
+      <c r="G196" t="n">
+        <v>102054.052967393</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C197" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D197" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E197" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F197" t="n">
+        <v>800</v>
+      </c>
+      <c r="G197" t="n">
+        <v>102054.052967393</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C198" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D198" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E198" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F198" t="n">
+        <v>7262.0573</v>
+      </c>
+      <c r="G198" t="n">
+        <v>109316.110267393</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D199" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F199" t="n">
+        <v>243.367</v>
+      </c>
+      <c r="G199" t="n">
+        <v>109316.110267393</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C200" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D200" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E200" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1479.6583</v>
+      </c>
+      <c r="G200" t="n">
+        <v>109316.110267393</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N200"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J3" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K3" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J4" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K4" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J5" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K5" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>45707.71610000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J6" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K6" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>93.8</v>
       </c>
       <c r="J7" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J8" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K8" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J9" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K9" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J10" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K10" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +808,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J11" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K11" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +849,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J12" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K12" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +890,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J13" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K13" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +931,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J14" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K14" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +972,21 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K15" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,26 +1011,21 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K16" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1104,26 +1050,21 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K17" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1148,26 +1089,21 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K18" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1192,26 +1128,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J19" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K19" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1236,26 +1169,21 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K20" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1280,26 +1208,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J21" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K21" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1324,26 +1249,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J22" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K22" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1368,26 +1290,23 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J23" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K23" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1412,26 +1331,23 @@
         <v>24355.8129</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J24" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K24" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1456,26 +1372,23 @@
         <v>31555.8129</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="J25" t="n">
-        <v>93</v>
-      </c>
-      <c r="K25" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1500,26 +1413,21 @@
         <v>31555.8129</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K26" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1544,26 +1452,23 @@
         <v>31555.8129</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J27" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K27" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1588,26 +1493,23 @@
         <v>31017.5773</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J28" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K28" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1632,26 +1534,23 @@
         <v>68061.1433</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="K29" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1676,26 +1575,23 @@
         <v>68061.1433</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J30" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K30" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1720,26 +1616,23 @@
         <v>68061.1433</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J31" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K31" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1764,26 +1657,23 @@
         <v>60151.1433</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J32" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K32" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1808,26 +1698,23 @@
         <v>60951.1433</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="K33" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1852,26 +1739,23 @@
         <v>60951.1433</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J34" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K34" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1896,26 +1780,23 @@
         <v>60951.1433</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J35" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K35" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1940,24 +1821,23 @@
         <v>60951.1433</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1982,24 +1862,23 @@
         <v>60951.1433</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J37" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2024,24 +1903,23 @@
         <v>60951.1433</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J38" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2066,24 +1944,23 @@
         <v>60951.1433</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J39" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2108,24 +1985,23 @@
         <v>60951.1433</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L40" t="inlineStr">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J40" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2150,24 +2026,23 @@
         <v>60551.1433</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J41" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2192,24 +2067,23 @@
         <v>67351.1433</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>93.8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2234,24 +2108,23 @@
         <v>72151.1433</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L43" t="inlineStr">
+        <v>94</v>
+      </c>
+      <c r="J43" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2276,24 +2149,23 @@
         <v>73751.1433</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L44" t="inlineStr">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2318,24 +2190,23 @@
         <v>76951.1433</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>95</v>
+      </c>
+      <c r="J45" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2362,22 +2233,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2402,24 +2270,21 @@
         <v>172699.9105091919</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L47" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1.049313099041534</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2444,24 +2309,15 @@
         <v>172699.9105091919</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2486,24 +2342,15 @@
         <v>170811.6305091919</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1.029078807241746</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2528,18 +2375,15 @@
         <v>170811.6305091919</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2566,16 +2410,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2600,18 +2441,15 @@
         <v>170811.6305091919</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2638,16 +2476,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2674,16 +2509,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2710,16 +2542,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2744,18 +2573,15 @@
         <v>171249.3265091919</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2782,16 +2608,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2818,16 +2641,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2854,16 +2674,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2890,16 +2707,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2926,16 +2740,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2962,16 +2773,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2998,16 +2806,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3034,16 +2839,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3070,16 +2872,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3106,16 +2905,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3142,16 +2938,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3176,18 +2969,15 @@
         <v>185583.6231091919</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3212,18 +3002,15 @@
         <v>208597.2780091919</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3248,18 +3035,15 @@
         <v>208597.2780091919</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3284,18 +3068,15 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3320,18 +3101,15 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3358,16 +3136,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3394,16 +3169,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3430,16 +3202,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3464,18 +3233,15 @@
         <v>206677.7829091919</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3500,18 +3266,15 @@
         <v>206677.7829091919</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3536,18 +3299,15 @@
         <v>206677.7829091919</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3572,18 +3332,15 @@
         <v>203477.7829091919</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3608,18 +3365,15 @@
         <v>216839.4005091919</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3646,16 +3400,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3682,16 +3433,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3718,16 +3466,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3754,16 +3499,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3790,16 +3532,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3826,16 +3565,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3862,16 +3598,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3896,18 +3629,15 @@
         <v>213795.1870091919</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3934,16 +3664,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3970,16 +3697,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4006,16 +3730,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4040,18 +3761,15 @@
         <v>116980.0063091919</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4078,16 +3796,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4114,16 +3829,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4150,16 +3862,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4184,18 +3893,15 @@
         <v>117230.0063091919</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4222,16 +3928,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4258,16 +3961,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4294,16 +3994,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4330,16 +4027,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4366,16 +4060,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4402,16 +4093,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4438,16 +4126,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4474,16 +4159,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4510,16 +4192,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4546,16 +4225,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4582,16 +4258,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4618,16 +4291,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4654,16 +4324,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4690,16 +4357,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4726,16 +4390,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4762,16 +4423,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4798,16 +4456,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4834,16 +4489,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4870,16 +4522,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4906,16 +4555,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4942,16 +4588,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4978,16 +4621,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5014,16 +4654,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5050,16 +4687,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5086,16 +4720,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5122,16 +4753,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5158,16 +4786,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5194,16 +4819,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5230,16 +4852,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5266,16 +4885,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5302,16 +4918,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5338,16 +4951,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5374,16 +4984,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5410,16 +5017,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5446,16 +5050,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5482,16 +5083,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5518,16 +5116,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5554,16 +5149,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5590,16 +5182,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5626,16 +5215,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5662,16 +5248,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5698,16 +5281,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5734,16 +5314,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5770,16 +5347,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5806,16 +5380,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5842,16 +5413,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5878,16 +5446,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5914,16 +5479,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5950,16 +5512,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5986,16 +5545,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6022,16 +5578,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6058,16 +5611,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6094,16 +5644,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6130,16 +5677,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6166,16 +5710,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6202,16 +5743,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6238,16 +5776,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6274,16 +5809,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6310,16 +5842,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6346,16 +5875,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6382,16 +5908,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6418,16 +5941,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6454,16 +5974,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6490,16 +6007,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6526,16 +6040,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6562,16 +6073,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6598,16 +6106,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6634,16 +6139,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6670,16 +6172,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6706,16 +6205,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6742,16 +6238,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6778,16 +6271,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6814,16 +6304,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6850,16 +6337,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6884,18 +6368,15 @@
         <v>116241.136867393</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6920,18 +6401,15 @@
         <v>116241.136867393</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6956,18 +6434,15 @@
         <v>116241.136867393</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6992,18 +6467,15 @@
         <v>117303.461067393</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7028,18 +6500,15 @@
         <v>118683.700467393</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7064,18 +6533,15 @@
         <v>118557.878767393</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7100,18 +6566,15 @@
         <v>113334.351967393</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7136,18 +6599,15 @@
         <v>110549.882167393</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7172,18 +6632,15 @@
         <v>109244.492667393</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7208,18 +6665,15 @@
         <v>111244.492667393</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7246,16 +6700,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7282,16 +6733,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7318,16 +6766,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7354,16 +6799,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7390,16 +6832,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7426,16 +6865,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7462,16 +6898,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7498,16 +6931,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7534,16 +6964,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7570,16 +6997,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7606,16 +7030,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7642,16 +7063,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7678,16 +7096,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7714,16 +7129,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7750,16 +7162,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7786,16 +7195,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7822,16 +7228,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7858,16 +7261,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7894,16 +7294,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7930,18 +7327,15 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>93.90000000000001</v>
@@ -521,7 +521,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>93.90000000000001</v>
@@ -562,7 +562,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>93.90000000000001</v>
@@ -603,7 +603,7 @@
         <v>45707.71610000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>93.90000000000001</v>
@@ -644,7 +644,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>93.8</v>
@@ -685,7 +685,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>93.90000000000001</v>
@@ -726,7 +726,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>93.90000000000001</v>
@@ -767,7 +767,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>93.90000000000001</v>
@@ -808,7 +808,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>93.90000000000001</v>
@@ -849,7 +849,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>93.90000000000001</v>
@@ -890,7 +890,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>93.90000000000001</v>
@@ -931,7 +931,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>93.90000000000001</v>
@@ -972,9 +972,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="J15" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1011,9 +1013,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="J16" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1050,9 +1054,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="J17" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1089,9 +1095,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="J18" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1128,7 +1136,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>93.90000000000001</v>
@@ -1169,9 +1177,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="J20" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1208,7 +1218,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>93.90000000000001</v>
@@ -1249,7 +1259,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>93.90000000000001</v>
@@ -1290,7 +1300,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>93.90000000000001</v>
@@ -1331,7 +1341,7 @@
         <v>24355.8129</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>93.90000000000001</v>
@@ -1372,7 +1382,7 @@
         <v>31555.8129</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>93</v>
@@ -1413,9 +1423,11 @@
         <v>31555.8129</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="J26" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>31555.8129</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>93.90000000000001</v>
@@ -1493,7 +1505,7 @@
         <v>31017.5773</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>93.90000000000001</v>
@@ -1534,7 +1546,7 @@
         <v>68061.1433</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>93.09999999999999</v>
@@ -1575,7 +1587,7 @@
         <v>68061.1433</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>93.90000000000001</v>
@@ -1616,7 +1628,7 @@
         <v>68061.1433</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>93.90000000000001</v>
@@ -1657,7 +1669,7 @@
         <v>60151.1433</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>93.90000000000001</v>
@@ -1698,7 +1710,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>92.40000000000001</v>
@@ -1739,7 +1751,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>93.90000000000001</v>
@@ -1780,7 +1792,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>93.90000000000001</v>
@@ -1821,7 +1833,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>93.90000000000001</v>
@@ -1862,7 +1874,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>93.90000000000001</v>
@@ -1903,7 +1915,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>93.90000000000001</v>
@@ -1944,7 +1956,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>93.90000000000001</v>
@@ -1985,7 +1997,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>93.90000000000001</v>
@@ -2026,7 +2038,7 @@
         <v>60551.1433</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>93.90000000000001</v>
@@ -2067,7 +2079,7 @@
         <v>67351.1433</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>93.8</v>
@@ -2108,7 +2120,7 @@
         <v>72151.1433</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>94</v>
@@ -2149,7 +2161,7 @@
         <v>73751.1433</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>94.90000000000001</v>
@@ -2190,7 +2202,7 @@
         <v>76951.1433</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>95</v>
@@ -2270,7 +2282,7 @@
         <v>172699.9105091919</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
@@ -2278,11 +2290,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.049313099041534</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr"/>
     </row>
@@ -2309,11 +2321,17 @@
         <v>172699.9105091919</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2342,11 +2360,17 @@
         <v>170811.6305091919</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2375,11 +2399,17 @@
         <v>170811.6305091919</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2411,8 +2441,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2441,11 +2477,17 @@
         <v>170811.6305091919</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2477,8 +2519,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2510,8 +2558,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2543,8 +2597,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2573,11 +2633,17 @@
         <v>171249.3265091919</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2609,8 +2675,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2642,8 +2714,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2675,8 +2753,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2708,8 +2792,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2741,8 +2831,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2774,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2807,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2840,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2873,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2906,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2939,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2969,11 +3101,17 @@
         <v>185583.6231091919</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3002,11 +3140,17 @@
         <v>208597.2780091919</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3035,11 +3179,17 @@
         <v>208597.2780091919</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3068,11 +3218,17 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3101,11 +3257,17 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3137,8 +3299,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3170,8 +3338,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3203,8 +3377,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3233,11 +3413,17 @@
         <v>206677.7829091919</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3266,11 +3452,17 @@
         <v>206677.7829091919</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3299,11 +3491,17 @@
         <v>206677.7829091919</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3332,11 +3530,17 @@
         <v>203477.7829091919</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3365,11 +3569,17 @@
         <v>216839.4005091919</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3401,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3434,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3467,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3500,8 +3728,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3533,8 +3767,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3566,8 +3806,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3599,8 +3845,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3629,13 +3881,19 @@
         <v>213795.1870091919</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>1.029078807241746</v>
       </c>
       <c r="M88" t="inlineStr"/>
     </row>
@@ -3662,7 +3920,7 @@
         <v>213795.1870091919</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3695,7 +3953,7 @@
         <v>210489.4015091919</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3728,7 +3986,7 @@
         <v>114980.0063091919</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3761,7 +4019,7 @@
         <v>116980.0063091919</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3794,7 +4052,7 @@
         <v>116980.0063091919</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3827,7 +4085,7 @@
         <v>116980.0063091919</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3860,7 +4118,7 @@
         <v>117230.0063091919</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3893,7 +4151,7 @@
         <v>117230.0063091919</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3926,7 +4184,7 @@
         <v>117230.0063091919</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3959,7 +4217,7 @@
         <v>115630.0063091919</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3992,7 +4250,7 @@
         <v>115630.0063091919</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4025,7 +4283,7 @@
         <v>115630.0063091919</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4124,7 +4382,7 @@
         <v>108515.9660091919</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4190,7 +4448,7 @@
         <v>108515.9660091919</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4223,7 +4481,7 @@
         <v>97792.96600919191</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4256,7 +4514,7 @@
         <v>97792.96600919191</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4289,7 +4547,7 @@
         <v>97242.88390919191</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4322,7 +4580,7 @@
         <v>86791.3222091919</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4355,7 +4613,7 @@
         <v>86791.3222091919</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -6368,7 +6626,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6401,7 +6659,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6434,7 +6692,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6467,7 +6725,7 @@
         <v>117303.461067393</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6500,7 +6758,7 @@
         <v>118683.700467393</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6533,7 +6791,7 @@
         <v>118557.878767393</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6566,7 +6824,7 @@
         <v>113334.351967393</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6599,7 +6857,7 @@
         <v>110549.882167393</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6632,7 +6890,7 @@
         <v>109244.492667393</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6665,7 +6923,7 @@
         <v>111244.492667393</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7336,6 +7594,6 @@
       <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>45707.71610000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +880,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +913,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1054,19 +946,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1095,19 +979,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1136,19 +1012,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1177,19 +1045,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1218,19 +1078,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1259,19 +1111,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1300,19 +1144,11 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J23" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1341,19 +1177,11 @@
         <v>24355.8129</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J24" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1382,19 +1210,11 @@
         <v>31555.8129</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>93</v>
-      </c>
-      <c r="J25" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1423,19 +1243,11 @@
         <v>31555.8129</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J26" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1464,19 +1276,11 @@
         <v>31555.8129</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1513,11 +1317,7 @@
       <c r="J28" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1556,7 +1356,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1628,11 +1428,9 @@
         <v>68061.1433</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1669,11 +1467,9 @@
         <v>60151.1433</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1751,11 +1547,9 @@
         <v>60951.1433</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1792,11 +1586,9 @@
         <v>60951.1433</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1833,11 +1625,9 @@
         <v>60951.1433</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1874,11 +1664,9 @@
         <v>60951.1433</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1915,11 +1703,9 @@
         <v>60951.1433</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1956,11 +1742,9 @@
         <v>60951.1433</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>93.90000000000001</v>
       </c>
@@ -1997,21 +1781,19 @@
         <v>60951.1433</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="M40" t="inlineStr"/>
     </row>
@@ -2038,19 +1820,11 @@
         <v>60551.1433</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J41" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2079,19 +1853,11 @@
         <v>67351.1433</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2120,19 +1886,11 @@
         <v>72151.1433</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>94</v>
-      </c>
-      <c r="J43" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2161,19 +1919,11 @@
         <v>73751.1433</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="J44" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2202,19 +1952,11 @@
         <v>76951.1433</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>95</v>
-      </c>
-      <c r="J45" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2243,17 +1985,11 @@
         <v>76951.1433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2282,17 +2018,11 @@
         <v>172699.9105091919</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2321,17 +2051,11 @@
         <v>172699.9105091919</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2363,14 +2087,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2402,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2441,14 +2153,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2480,14 +2186,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2519,14 +2219,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2555,17 +2249,11 @@
         <v>171249.3265091919</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2597,14 +2285,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2636,14 +2318,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2675,14 +2351,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2711,17 +2381,11 @@
         <v>171249.3265091919</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2753,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2792,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2831,14 +2483,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2870,14 +2516,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2909,14 +2549,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2948,14 +2582,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2987,14 +2615,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3026,14 +2648,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3065,14 +2681,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3104,14 +2714,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3143,14 +2747,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +2780,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3221,14 +2813,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3260,14 +2846,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3299,14 +2879,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3338,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3377,14 +2945,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3413,17 +2975,11 @@
         <v>206677.7829091919</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3452,17 +3008,11 @@
         <v>206677.7829091919</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3491,17 +3041,11 @@
         <v>206677.7829091919</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3530,17 +3074,11 @@
         <v>203477.7829091919</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3569,17 +3107,11 @@
         <v>216839.4005091919</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3608,17 +3140,11 @@
         <v>204091.1870091919</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3650,14 +3176,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3689,14 +3209,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3728,14 +3242,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3767,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3806,14 +3308,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3845,14 +3341,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3881,19 +3371,13 @@
         <v>213795.1870091919</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>1.029078807241746</v>
+        <v>1</v>
       </c>
       <c r="M88" t="inlineStr"/>
     </row>
@@ -3920,7 +3404,7 @@
         <v>213795.1870091919</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3953,7 +3437,7 @@
         <v>210489.4015091919</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3986,7 +3470,7 @@
         <v>114980.0063091919</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4019,7 +3503,7 @@
         <v>116980.0063091919</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4052,7 +3536,7 @@
         <v>116980.0063091919</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4118,7 +3602,7 @@
         <v>117230.0063091919</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4151,7 +3635,7 @@
         <v>117230.0063091919</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4184,7 +3668,7 @@
         <v>117230.0063091919</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4217,7 +3701,7 @@
         <v>115630.0063091919</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4250,7 +3734,7 @@
         <v>115630.0063091919</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4283,7 +3767,7 @@
         <v>115630.0063091919</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4382,7 +3866,7 @@
         <v>108515.9660091919</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4448,7 +3932,7 @@
         <v>108515.9660091919</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4481,7 +3965,7 @@
         <v>97792.96600919191</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4514,7 +3998,7 @@
         <v>97792.96600919191</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4547,7 +4031,7 @@
         <v>97242.88390919191</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4580,7 +4064,7 @@
         <v>86791.3222091919</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4613,7 +4097,7 @@
         <v>86791.3222091919</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -6065,7 +5549,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6098,7 +5582,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6131,7 +5615,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6164,7 +5648,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6197,7 +5681,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6230,7 +5714,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6263,7 +5747,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6296,7 +5780,7 @@
         <v>95893.13686739297</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6329,7 +5813,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6362,7 +5846,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6395,7 +5879,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6428,7 +5912,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6461,7 +5945,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6494,7 +5978,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6527,7 +6011,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6560,7 +6044,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6593,7 +6077,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6626,7 +6110,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6659,7 +6143,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6692,7 +6176,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6725,7 +6209,7 @@
         <v>117303.461067393</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6758,7 +6242,7 @@
         <v>118683.700467393</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6791,7 +6275,7 @@
         <v>118557.878767393</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6923,7 +6407,7 @@
         <v>111244.492667393</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7594,6 +7078,6 @@
       <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -451,7 +451,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>45707.71610000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1013,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1054,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1095,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1136,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1177,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1218,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1259,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1300,19 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1341,19 @@
         <v>24355.8129</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J24" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1382,19 @@
         <v>31555.8129</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>93</v>
+      </c>
+      <c r="J25" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1423,19 @@
         <v>31555.8129</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1464,19 @@
         <v>31555.8129</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1317,7 +1513,11 @@
       <c r="J28" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1356,7 +1556,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1428,7 +1628,7 @@
         <v>68061.1433</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
@@ -1467,7 +1667,7 @@
         <v>60151.1433</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
@@ -1547,7 +1747,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
@@ -1586,7 +1786,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
@@ -1625,7 +1825,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
@@ -1703,7 +1903,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
@@ -1781,316 +1981,370 @@
         <v>60951.1433</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="n">
+        <v>60551.1433</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>94</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94</v>
+      </c>
+      <c r="E42" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G42" t="n">
+        <v>67351.1433</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>94</v>
+      </c>
+      <c r="C43" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G43" t="n">
+        <v>72151.1433</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>95</v>
+      </c>
+      <c r="D44" t="n">
+        <v>95</v>
+      </c>
+      <c r="E44" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G44" t="n">
+        <v>73751.1433</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>95</v>
+      </c>
+      <c r="C45" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>95</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G45" t="n">
+        <v>76951.1433</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1650</v>
+      </c>
+      <c r="G46" t="n">
+        <v>76951.1433</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>99</v>
+      </c>
+      <c r="D47" t="n">
+        <v>99</v>
+      </c>
+      <c r="E47" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>95748.76720919192</v>
+      </c>
+      <c r="G47" t="n">
+        <v>172699.9105091919</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C48" t="n">
+        <v>99</v>
+      </c>
+      <c r="D48" t="n">
+        <v>99</v>
+      </c>
+      <c r="E48" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3314.0707</v>
+      </c>
+      <c r="G48" t="n">
+        <v>172699.9105091919</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1888.28</v>
+      </c>
+      <c r="G49" t="n">
+        <v>170811.6305091919</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="C41" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="D41" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="E41" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="F41" t="n">
-        <v>400</v>
-      </c>
-      <c r="G41" t="n">
-        <v>60551.1433</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="C42" t="n">
-        <v>94</v>
-      </c>
-      <c r="D42" t="n">
-        <v>94</v>
-      </c>
-      <c r="E42" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="F42" t="n">
-        <v>6800</v>
-      </c>
-      <c r="G42" t="n">
-        <v>67351.1433</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>94</v>
-      </c>
-      <c r="C43" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="D43" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="E43" t="n">
-        <v>94</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4800</v>
-      </c>
-      <c r="G43" t="n">
-        <v>72151.1433</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="C44" t="n">
-        <v>95</v>
-      </c>
-      <c r="D44" t="n">
-        <v>95</v>
-      </c>
-      <c r="E44" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G44" t="n">
-        <v>73751.1433</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>95</v>
-      </c>
-      <c r="C45" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D45" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="E45" t="n">
-        <v>95</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G45" t="n">
-        <v>76951.1433</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D46" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="E46" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1650</v>
-      </c>
-      <c r="G46" t="n">
-        <v>76951.1433</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>99</v>
-      </c>
-      <c r="D47" t="n">
-        <v>99</v>
-      </c>
-      <c r="E47" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F47" t="n">
-        <v>95748.76720919192</v>
-      </c>
-      <c r="G47" t="n">
-        <v>172699.9105091919</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="C48" t="n">
-        <v>99</v>
-      </c>
-      <c r="D48" t="n">
-        <v>99</v>
-      </c>
-      <c r="E48" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3314.0707</v>
-      </c>
-      <c r="G48" t="n">
-        <v>172699.9105091919</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="C49" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D49" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E49" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1888.28</v>
-      </c>
-      <c r="G49" t="n">
-        <v>170811.6305091919</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>1.029078807241746</v>
       </c>
       <c r="M49" t="inlineStr"/>
     </row>
@@ -2249,7 +2503,7 @@
         <v>171249.3265091919</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2381,7 +2635,7 @@
         <v>171249.3265091919</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2777,7 +3031,7 @@
         <v>208597.2780091919</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2810,7 +3064,7 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2843,7 +3097,7 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2876,7 +3130,7 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2909,7 +3163,7 @@
         <v>205036.6729091919</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2942,7 +3196,7 @@
         <v>205036.6729091919</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3173,7 +3427,7 @@
         <v>205785.1870091919</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3206,7 +3460,7 @@
         <v>204185.1870091919</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3239,7 +3493,7 @@
         <v>203385.1870091919</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3272,7 +3526,7 @@
         <v>203385.1870091919</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3305,7 +3559,7 @@
         <v>206585.1870091919</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3338,7 +3592,7 @@
         <v>206585.1870091919</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3437,7 +3691,7 @@
         <v>210489.4015091919</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3569,7 +3823,7 @@
         <v>116980.0063091919</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -5549,7 +5803,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5582,7 +5836,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5615,7 +5869,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5648,7 +5902,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5681,7 +5935,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5714,7 +5968,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5747,7 +6001,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5780,7 +6034,7 @@
         <v>95893.13686739297</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5813,7 +6067,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5846,7 +6100,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5879,7 +6133,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5912,7 +6166,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5945,7 +6199,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5978,7 +6232,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6011,7 +6265,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6044,7 +6298,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6077,7 +6331,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6110,7 +6364,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6143,7 +6397,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6176,7 +6430,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6209,7 +6463,7 @@
         <v>117303.461067393</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6242,7 +6496,7 @@
         <v>118683.700467393</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6275,7 +6529,7 @@
         <v>118557.878767393</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6407,7 +6661,7 @@
         <v>111244.492667393</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest PAY.xlsx
+++ b/BackTest/2019-11-02 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>11973.0075</v>
       </c>
       <c r="G2" t="n">
-        <v>48107.71610000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>1454.8523</v>
       </c>
       <c r="G3" t="n">
-        <v>48107.71610000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>2198.935</v>
       </c>
       <c r="G4" t="n">
-        <v>48107.71610000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,15 @@
         <v>5702.3216</v>
       </c>
       <c r="G5" t="n">
-        <v>48107.71610000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +563,15 @@
         <v>2400</v>
       </c>
       <c r="G6" t="n">
-        <v>45707.71610000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +593,21 @@
         <v>3600</v>
       </c>
       <c r="G7" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
         <v>93.8</v>
       </c>
-      <c r="J7" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +629,21 @@
         <v>3200</v>
       </c>
       <c r="G8" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +665,21 @@
         <v>2800</v>
       </c>
       <c r="G9" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +701,21 @@
         <v>5090</v>
       </c>
       <c r="G10" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +737,21 @@
         <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +773,19 @@
         <v>716</v>
       </c>
       <c r="G12" t="n">
-        <v>49307.71610000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +807,21 @@
         <v>800</v>
       </c>
       <c r="G13" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +843,21 @@
         <v>1600</v>
       </c>
       <c r="G14" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,26 +879,21 @@
         <v>1600</v>
       </c>
       <c r="G15" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,26 +915,19 @@
         <v>800</v>
       </c>
       <c r="G16" t="n">
-        <v>49307.71610000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1051,26 +949,21 @@
         <v>2800</v>
       </c>
       <c r="G17" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,26 +985,21 @@
         <v>17867</v>
       </c>
       <c r="G18" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1133,26 +1021,21 @@
         <v>4905</v>
       </c>
       <c r="G19" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1174,26 +1057,21 @@
         <v>800</v>
       </c>
       <c r="G20" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1215,26 +1093,21 @@
         <v>400</v>
       </c>
       <c r="G21" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1256,26 +1129,21 @@
         <v>9727</v>
       </c>
       <c r="G22" t="n">
-        <v>49307.71610000001</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1297,26 +1165,19 @@
         <v>203</v>
       </c>
       <c r="G23" t="n">
-        <v>49307.71610000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J23" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1338,26 +1199,19 @@
         <v>24951.9032</v>
       </c>
       <c r="G24" t="n">
-        <v>24355.8129</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J24" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1379,26 +1233,19 @@
         <v>7200</v>
       </c>
       <c r="G25" t="n">
-        <v>31555.8129</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>93</v>
-      </c>
-      <c r="J25" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1420,26 +1267,21 @@
         <v>1753.8828</v>
       </c>
       <c r="G26" t="n">
-        <v>31555.8129</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J26" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1461,26 +1303,19 @@
         <v>3898</v>
       </c>
       <c r="G27" t="n">
-        <v>31555.8129</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1502,26 +1337,19 @@
         <v>538.2356</v>
       </c>
       <c r="G28" t="n">
-        <v>31017.5773</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J28" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1543,26 +1371,21 @@
         <v>37043.566</v>
       </c>
       <c r="G29" t="n">
-        <v>68061.1433</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="J29" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1584,26 +1407,21 @@
         <v>117</v>
       </c>
       <c r="G30" t="n">
-        <v>68061.1433</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J30" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1625,24 +1443,21 @@
         <v>2797</v>
       </c>
       <c r="G31" t="n">
-        <v>68061.1433</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1664,24 +1479,21 @@
         <v>7910</v>
       </c>
       <c r="G32" t="n">
-        <v>60151.1433</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1703,26 +1515,21 @@
         <v>800</v>
       </c>
       <c r="G33" t="n">
-        <v>60951.1433</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
         <v>92.40000000000001</v>
       </c>
-      <c r="J33" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1744,24 +1551,19 @@
         <v>667.4760383386581</v>
       </c>
       <c r="G34" t="n">
-        <v>60951.1433</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1783,24 +1585,19 @@
         <v>600.4366347177848</v>
       </c>
       <c r="G35" t="n">
-        <v>60951.1433</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1822,24 +1619,19 @@
         <v>417.7955</v>
       </c>
       <c r="G36" t="n">
-        <v>60951.1433</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1861,24 +1653,19 @@
         <v>2800</v>
       </c>
       <c r="G37" t="n">
-        <v>60951.1433</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1900,24 +1687,19 @@
         <v>6400</v>
       </c>
       <c r="G38" t="n">
-        <v>60951.1433</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1939,24 +1721,19 @@
         <v>5200</v>
       </c>
       <c r="G39" t="n">
-        <v>60951.1433</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1978,24 +1755,19 @@
         <v>7504.2375</v>
       </c>
       <c r="G40" t="n">
-        <v>60951.1433</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2017,24 +1789,19 @@
         <v>400</v>
       </c>
       <c r="G41" t="n">
-        <v>60551.1433</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2056,24 +1823,19 @@
         <v>6800</v>
       </c>
       <c r="G42" t="n">
-        <v>67351.1433</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2095,24 +1857,19 @@
         <v>4800</v>
       </c>
       <c r="G43" t="n">
-        <v>72151.1433</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2134,24 +1891,19 @@
         <v>1600</v>
       </c>
       <c r="G44" t="n">
-        <v>73751.1433</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2173,24 +1925,19 @@
         <v>3200</v>
       </c>
       <c r="G45" t="n">
-        <v>76951.1433</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2212,24 +1959,19 @@
         <v>1650</v>
       </c>
       <c r="G46" t="n">
-        <v>76951.1433</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2251,24 +1993,19 @@
         <v>95748.76720919192</v>
       </c>
       <c r="G47" t="n">
-        <v>172699.9105091919</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2290,24 +2027,19 @@
         <v>3314.0707</v>
       </c>
       <c r="G48" t="n">
-        <v>172699.9105091919</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2329,24 +2061,19 @@
         <v>1888.28</v>
       </c>
       <c r="G49" t="n">
-        <v>170811.6305091919</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1.029078807241746</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2368,18 +2095,19 @@
         <v>981.6154</v>
       </c>
       <c r="G50" t="n">
-        <v>170811.6305091919</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2401,18 +2129,19 @@
         <v>635</v>
       </c>
       <c r="G51" t="n">
-        <v>170811.6305091919</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2434,18 +2163,17 @@
         <v>1409.1366</v>
       </c>
       <c r="G52" t="n">
-        <v>170811.6305091919</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2467,18 +2195,15 @@
         <v>362.304</v>
       </c>
       <c r="G53" t="n">
-        <v>170449.3265091919</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2500,18 +2225,15 @@
         <v>800</v>
       </c>
       <c r="G54" t="n">
-        <v>171249.3265091919</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2533,18 +2255,15 @@
         <v>10047.9751</v>
       </c>
       <c r="G55" t="n">
-        <v>171249.3265091919</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2566,18 +2285,15 @@
         <v>800</v>
       </c>
       <c r="G56" t="n">
-        <v>171249.3265091919</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2599,18 +2315,15 @@
         <v>6910.6301</v>
       </c>
       <c r="G57" t="n">
-        <v>171249.3265091919</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2632,18 +2345,15 @@
         <v>800</v>
       </c>
       <c r="G58" t="n">
-        <v>171249.3265091919</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2665,18 +2375,15 @@
         <v>800</v>
       </c>
       <c r="G59" t="n">
-        <v>170449.3265091919</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2698,18 +2405,15 @@
         <v>1600</v>
       </c>
       <c r="G60" t="n">
-        <v>168849.3265091919</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2731,18 +2435,15 @@
         <v>4800</v>
       </c>
       <c r="G61" t="n">
-        <v>173649.3265091919</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2764,18 +2465,15 @@
         <v>3933.7034</v>
       </c>
       <c r="G62" t="n">
-        <v>169715.6231091919</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2797,18 +2495,15 @@
         <v>2800</v>
       </c>
       <c r="G63" t="n">
-        <v>172515.6231091919</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2830,18 +2525,15 @@
         <v>7200</v>
       </c>
       <c r="G64" t="n">
-        <v>179715.6231091919</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2863,18 +2555,15 @@
         <v>1239.6694</v>
       </c>
       <c r="G65" t="n">
-        <v>179715.6231091919</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2896,18 +2585,15 @@
         <v>400</v>
       </c>
       <c r="G66" t="n">
-        <v>179715.6231091919</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2929,18 +2615,15 @@
         <v>800</v>
       </c>
       <c r="G67" t="n">
-        <v>179715.6231091919</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2962,18 +2645,15 @@
         <v>5868</v>
       </c>
       <c r="G68" t="n">
-        <v>185583.6231091919</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2995,18 +2675,15 @@
         <v>23013.6549</v>
       </c>
       <c r="G69" t="n">
-        <v>208597.2780091919</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3028,18 +2705,15 @@
         <v>5148.7169</v>
       </c>
       <c r="G70" t="n">
-        <v>208597.2780091919</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3061,18 +2735,15 @@
         <v>1560.6051</v>
       </c>
       <c r="G71" t="n">
-        <v>207036.6729091919</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3094,18 +2765,15 @@
         <v>7845.2307</v>
       </c>
       <c r="G72" t="n">
-        <v>207036.6729091919</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3127,18 +2795,15 @@
         <v>4934.9333</v>
       </c>
       <c r="G73" t="n">
-        <v>207036.6729091919</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3160,18 +2825,15 @@
         <v>2000</v>
       </c>
       <c r="G74" t="n">
-        <v>205036.6729091919</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3193,18 +2855,15 @@
         <v>135</v>
       </c>
       <c r="G75" t="n">
-        <v>205036.6729091919</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3226,18 +2885,15 @@
         <v>1641.11</v>
       </c>
       <c r="G76" t="n">
-        <v>206677.7829091919</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3259,18 +2915,15 @@
         <v>1164</v>
       </c>
       <c r="G77" t="n">
-        <v>206677.7829091919</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3292,18 +2945,15 @@
         <v>130</v>
       </c>
       <c r="G78" t="n">
-        <v>206677.7829091919</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3325,18 +2975,15 @@
         <v>3200</v>
       </c>
       <c r="G79" t="n">
-        <v>203477.7829091919</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3358,18 +3005,15 @@
         <v>13361.6176</v>
       </c>
       <c r="G80" t="n">
-        <v>216839.4005091919</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3391,18 +3035,15 @@
         <v>12748.2135</v>
       </c>
       <c r="G81" t="n">
-        <v>204091.1870091919</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3424,18 +3065,15 @@
         <v>1694</v>
       </c>
       <c r="G82" t="n">
-        <v>205785.1870091919</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3457,18 +3095,15 @@
         <v>1600</v>
       </c>
       <c r="G83" t="n">
-        <v>204185.1870091919</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3490,18 +3125,15 @@
         <v>800</v>
       </c>
       <c r="G84" t="n">
-        <v>203385.1870091919</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3523,18 +3155,15 @@
         <v>2568.4239</v>
       </c>
       <c r="G85" t="n">
-        <v>203385.1870091919</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3556,18 +3185,15 @@
         <v>3200</v>
       </c>
       <c r="G86" t="n">
-        <v>206585.1870091919</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3589,18 +3215,15 @@
         <v>15600</v>
       </c>
       <c r="G87" t="n">
-        <v>206585.1870091919</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3622,18 +3245,15 @@
         <v>7210</v>
       </c>
       <c r="G88" t="n">
-        <v>213795.1870091919</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3655,18 +3275,15 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>213795.1870091919</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3688,18 +3305,15 @@
         <v>3305.7855</v>
       </c>
       <c r="G90" t="n">
-        <v>210489.4015091919</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3721,18 +3335,15 @@
         <v>95509.3952</v>
       </c>
       <c r="G91" t="n">
-        <v>114980.0063091919</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3754,18 +3365,15 @@
         <v>2000</v>
       </c>
       <c r="G92" t="n">
-        <v>116980.0063091919</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3787,18 +3395,15 @@
         <v>619.6</v>
       </c>
       <c r="G93" t="n">
-        <v>116980.0063091919</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3820,18 +3425,15 @@
         <v>3131.4403</v>
       </c>
       <c r="G94" t="n">
-        <v>116980.0063091919</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3853,18 +3455,15 @@
         <v>250</v>
       </c>
       <c r="G95" t="n">
-        <v>117230.0063091919</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3886,18 +3485,15 @@
         <v>1211</v>
       </c>
       <c r="G96" t="n">
-        <v>117230.0063091919</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3919,18 +3515,15 @@
         <v>11</v>
       </c>
       <c r="G97" t="n">
-        <v>117230.0063091919</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3952,18 +3545,15 @@
         <v>1600</v>
       </c>
       <c r="G98" t="n">
-        <v>115630.0063091919</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3985,18 +3575,15 @@
         <v>4656.5105</v>
       </c>
       <c r="G99" t="n">
-        <v>115630.0063091919</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4018,18 +3605,15 @@
         <v>4969.811</v>
       </c>
       <c r="G100" t="n">
-        <v>115630.0063091919</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4051,18 +3635,15 @@
         <v>4714.0403</v>
       </c>
       <c r="G101" t="n">
-        <v>110915.9660091919</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4084,18 +3665,15 @@
         <v>2400</v>
       </c>
       <c r="G102" t="n">
-        <v>108515.9660091919</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4117,18 +3695,15 @@
         <v>4984.1602</v>
       </c>
       <c r="G103" t="n">
-        <v>108515.9660091919</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4150,18 +3725,15 @@
         <v>800</v>
       </c>
       <c r="G104" t="n">
-        <v>108515.9660091919</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4183,18 +3755,15 @@
         <v>4102.3536</v>
       </c>
       <c r="G105" t="n">
-        <v>108515.9660091919</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4216,18 +3785,15 @@
         <v>10723</v>
       </c>
       <c r="G106" t="n">
-        <v>97792.96600919191</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4249,18 +3815,15 @@
         <v>10624.05</v>
       </c>
       <c r="G107" t="n">
-        <v>97792.96600919191</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4282,18 +3845,15 @@
         <v>550.0821</v>
       </c>
       <c r="G108" t="n">
-        <v>97242.88390919191</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4315,18 +3875,15 @@
         <v>10451.5617</v>
       </c>
       <c r="G109" t="n">
-        <v>86791.3222091919</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4348,18 +3905,15 @@
         <v>9975</v>
       </c>
       <c r="G110" t="n">
-        <v>86791.3222091919</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4381,18 +3935,15 @@
         <v>3944.191</v>
       </c>
       <c r="G111" t="n">
-        <v>86791.3222091919</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4414,18 +3965,15 @@
         <v>1556.7036</v>
       </c>
       <c r="G112" t="n">
-        <v>85234.61860919191</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4447,18 +3995,15 @@
         <v>781.7944</v>
       </c>
       <c r="G113" t="n">
-        <v>86016.41300919191</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4480,18 +4025,15 @@
         <v>1200</v>
       </c>
       <c r="G114" t="n">
-        <v>87216.41300919191</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4513,18 +4055,15 @@
         <v>2000</v>
       </c>
       <c r="G115" t="n">
-        <v>87216.41300919191</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4546,18 +4085,15 @@
         <v>6000</v>
       </c>
       <c r="G116" t="n">
-        <v>87216.41300919191</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4579,18 +4115,15 @@
         <v>800</v>
       </c>
       <c r="G117" t="n">
-        <v>86416.41300919191</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4612,18 +4145,15 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>86416.41300919191</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4645,18 +4175,15 @@
         <v>400</v>
       </c>
       <c r="G119" t="n">
-        <v>86416.41300919191</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4678,18 +4205,15 @@
         <v>1200</v>
       </c>
       <c r="G120" t="n">
-        <v>86416.41300919191</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4711,18 +4235,15 @@
         <v>800</v>
       </c>
       <c r="G121" t="n">
-        <v>87216.41300919191</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4744,18 +4265,15 @@
         <v>340.4255319148936</v>
       </c>
       <c r="G122" t="n">
-        <v>87216.41300919191</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4777,18 +4295,15 @@
         <v>800</v>
       </c>
       <c r="G123" t="n">
-        <v>87216.41300919191</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4810,18 +4325,15 @@
         <v>1200</v>
       </c>
       <c r="G124" t="n">
-        <v>87216.41300919191</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4843,18 +4355,19 @@
         <v>800</v>
       </c>
       <c r="G125" t="n">
-        <v>87216.41300919191</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>94</v>
+      </c>
+      <c r="I125" t="n">
+        <v>94</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4876,18 +4389,21 @@
         <v>543</v>
       </c>
       <c r="G126" t="n">
-        <v>87216.41300919191</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>94</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4909,18 +4425,23 @@
         <v>9445.089900000001</v>
       </c>
       <c r="G127" t="n">
-        <v>96661.50290919191</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>94</v>
+      </c>
+      <c r="I127" t="n">
+        <v>94</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4942,18 +4463,15 @@
         <v>7299.7248</v>
       </c>
       <c r="G128" t="n">
-        <v>96661.50290919191</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4975,18 +4493,15 @@
         <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>96651.50290919191</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5008,18 +4523,15 @@
         <v>20</v>
       </c>
       <c r="G130" t="n">
-        <v>96651.50290919191</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5041,18 +4553,15 @@
         <v>10582.0105</v>
       </c>
       <c r="G131" t="n">
-        <v>107233.5134091919</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5074,18 +4583,15 @@
         <v>14059.8388</v>
       </c>
       <c r="G132" t="n">
-        <v>93173.67460919192</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5107,18 +4613,15 @@
         <v>4339.3312</v>
       </c>
       <c r="G133" t="n">
-        <v>93173.67460919192</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5140,18 +4643,15 @@
         <v>400</v>
       </c>
       <c r="G134" t="n">
-        <v>93173.67460919192</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5173,18 +4673,15 @@
         <v>400</v>
       </c>
       <c r="G135" t="n">
-        <v>93173.67460919192</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5206,18 +4703,15 @@
         <v>619.896</v>
       </c>
       <c r="G136" t="n">
-        <v>93173.67460919192</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5239,18 +4733,15 @@
         <v>5128.66</v>
       </c>
       <c r="G137" t="n">
-        <v>93173.67460919192</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5272,18 +4763,15 @@
         <v>1058.201058201058</v>
       </c>
       <c r="G138" t="n">
-        <v>94231.87566739297</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5305,18 +4793,15 @@
         <v>800</v>
       </c>
       <c r="G139" t="n">
-        <v>93431.87566739297</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5338,18 +4823,15 @@
         <v>800</v>
       </c>
       <c r="G140" t="n">
-        <v>93431.87566739297</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5371,18 +4853,15 @@
         <v>1123.7623</v>
       </c>
       <c r="G141" t="n">
-        <v>93431.87566739297</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5404,18 +4883,15 @@
         <v>5385.2346</v>
       </c>
       <c r="G142" t="n">
-        <v>93431.87566739297</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5437,18 +4913,15 @@
         <v>800</v>
       </c>
       <c r="G143" t="n">
-        <v>94231.87566739297</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5470,18 +4943,19 @@
         <v>108.8757417989418</v>
       </c>
       <c r="G144" t="n">
-        <v>94231.87566739297</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>94.5</v>
+      </c>
+      <c r="I144" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5503,18 +4977,21 @@
         <v>2175</v>
       </c>
       <c r="G145" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5536,18 +5013,21 @@
         <v>3061</v>
       </c>
       <c r="G146" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5569,18 +5049,15 @@
         <v>5600</v>
       </c>
       <c r="G147" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5602,18 +5079,15 @@
         <v>2401</v>
       </c>
       <c r="G148" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5635,18 +5109,15 @@
         <v>420</v>
       </c>
       <c r="G149" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5668,18 +5139,15 @@
         <v>2400</v>
       </c>
       <c r="G150" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5701,18 +5169,15 @@
         <v>800</v>
       </c>
       <c r="G151" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5734,18 +5199,15 @@
         <v>800</v>
       </c>
       <c r="G152" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5767,18 +5229,15 @@
         <v>800</v>
       </c>
       <c r="G153" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5800,18 +5259,15 @@
         <v>2000</v>
       </c>
       <c r="G154" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5833,18 +5289,15 @@
         <v>2460</v>
       </c>
       <c r="G155" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5866,18 +5319,15 @@
         <v>8504.937099999999</v>
       </c>
       <c r="G156" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5899,18 +5349,15 @@
         <v>800</v>
       </c>
       <c r="G157" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5932,18 +5379,15 @@
         <v>800</v>
       </c>
       <c r="G158" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5965,18 +5409,15 @@
         <v>1221.3637</v>
       </c>
       <c r="G159" t="n">
-        <v>96406.87566739297</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5998,18 +5439,19 @@
         <v>2000</v>
       </c>
       <c r="G160" t="n">
-        <v>96406.87566739297</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>95.40000000000001</v>
+      </c>
+      <c r="I160" t="n">
+        <v>95.40000000000001</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6031,18 +5473,21 @@
         <v>513.7388</v>
       </c>
       <c r="G161" t="n">
-        <v>95893.13686739297</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6064,18 +5509,23 @@
         <v>587</v>
       </c>
       <c r="G162" t="n">
-        <v>96480.13686739297</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>95.09999999999999</v>
+      </c>
+      <c r="I162" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6097,18 +5547,21 @@
         <v>800</v>
       </c>
       <c r="G163" t="n">
-        <v>96480.13686739297</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6130,18 +5583,23 @@
         <v>800</v>
       </c>
       <c r="G164" t="n">
-        <v>96480.13686739297</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>95.40000000000001</v>
+      </c>
+      <c r="I164" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6163,18 +5621,21 @@
         <v>800</v>
       </c>
       <c r="G165" t="n">
-        <v>96480.13686739297</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6196,18 +5657,23 @@
         <v>1200</v>
       </c>
       <c r="G166" t="n">
-        <v>96480.13686739297</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>95.40000000000001</v>
+      </c>
+      <c r="I166" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6229,18 +5695,23 @@
         <v>15864.9371</v>
       </c>
       <c r="G167" t="n">
-        <v>96480.13686739297</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>95.40000000000001</v>
+      </c>
+      <c r="I167" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6262,18 +5733,23 @@
         <v>19761</v>
       </c>
       <c r="G168" t="n">
-        <v>116241.136867393</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>95.40000000000001</v>
+      </c>
+      <c r="I168" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6295,18 +5771,21 @@
         <v>1041.666666666667</v>
       </c>
       <c r="G169" t="n">
-        <v>116241.136867393</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6328,18 +5807,21 @@
         <v>400</v>
       </c>
       <c r="G170" t="n">
-        <v>116241.136867393</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6361,18 +5843,21 @@
         <v>12133.6498</v>
       </c>
       <c r="G171" t="n">
-        <v>116241.136867393</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6394,18 +5879,21 @@
         <v>27671.4883</v>
       </c>
       <c r="G172" t="n">
-        <v>116241.136867393</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6427,18 +5915,21 @@
         <v>3.3333333333334e-05</v>
       </c>
       <c r="G173" t="n">
-        <v>116241.136867393</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6460,18 +5951,21 @@
         <v>1062.3242</v>
       </c>
       <c r="G174" t="n">
-        <v>117303.461067393</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6493,18 +5987,21 @@
         <v>1380.2394</v>
       </c>
       <c r="G175" t="n">
-        <v>118683.700467393</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6526,18 +6023,21 @@
         <v>125.8217</v>
       </c>
       <c r="G176" t="n">
-        <v>118557.878767393</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6559,18 +6059,21 @@
         <v>5223.5268</v>
       </c>
       <c r="G177" t="n">
-        <v>113334.351967393</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6592,18 +6095,21 @@
         <v>2784.4698</v>
       </c>
       <c r="G178" t="n">
-        <v>110549.882167393</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6625,18 +6131,21 @@
         <v>1305.3895</v>
       </c>
       <c r="G179" t="n">
-        <v>109244.492667393</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6658,18 +6167,21 @@
         <v>2000</v>
       </c>
       <c r="G180" t="n">
-        <v>111244.492667393</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6691,18 +6203,21 @@
         <v>800</v>
       </c>
       <c r="G181" t="n">
-        <v>110444.492667393</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6724,18 +6239,21 @@
         <v>1429.7784</v>
       </c>
       <c r="G182" t="n">
-        <v>109014.714267393</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6757,18 +6275,21 @@
         <v>100</v>
       </c>
       <c r="G183" t="n">
-        <v>109114.714267393</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6790,18 +6311,21 @@
         <v>652.6987</v>
       </c>
       <c r="G184" t="n">
-        <v>108462.015567393</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6823,18 +6347,21 @@
         <v>2991.6595</v>
       </c>
       <c r="G185" t="n">
-        <v>105470.356067393</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6856,18 +6383,21 @@
         <v>3245.4528</v>
       </c>
       <c r="G186" t="n">
-        <v>108715.808867393</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6889,18 +6419,21 @@
         <v>10697.591</v>
       </c>
       <c r="G187" t="n">
-        <v>98018.21786739299</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6922,18 +6455,21 @@
         <v>4799.1814</v>
       </c>
       <c r="G188" t="n">
-        <v>98018.21786739299</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6955,18 +6491,21 @@
         <v>2383.91</v>
       </c>
       <c r="G189" t="n">
-        <v>100402.127867393</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6988,18 +6527,21 @@
         <v>1200</v>
       </c>
       <c r="G190" t="n">
-        <v>101602.127867393</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7021,18 +6563,21 @@
         <v>792557.9142</v>
       </c>
       <c r="G191" t="n">
-        <v>101602.127867393</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7054,18 +6599,21 @@
         <v>667111.8981</v>
       </c>
       <c r="G192" t="n">
-        <v>101602.127867393</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7087,18 +6635,21 @@
         <v>74109.7065</v>
       </c>
       <c r="G193" t="n">
-        <v>101602.127867393</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7120,18 +6671,21 @@
         <v>65390.9175</v>
       </c>
       <c r="G194" t="n">
-        <v>101602.127867393</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7153,18 +6707,21 @@
         <v>41.0661</v>
       </c>
       <c r="G195" t="n">
-        <v>101643.193967393</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7186,18 +6743,21 @@
         <v>410.859</v>
       </c>
       <c r="G196" t="n">
-        <v>102054.052967393</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7219,18 +6779,21 @@
         <v>800</v>
       </c>
       <c r="G197" t="n">
-        <v>102054.052967393</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7252,18 +6815,21 @@
         <v>7262.0573</v>
       </c>
       <c r="G198" t="n">
-        <v>109316.110267393</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7285,18 +6851,21 @@
         <v>243.367</v>
       </c>
       <c r="G199" t="n">
-        <v>109316.110267393</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7318,18 +6887,21 @@
         <v>1479.6583</v>
       </c>
       <c r="G200" t="n">
-        <v>109316.110267393</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
